--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25680" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Human Chromosome 21</t>
+  </si>
+  <si>
+    <t>2.3 GB</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -533,10 +536,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -581,7 +581,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Type</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>2.3 GB</t>
+  </si>
+  <si>
+    <t>198.6 Minutes</t>
+  </si>
+  <si>
+    <t>615.7  Minutes</t>
+  </si>
+  <si>
+    <t>732 MB</t>
   </si>
 </sst>
 </file>
@@ -126,9 +135,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -142,14 +153,16 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -538,6 +551,9 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
@@ -577,6 +593,101 @@
       </c>
       <c r="D5">
         <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="49" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickTop="1">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="27960" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t>Type</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Size of Index files</t>
   </si>
   <si>
-    <t>Size of Read files</t>
-  </si>
-  <si>
     <t>Number of Read files</t>
   </si>
   <si>
@@ -42,12 +39,6 @@
     <t>Time to process 1 Read file</t>
   </si>
   <si>
-    <t>414 Minutes</t>
-  </si>
-  <si>
-    <t>1.2 GB</t>
-  </si>
-  <si>
     <t>Time to Process all Read  files</t>
   </si>
   <si>
@@ -60,16 +51,25 @@
     <t>Human Chromosome 21</t>
   </si>
   <si>
-    <t>2.3 GB</t>
-  </si>
-  <si>
-    <t>198.6 Minutes</t>
-  </si>
-  <si>
-    <t>615.7  Minutes</t>
-  </si>
-  <si>
-    <t>732 MB</t>
+    <t>Cyder</t>
+  </si>
+  <si>
+    <t>Number of threads</t>
+  </si>
+  <si>
+    <t>Time to process 1 Read file (seconds)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Time to process 1 Read file(Minutes)</t>
+  </si>
+  <si>
+    <t>Size of Read files(GB)</t>
+  </si>
+  <si>
+    <t>Size of Read files(MB)</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -146,28 +146,237 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.209669072615923"/>
+          <c:y val="0.0833333333333333"/>
+          <c:w val="0.683923665791776"/>
+          <c:h val="0.822469378827647"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>615.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="649669624"/>
+        <c:axId val="547466456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="649669624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="547466456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547466456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="649669624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J21" sqref="A16:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -507,8 +716,8 @@
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1"/>
-    <row r="2" spans="1:9" ht="59" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="6" customHeight="1"/>
+    <row r="2" spans="1:14" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,92 +728,126 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickTop="1">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickTop="1">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="E3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F3">
+        <v>615.70000000000005</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N3">
+        <v>615.70000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <v>414</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1.2</v>
+      </c>
+      <c r="N4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="E5">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F5">
+        <v>198.6</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="49" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="N5">
+        <v>198.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="49" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,83 +858,290 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" thickTop="1">
+      <c r="A10" t="s">
         <v>9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" thickTop="1">
-      <c r="A10" t="s">
-        <v>12</v>
       </c>
       <c r="B10">
         <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
+      <c r="E10">
+        <v>2.2999999999999998</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="49" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="16" spans="1:14" ht="16" thickTop="1">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>229</v>
+      </c>
+      <c r="F16">
+        <v>2908</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>229</v>
+      </c>
+      <c r="F17">
+        <v>2834</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>229</v>
+      </c>
+      <c r="F18">
+        <v>2718</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>229</v>
+      </c>
+      <c r="F19">
+        <v>2716</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>229</v>
+      </c>
+      <c r="F20">
+        <v>2725</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>229</v>
+      </c>
+      <c r="F21">
+        <v>2715</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="27960" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="27980" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
   <si>
     <t>Type</t>
   </si>
@@ -60,23 +60,32 @@
     <t>Time to process 1 Read file (seconds)</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Time to process 1 Read file(Minutes)</t>
-  </si>
-  <si>
     <t>Size of Read files(GB)</t>
   </si>
   <si>
     <t>Size of Read files(MB)</t>
+  </si>
+  <si>
+    <t>Varying the Number of threads</t>
+  </si>
+  <si>
+    <t>Time to process 1 Read file(Sec)</t>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>Varying the Number of Read Files</t>
+  </si>
+  <si>
+    <t>Varying the Number of Read Files with different number of Index files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +117,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,10 +151,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -163,7 +198,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,33 +209,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -222,31 +267,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.209669072615923"/>
-          <c:y val="0.0833333333333333"/>
-          <c:w val="0.683923665791776"/>
-          <c:h val="0.822469378827647"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:cat>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time to process 1 Read file(Sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$5</c:f>
+              <c:f>Sheet1!$E$3:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.3</c:v>
                 </c:pt>
@@ -256,27 +306,33 @@
                 <c:pt idx="2">
                   <c:v>0.732</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$5</c:f>
+              <c:f>Sheet1!$F$3:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>615.7</c:v>
+                  <c:v>36942.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>414.0</c:v>
+                  <c:v>24840.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>198.6</c:v>
+                  <c:v>11916.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3841.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -287,51 +343,299 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="649669624"/>
-        <c:axId val="547466456"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="649669624"/>
+        <c:axId val="649637272"/>
+        <c:axId val="545405304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="649637272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of Read files(GB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547466456"/>
+        <c:crossAx val="545405304"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="547466456"/>
+        <c:axId val="545405304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>  in Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649669624"/>
+        <c:crossAx val="649637272"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Varying the Number of threads  for Bfast Matching </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0694127296587926"/>
+          <c:y val="0.0277777777777778"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Varying the Number of threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3539.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2908.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2834.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2718.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2716.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2725.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2715.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="548347288"/>
+        <c:axId val="538222792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="548347288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="538222792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="538222792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in  seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="548347288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -349,19 +653,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>482600</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -371,6 +675,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -701,23 +1035,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="A16:J21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="6" customHeight="1"/>
-    <row r="2" spans="1:14" ht="59" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="59" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,10 +1070,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -746,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickTop="1">
+    <row r="3" spans="1:9" ht="16" thickTop="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -763,7 +1102,8 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F3">
-        <v>615.70000000000005</v>
+        <f>615.7*60</f>
+        <v>36942</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -771,14 +1111,8 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N3">
-        <v>615.70000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -795,7 +1129,8 @@
         <v>1.2</v>
       </c>
       <c r="F4">
-        <v>414</v>
+        <f>414*60</f>
+        <v>24840</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -803,14 +1138,8 @@
       <c r="I4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>1.2</v>
-      </c>
-      <c r="N4">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -827,7 +1156,8 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="F5">
-        <v>198.6</v>
+        <f>198.6*60</f>
+        <v>11916</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -835,224 +1165,171 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="N5">
-        <v>198.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
       <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="49" thickBot="1">
-      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F6">
+        <v>3841</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="50" thickTop="1" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" thickTop="1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>160</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:9" ht="16" thickTop="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1.2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="49" thickBot="1">
-      <c r="A15" s="1" t="s">
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="50" thickTop="1" thickBot="1">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" thickTop="1">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>37</v>
-      </c>
-      <c r="E16">
-        <v>229</v>
-      </c>
-      <c r="F16">
-        <v>2908</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>229</v>
-      </c>
-      <c r="F17">
-        <v>2834</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>37</v>
-      </c>
-      <c r="E18">
-        <v>229</v>
-      </c>
-      <c r="F18">
-        <v>2718</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="16" thickTop="1">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1069,13 +1346,13 @@
         <v>229</v>
       </c>
       <c r="F19">
-        <v>2716</v>
+        <v>3539</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1095,13 +1372,13 @@
         <v>229</v>
       </c>
       <c r="F20">
-        <v>2725</v>
+        <v>2908</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1121,22 +1398,202 @@
         <v>229</v>
       </c>
       <c r="F21">
-        <v>2715</v>
+        <v>2834</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>229</v>
+      </c>
+      <c r="F22">
+        <v>2718</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>229</v>
+      </c>
+      <c r="F23">
+        <v>2716</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>229</v>
+      </c>
+      <c r="F24">
+        <v>2725</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>229</v>
+      </c>
+      <c r="F25">
+        <v>2715</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="H26" t="s">
-        <v>13</v>
+    <row r="29" spans="1:9" ht="49" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16" thickTop="1">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>229</v>
+      </c>
+      <c r="F30">
+        <v>2908</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="E31" s="3"/>
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>229</v>
+      </c>
+      <c r="F31">
+        <v>2834</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="27980" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="27960" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
   <si>
     <t>Type</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Size of Read files(GB)</t>
   </si>
   <si>
-    <t>Size of Read files(MB)</t>
-  </si>
-  <si>
     <t>Varying the Number of threads</t>
   </si>
   <si>
@@ -79,6 +76,21 @@
   </si>
   <si>
     <t>Varying the Number of Read Files with different number of Index files</t>
+  </si>
+  <si>
+    <t>Understanding I/O</t>
+  </si>
+  <si>
+    <t>painter</t>
+  </si>
+  <si>
+    <t>Number of cores/bfast-match</t>
+  </si>
+  <si>
+    <t>Number of bfast matches for this test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of nodes </t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -173,6 +185,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -211,7 +233,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -228,6 +250,11 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -246,6 +273,11 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -658,10 +690,10 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -683,15 +715,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1035,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1048,12 +1080,13 @@
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -1073,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -1194,7 +1227,7 @@
     </row>
     <row r="9" spans="1:9" ht="20" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50" thickTop="1" thickBot="1">
@@ -1243,7 +1276,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -1266,7 +1299,7 @@
         <v>1.2</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1289,18 +1322,18 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20" thickBot="1">
+    <row r="17" spans="1:12" ht="20" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="50" thickTop="1" thickBot="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="50" thickTop="1" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1329,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" thickTop="1">
+    <row r="19" spans="1:12" ht="16" thickTop="1">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1376,7 @@
         <v>37</v>
       </c>
       <c r="E19">
-        <v>229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F19">
         <v>3539</v>
@@ -1355,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="E20">
-        <v>229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F20">
         <v>2908</v>
@@ -1381,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1428,7 @@
         <v>37</v>
       </c>
       <c r="E21">
-        <v>229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F21">
         <v>2834</v>
@@ -1407,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1421,7 +1454,7 @@
         <v>37</v>
       </c>
       <c r="E22">
-        <v>229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F22">
         <v>2718</v>
@@ -1433,7 +1466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1480,7 @@
         <v>37</v>
       </c>
       <c r="E23">
-        <v>229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F23">
         <v>2716</v>
@@ -1459,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1506,7 @@
         <v>37</v>
       </c>
       <c r="E24">
-        <v>229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F24">
         <v>2725</v>
@@ -1485,7 +1518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1532,7 @@
         <v>37</v>
       </c>
       <c r="E25">
-        <v>229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F25">
         <v>2715</v>
@@ -1511,7 +1544,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="49" thickBot="1">
+    <row r="28" spans="1:12" ht="20" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="66" thickTop="1" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
@@ -1539,8 +1577,17 @@
       <c r="I29" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="16" thickTop="1">
+      <c r="J29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16" thickTop="1">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1551,22 +1598,28 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>229</v>
-      </c>
-      <c r="F30">
-        <v>2908</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1577,22 +1630,92 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>229</v>
-      </c>
-      <c r="F31">
-        <v>2834</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="5:5">
+      <c r="E32">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="E36" s="3"/>
     </row>
   </sheetData>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="27960" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Type</t>
   </si>
@@ -36,9 +36,6 @@
     <t>1.9GB</t>
   </si>
   <si>
-    <t>Time to process 1 Read file</t>
-  </si>
-  <si>
     <t>Time to Process all Read  files</t>
   </si>
   <si>
@@ -90,14 +87,29 @@
     <t>Number of bfast matches for this test</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of nodes </t>
+    <t xml:space="preserve">Number of nodes/Cores </t>
+  </si>
+  <si>
+    <t>Number of nodes</t>
+  </si>
+  <si>
+    <t>Cyder 12 core</t>
+  </si>
+  <si>
+    <t>Painter=4 core</t>
+  </si>
+  <si>
+    <t>Poseidon=4 core</t>
+  </si>
+  <si>
+    <t>~ Time For all Read files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +149,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,8 +199,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA7BFDE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -219,8 +255,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,8 +290,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -255,6 +319,17 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -278,6 +353,17 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,7 +440,7 @@
                   <c:v>36942.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24840.0</c:v>
+                  <c:v>18603.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11916.0</c:v>
@@ -375,11 +461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="649637272"/>
-        <c:axId val="545405304"/>
+        <c:axId val="230970584"/>
+        <c:axId val="649450664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="649637272"/>
+        <c:axId val="230970584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,12 +494,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545405304"/>
+        <c:crossAx val="649450664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545405304"/>
+        <c:axId val="649450664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649637272"/>
+        <c:crossAx val="230970584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -499,8 +585,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0694127296587926"/>
-          <c:y val="0.0277777777777778"/>
+          <c:x val="0.0775927088868493"/>
+          <c:y val="0.0309273978547957"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -595,12 +681,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="548347288"/>
-        <c:axId val="538222792"/>
+        <c:axId val="231087992"/>
+        <c:axId val="545799208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="548347288"/>
+        <c:axId val="231087992"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -628,12 +715,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538222792"/>
+        <c:crossAx val="545799208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="538222792"/>
+        <c:axId val="545799208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548347288"/>
+        <c:crossAx val="231087992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -684,16 +771,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -714,16 +801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1067,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1081,15 +1168,26 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="59" customHeight="1" thickTop="1" thickBot="1">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,24 +1201,30 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickTop="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickTop="1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1139,15 +1243,22 @@
         <v>36942</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>D3*F3</f>
+        <v>147768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1162,19 +1273,25 @@
         <v>1.2</v>
       </c>
       <c r="F4">
-        <f>414*60</f>
-        <v>24840</v>
+        <v>18603</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>D4*F4</f>
+        <v>148824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1193,15 +1310,22 @@
         <v>11916</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>D5*F5</f>
+        <v>142992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -1216,21 +1340,29 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F6">
+        <f>3841</f>
         <v>3841</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" thickBot="1">
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>D6*F6</f>
+        <v>142117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="50" thickTop="1" thickBot="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="50" thickTop="1" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,24 +1376,27 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" thickTop="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" thickTop="1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1276,15 +1411,18 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1298,16 +1436,22 @@
       <c r="E12">
         <v>1.2</v>
       </c>
+      <c r="F12">
+        <v>4428</v>
+      </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1321,19 +1465,28 @@
       <c r="E13">
         <v>0.73199999999999998</v>
       </c>
+      <c r="F13">
+        <v>2855</v>
+      </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="20" thickBot="1">
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="20" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="50" thickTop="1" thickBot="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="50" thickTop="1" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,24 +1500,27 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16" thickTop="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" thickTop="1">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>40</v>
@@ -1382,15 +1538,18 @@
         <v>3539</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>40</v>
@@ -1408,15 +1567,18 @@
         <v>2908</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -1434,15 +1596,18 @@
         <v>2834</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -1460,15 +1625,18 @@
         <v>2718</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>40</v>
@@ -1486,15 +1654,18 @@
         <v>2716</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>40</v>
@@ -1512,15 +1683,18 @@
         <v>2725</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>40</v>
@@ -1538,18 +1712,21 @@
         <v>2715</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="20" thickBot="1">
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="20" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="66" thickTop="1" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="66" thickTop="1" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,33 +1740,34 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16" thickTop="1">
+      <c r="L29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="16" thickTop="1">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>40</v>
@@ -1603,25 +1781,30 @@
       <c r="E30">
         <v>2.2999999999999998</v>
       </c>
+      <c r="F30">
+        <f>615.7*60</f>
+        <v>36942</v>
+      </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="7">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>40</v>
@@ -1636,24 +1819,24 @@
         <v>1.2</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
-      <c r="J31">
-        <v>2</v>
+      <c r="J31" s="7">
+        <v>1</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -1662,22 +1845,22 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0.73199999999999998</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>4</v>
+      <c r="J32" s="7">
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -1685,7 +1868,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>40</v>
@@ -1694,26 +1877,29 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>0.73199999999999998</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>4</v>
+      <c r="J33" s="7">
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L33">
         <v>2</v>
       </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="J34" s="7"/>
     </row>
     <row r="36" spans="1:12">
       <c r="E36" s="3"/>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t>Type</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Number of bfast matches for this test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of nodes/Cores </t>
   </si>
   <si>
     <t>Number of nodes</t>
@@ -461,11 +458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230970584"/>
-        <c:axId val="649450664"/>
+        <c:axId val="404178168"/>
+        <c:axId val="404185016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230970584"/>
+        <c:axId val="404178168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,12 +491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649450664"/>
+        <c:crossAx val="404185016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="649450664"/>
+        <c:axId val="404185016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230970584"/>
+        <c:crossAx val="404178168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -681,11 +678,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231087992"/>
-        <c:axId val="545799208"/>
+        <c:axId val="404250216"/>
+        <c:axId val="404255752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231087992"/>
+        <c:axId val="404250216"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -715,12 +712,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545799208"/>
+        <c:crossAx val="404255752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545799208"/>
+        <c:axId val="404255752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231087992"/>
+        <c:crossAx val="404250216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1156,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1178,13 +1175,13 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -1216,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" thickTop="1">
@@ -1391,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" thickTop="1">
@@ -1515,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" thickTop="1">
@@ -1726,7 +1723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="66" thickTop="1" thickBot="1">
+    <row r="29" spans="1:13" ht="50" thickTop="1" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1818,6 +1815,9 @@
       <c r="E31">
         <v>1.2</v>
       </c>
+      <c r="F31">
+        <v>19618</v>
+      </c>
       <c r="H31" t="s">
         <v>19</v>
       </c>
@@ -1906,7 +1906,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Type</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>~ Time For all Read files</t>
+  </si>
+  <si>
+    <t>Time to process Read file (seconds)</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -444,6 +443,50 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3841.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 index files</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8810.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4428.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2855.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,6 +807,142 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time to process Read file (seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$30:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19618.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28299.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419592200"/>
+        <c:axId val="420182888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="419592200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="420182888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420182888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="419592200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -821,6 +1000,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1153,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="G30" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1407,6 +1616,9 @@
       <c r="E11">
         <v>2.2999999999999998</v>
       </c>
+      <c r="F11">
+        <v>8810</v>
+      </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>5</v>
@@ -1849,6 +2061,9 @@
       </c>
       <c r="E32">
         <v>0.73199999999999998</v>
+      </c>
+      <c r="F32">
+        <v>28299</v>
       </c>
       <c r="H32" t="s">
         <v>19</v>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
   <si>
     <t>Type</t>
   </si>
@@ -209,7 +209,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,6 +221,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,7 +299,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -330,6 +332,7 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -364,6 +367,7 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,7 +391,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.205798328780331"/>
+          <c:y val="0.0867992766726944"/>
+          <c:w val="0.706931222882854"/>
+          <c:h val="0.778131594310205"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -457,10 +471,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$11:$E$13</c:f>
+              <c:f>Sheet1!$E$11:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.3</c:v>
                 </c:pt>
@@ -469,16 +483,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$11:$F$13</c:f>
+              <c:f>Sheet1!$F$11:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8810.0</c:v>
                 </c:pt>
@@ -487,6 +504,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2855.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>936.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,11 +521,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404178168"/>
-        <c:axId val="404185016"/>
+        <c:axId val="514260600"/>
+        <c:axId val="514267480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404178168"/>
+        <c:axId val="514260600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,12 +554,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404185016"/>
+        <c:crossAx val="514267480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404185016"/>
+        <c:axId val="514267480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,11 +594,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404178168"/>
+        <c:crossAx val="514260600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -721,11 +752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404250216"/>
-        <c:axId val="404255752"/>
+        <c:axId val="514326120"/>
+        <c:axId val="514331656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404250216"/>
+        <c:axId val="514326120"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -755,12 +786,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404255752"/>
+        <c:crossAx val="514331656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404255752"/>
+        <c:axId val="514331656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404250216"/>
+        <c:crossAx val="514326120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -891,11 +922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419592200"/>
-        <c:axId val="420182888"/>
+        <c:axId val="514357416"/>
+        <c:axId val="514360376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419592200"/>
+        <c:axId val="514357416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,12 +936,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420182888"/>
+        <c:crossAx val="514360376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420182888"/>
+        <c:axId val="514360376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419592200"/>
+        <c:crossAx val="514357416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -947,16 +978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1362,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G30" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1688,7 +1719,46 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="J14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>37</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>936</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="20" thickBot="1">
       <c r="A17" s="4" t="s">
@@ -2121,6 +2191,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="129"/>
+    <workbookView xWindow="2380" yWindow="0" windowWidth="26420" windowHeight="17560" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
   <si>
     <t>Type</t>
   </si>
@@ -103,13 +103,25 @@
   </si>
   <si>
     <t>Time to process Read file (seconds)</t>
+  </si>
+  <si>
+    <t>On LONI</t>
+  </si>
+  <si>
+    <t>Number of threads/Bfast-Match</t>
+  </si>
+  <si>
+    <t>Total Number of cores</t>
+  </si>
+  <si>
+    <t>On Sierra-Euca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,13 +176,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -209,7 +233,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -279,8 +303,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,8 +333,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="71" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="71"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="80">
+    <cellStyle name="Bad" xfId="71" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -333,6 +373,11 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -368,6 +413,11 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,6 +439,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Read files vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time to Solution per Read file</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -396,10 +469,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.205798328780331"/>
-          <c:y val="0.0867992766726944"/>
-          <c:w val="0.706931222882854"/>
-          <c:h val="0.778131594310205"/>
+          <c:x val="0.223848887120157"/>
+          <c:y val="0.216306877569507"/>
+          <c:w val="0.665655404706682"/>
+          <c:h val="0.680482408053424"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -409,16 +482,22 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to process 1 Read file(Sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>40 Index files</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$6</c:f>
@@ -469,6 +548,26 @@
           <c:tx>
             <c:v>10 index files</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$E$11:$E$14</c:f>
@@ -521,11 +620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="514260600"/>
-        <c:axId val="514267480"/>
+        <c:axId val="393341832"/>
+        <c:axId val="404209784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="514260600"/>
+        <c:axId val="393341832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,18 +653,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514267480"/>
+        <c:crossAx val="404209784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="514267480"/>
+        <c:axId val="404209784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -594,7 +692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514260600"/>
+        <c:crossAx val="393341832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -647,19 +745,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Varying the Number of threads  for Bfast Matching </a:t>
+              <a:t>Number</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of threads vs Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0775927088868493"/>
-          <c:y val="0.0309273978547957"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -682,6 +778,20 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$I$19:$I$25</c:f>
@@ -752,11 +862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="514326120"/>
-        <c:axId val="514331656"/>
+        <c:axId val="404275320"/>
+        <c:axId val="404280840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="514326120"/>
+        <c:axId val="404275320"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -786,18 +896,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514331656"/>
+        <c:crossAx val="404280840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="514331656"/>
+        <c:axId val="404280840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -821,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514326120"/>
+        <c:crossAx val="404275320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -853,12 +962,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Number of bfast matches VS Time </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.167527760952958"/>
+          <c:y val="0.0251081031259052"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0931999125109361"/>
+          <c:y val="0.169230769230769"/>
+          <c:w val="0.870982737734706"/>
+          <c:h val="0.762720353935691"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -866,30 +1008,36 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to process Read file (seconds)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Time</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:f>Sheet1!$K$30:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.3</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.732</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,11 +1070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="514357416"/>
-        <c:axId val="514360376"/>
+        <c:axId val="404306600"/>
+        <c:axId val="404309560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="514357416"/>
+        <c:axId val="404306600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,32 +1084,27 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514360376"/>
+        <c:crossAx val="404309560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="514360376"/>
+        <c:axId val="404309560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514357416"/>
+        <c:crossAx val="404306600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -979,15 +1122,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1038,16 +1181,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1391,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J50:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1405,6 +1548,8 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
@@ -1599,7 +1744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="50" thickTop="1" thickBot="1">
+    <row r="10" spans="1:12" ht="34" thickTop="1" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,6 +1804,10 @@
       <c r="J11" s="8">
         <v>1</v>
       </c>
+      <c r="L11">
+        <f>D11*F11</f>
+        <v>35240</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -1688,6 +1837,10 @@
       <c r="J12" s="7">
         <v>1</v>
       </c>
+      <c r="L12">
+        <f>D12*F12</f>
+        <v>35424</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -1716,6 +1869,10 @@
       </c>
       <c r="J13" s="7">
         <v>1</v>
+      </c>
+      <c r="L13">
+        <f>D13*F13</f>
+        <v>34260</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1765,7 +1922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="50" thickTop="1" thickBot="1">
+    <row r="18" spans="1:13" ht="34" thickTop="1" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2184,10 +2341,264 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="J34" s="7"/>
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F34">
+        <v>25215</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="E36" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="20" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16" thickTop="1">
+      <c r="A43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="7">
+        <v>10</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7">
+        <v>37</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="7">
+        <v>2</v>
+      </c>
+      <c r="J43" s="7">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>37</v>
+      </c>
+      <c r="L43" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="7">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7">
+        <v>20</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2</v>
+      </c>
+      <c r="J44" s="7">
+        <v>40</v>
+      </c>
+      <c r="K44">
+        <v>37</v>
+      </c>
+      <c r="L44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="20" thickBot="1">
+      <c r="A48" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16" thickTop="1">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="7">
+        <v>10</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
+        <v>37</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2</v>
+      </c>
+      <c r="J50" s="7">
+        <v>80</v>
+      </c>
+      <c r="K50">
+        <v>37</v>
+      </c>
+      <c r="L50" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="7">
+        <v>10</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7">
+        <v>20</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="7">
+        <v>2</v>
+      </c>
+      <c r="J51" s="7">
+        <v>40</v>
+      </c>
+      <c r="K51">
+        <v>37</v>
+      </c>
+      <c r="L51" s="7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="0" windowWidth="26420" windowHeight="17560" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16640" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -105,23 +105,89 @@
     <t>Time to process Read file (seconds)</t>
   </si>
   <si>
-    <t>On LONI</t>
-  </si>
-  <si>
     <t>Number of threads/Bfast-Match</t>
   </si>
   <si>
     <t>Total Number of cores</t>
   </si>
   <si>
-    <t>On Sierra-Euca</t>
+    <t>Number of VM's</t>
+  </si>
+  <si>
+    <t>Sierra-Euca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AVAILABILITYZONE  |- vm types     free / max   cpu     ram  disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AVAILABILITYZONE  |- m1.small     0160 / 0160   1      512     5</t>
+  </si>
+  <si>
+    <t>  AVAILABILITYZONE  |- c1.medium    0160 / 0160   1     1024     7</t>
+  </si>
+  <si>
+    <t>  AVAILABILITYZONE  |- m1.large     0080 / 0080   2     6000    10</t>
+  </si>
+  <si>
+    <t>  AVAILABILITYZONE  |- m1.xlarge    0040 / 0040   2     12000   10</t>
+  </si>
+  <si>
+    <t>  AVAILABILITYZONE  |- c1.xlarge    0020 / 0020   8     30000  10l</t>
+  </si>
+  <si>
+    <t>  AVAILABILITYZONE  india     149.165.146.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AVAILABILITYZONE  |- m1.small     0400 / 0400   1      512     5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AVAILABILITYZONE  |- c1.medium    0400 / 0400   1     1024     7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AVAILABILITYZONE  |- m1.large     0200 / 0200   2     6000    10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AVAILABILITYZONE  |- m1.xlarge    0100 / 0100   2     12000   10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AVAILABILITYZONE  |- c1.xlarge    0050 / 0050   8     20000   10</t>
+  </si>
+  <si>
+    <t>AVAILABILITYZONE  sierra    198.202.120.90</t>
+  </si>
+  <si>
+    <t>LONI- BigJob</t>
+  </si>
+  <si>
+    <t>Sierra-Euca-Bigjob</t>
+  </si>
+  <si>
+    <t>LONI-EUCA BigJob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users can make use of a maximum of 50 nodes on India and 21 nodes on Sierra with the current setup. </t>
+  </si>
+  <si>
+    <t>Boot time VM's</t>
+  </si>
+  <si>
+    <t>c1.xlarge 10</t>
+  </si>
+  <si>
+    <t>c1.xlarge 5</t>
+  </si>
+  <si>
+    <t>painter-Euca</t>
+  </si>
+  <si>
+    <t>c1.xlarge 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,23 +244,23 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF292929"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -233,7 +299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -305,7 +371,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -333,13 +431,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="71" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="71"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="79"/>
   </cellXfs>
-  <cellStyles count="80">
-    <cellStyle name="Bad" xfId="71" builtinId="27"/>
+  <cellStyles count="112">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -374,10 +469,26 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -414,11 +525,28 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -620,11 +748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393341832"/>
-        <c:axId val="404209784"/>
+        <c:axId val="427349432"/>
+        <c:axId val="535691752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393341832"/>
+        <c:axId val="427349432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,12 +781,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404209784"/>
+        <c:crossAx val="535691752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404209784"/>
+        <c:axId val="535691752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393341832"/>
+        <c:crossAx val="427349432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -862,11 +990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404275320"/>
-        <c:axId val="404280840"/>
+        <c:axId val="404532856"/>
+        <c:axId val="432570760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404275320"/>
+        <c:axId val="404532856"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -896,12 +1024,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404280840"/>
+        <c:crossAx val="432570760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404280840"/>
+        <c:axId val="432570760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +1058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404275320"/>
+        <c:crossAx val="404532856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1070,11 +1198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404306600"/>
-        <c:axId val="404309560"/>
+        <c:axId val="428429192"/>
+        <c:axId val="427063832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404306600"/>
+        <c:axId val="428429192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,13 +1212,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404309560"/>
+        <c:crossAx val="427063832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404309560"/>
+        <c:axId val="427063832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404306600"/>
+        <c:crossAx val="428429192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1534,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J50:J51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1547,9 +1675,11 @@
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
@@ -1598,6 +1728,9 @@
         <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1631,6 +1764,9 @@
         <v>4</v>
       </c>
       <c r="J3" s="7">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7">
         <v>1</v>
       </c>
       <c r="L3">
@@ -1664,6 +1800,9 @@
         <v>4</v>
       </c>
       <c r="J4" s="7">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7">
         <v>1</v>
       </c>
       <c r="L4">
@@ -1698,6 +1837,9 @@
         <v>4</v>
       </c>
       <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7">
         <v>1</v>
       </c>
       <c r="L5">
@@ -1732,6 +1874,9 @@
         <v>4</v>
       </c>
       <c r="J6" s="7">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1744,7 +1889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="34" thickTop="1" thickBot="1">
+    <row r="10" spans="1:12" ht="50" thickTop="1" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1773,6 +1918,9 @@
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1801,7 +1949,10 @@
       <c r="I11">
         <v>4</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
+        <v>4</v>
+      </c>
+      <c r="K11" s="8">
         <v>1</v>
       </c>
       <c r="L11">
@@ -1835,6 +1986,9 @@
         <v>4</v>
       </c>
       <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7">
         <v>1</v>
       </c>
       <c r="L12">
@@ -1868,6 +2022,9 @@
         <v>4</v>
       </c>
       <c r="J13" s="7">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7">
         <v>1</v>
       </c>
       <c r="L13">
@@ -1902,6 +2059,9 @@
         <v>4</v>
       </c>
       <c r="J14" s="7">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1916,13 +2076,14 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="17" spans="1:13" ht="20" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="34" thickTop="1" thickBot="1">
+    <row r="18" spans="1:13" ht="66" thickTop="1" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,6 +2112,9 @@
         <v>10</v>
       </c>
       <c r="J18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1979,7 +2143,10 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
+        <v>4</v>
+      </c>
+      <c r="K19" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2009,6 +2176,9 @@
         <v>4</v>
       </c>
       <c r="J20" s="7">
+        <v>4</v>
+      </c>
+      <c r="K20" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2038,6 +2208,9 @@
         <v>8</v>
       </c>
       <c r="J21" s="7">
+        <v>4</v>
+      </c>
+      <c r="K21" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2067,6 +2240,9 @@
         <v>12</v>
       </c>
       <c r="J22" s="7">
+        <v>4</v>
+      </c>
+      <c r="K22" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2096,6 +2272,9 @@
         <v>16</v>
       </c>
       <c r="J23" s="7">
+        <v>4</v>
+      </c>
+      <c r="K23" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2125,6 +2304,9 @@
         <v>20</v>
       </c>
       <c r="J24" s="7">
+        <v>4</v>
+      </c>
+      <c r="K24" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2154,6 +2336,9 @@
         <v>32</v>
       </c>
       <c r="J25" s="7">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2191,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>21</v>
@@ -2228,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2264,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2299,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32">
         <v>4</v>
@@ -2331,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -2366,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -2380,7 +2565,7 @@
     </row>
     <row r="41" spans="1:12" ht="20" thickBot="1">
       <c r="A41" s="4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="50" thickTop="1" thickBot="1">
@@ -2399,7 +2584,7 @@
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2409,92 +2594,103 @@
         <v>6</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>21</v>
+      <c r="K42" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16" thickTop="1">
-      <c r="A43" s="7" t="s">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="7">
-        <v>10</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
         <v>37</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
+      <c r="H43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" s="7">
         <v>80</v>
       </c>
-      <c r="K43">
-        <v>37</v>
-      </c>
-      <c r="L43" s="7">
+      <c r="K43" s="8">
+        <v>20</v>
+      </c>
+      <c r="L43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="7" t="s">
+      <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
         <v>10</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
         <v>20</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44">
         <v>0.45</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
+      <c r="F44" s="3"/>
+      <c r="H44" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" s="7">
         <v>40</v>
       </c>
-      <c r="K44">
-        <v>37</v>
-      </c>
-      <c r="L44" s="7">
+      <c r="K44" s="7">
+        <v>10</v>
+      </c>
+      <c r="L44">
         <v>2</v>
       </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="F45" s="3"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="F46" s="3"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="F47" s="3"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:12" ht="20" thickBot="1">
       <c r="A48" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="50" thickTop="1" thickBot="1">
+        <v>46</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="50" thickTop="1" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2706,7 @@
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -2520,19 +2716,25 @@
         <v>6</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>21</v>
+      <c r="K49" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="16" thickTop="1">
+      <c r="M49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16" thickTop="1">
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
@@ -2548,10 +2750,10 @@
       <c r="E50" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I50" s="7">
         <v>2</v>
@@ -2559,14 +2761,17 @@
       <c r="J50" s="7">
         <v>80</v>
       </c>
-      <c r="K50">
-        <v>37</v>
+      <c r="K50" s="8">
+        <v>0</v>
       </c>
       <c r="L50" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2582,10 +2787,10 @@
       <c r="E51" s="7">
         <v>0.45</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I51" s="7">
         <v>2</v>
@@ -2593,11 +2798,203 @@
       <c r="J51" s="7">
         <v>40</v>
       </c>
-      <c r="K51">
-        <v>37</v>
+      <c r="K51" s="7">
+        <v>0</v>
       </c>
       <c r="L51" s="7">
         <v>2</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="20" thickBot="1">
+      <c r="A56" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="16" thickTop="1">
+      <c r="A58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="7">
+        <v>10</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7">
+        <v>37</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="7">
+        <v>2</v>
+      </c>
+      <c r="J58" s="7">
+        <v>80</v>
+      </c>
+      <c r="K58" s="7">
+        <v>10</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7">
+        <v>10</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7">
+        <v>20</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="7">
+        <v>2</v>
+      </c>
+      <c r="J59" s="7">
+        <v>80</v>
+      </c>
+      <c r="K59" s="7">
+        <v>6</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -299,7 +299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,6 +380,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -434,7 +436,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="79"/>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="114">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -489,6 +491,7 @@
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -545,6 +548,7 @@
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -748,11 +752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427349432"/>
-        <c:axId val="535691752"/>
+        <c:axId val="461936840"/>
+        <c:axId val="461945288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427349432"/>
+        <c:axId val="461936840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,12 +785,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535691752"/>
+        <c:crossAx val="461945288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="535691752"/>
+        <c:axId val="461945288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="427349432"/>
+        <c:crossAx val="461936840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -990,11 +994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404532856"/>
-        <c:axId val="432570760"/>
+        <c:axId val="462004536"/>
+        <c:axId val="462011688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404532856"/>
+        <c:axId val="462004536"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1024,12 +1028,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432570760"/>
+        <c:crossAx val="462011688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432570760"/>
+        <c:axId val="462011688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404532856"/>
+        <c:crossAx val="462004536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1198,11 +1202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428429192"/>
-        <c:axId val="427063832"/>
+        <c:axId val="462037384"/>
+        <c:axId val="462041944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428429192"/>
+        <c:axId val="462037384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,13 +1216,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="427063832"/>
+        <c:crossAx val="462041944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427063832"/>
+        <c:axId val="462041944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428429192"/>
+        <c:crossAx val="462037384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1279,16 +1283,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1310,14 +1314,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1662,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2144,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K19" s="8">
         <v>1</v>
@@ -2176,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7">
         <v>1</v>
@@ -2208,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K21" s="7">
         <v>1</v>
@@ -2240,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7">
         <v>1</v>
@@ -2272,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K23" s="7">
         <v>1</v>
@@ -2304,7 +2308,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K24" s="7">
         <v>1</v>
@@ -2336,7 +2340,7 @@
         <v>32</v>
       </c>
       <c r="J25" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -2617,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>0.22900000000000001</v>
@@ -2643,7 +2647,7 @@
         <v>8</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -2672,328 +2676,395 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="F45" s="3"/>
-      <c r="K45" s="7"/>
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" s="7">
+        <v>12</v>
+      </c>
+      <c r="K45" s="8">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>0.45</v>
+      </c>
       <c r="F46" s="3"/>
-      <c r="K46" s="7"/>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>12</v>
+      </c>
+      <c r="K46" s="7">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:12">
       <c r="F47" s="3"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:12" ht="20" thickBot="1">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:12">
+      <c r="F48" s="3"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="F49" s="3"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" ht="20" thickBot="1">
+      <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A49" s="1" t="s">
+      <c r="F50" s="3"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16" thickTop="1">
-      <c r="A50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="7">
+    <row r="52" spans="1:14" ht="16" thickTop="1">
+      <c r="A52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="7">
+        <v>40</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7">
+        <v>40</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="7">
+        <v>2</v>
+      </c>
+      <c r="J52" s="7">
+        <v>80</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
+        <v>2</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="7">
+        <v>40</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7">
+        <v>20</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="7">
+        <v>2</v>
+      </c>
+      <c r="J53" s="7">
+        <v>40</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
+        <v>2</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="20" thickBot="1">
+      <c r="A58" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="16" thickTop="1">
+      <c r="A60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7">
+        <v>40</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7">
+        <v>40</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="7">
+        <v>2</v>
+      </c>
+      <c r="J60" s="7">
+        <v>80</v>
+      </c>
+      <c r="K60" s="7">
         <v>10</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7">
-        <v>37</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" s="7">
+      <c r="M60" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7">
+        <v>40</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="7">
+        <v>20</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="7">
         <v>2</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J61" s="7">
         <v>80</v>
       </c>
-      <c r="K50" s="8">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7">
-        <v>2</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="7">
-        <v>10</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="7">
-        <v>20</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="7">
-        <v>2</v>
-      </c>
-      <c r="J51" s="7">
-        <v>40</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0</v>
-      </c>
-      <c r="L51" s="7">
-        <v>2</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="20" thickBot="1">
-      <c r="A56" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="K61" s="7">
         <v>6</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="16" thickTop="1">
-      <c r="A58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="7">
-        <v>10</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="7">
-        <v>37</v>
-      </c>
-      <c r="E58" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I58" s="7">
-        <v>2</v>
-      </c>
-      <c r="J58" s="7">
-        <v>80</v>
-      </c>
-      <c r="K58" s="7">
-        <v>10</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="7">
-        <v>10</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="7">
-        <v>20</v>
-      </c>
-      <c r="E59" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" s="7">
-        <v>2</v>
-      </c>
-      <c r="J59" s="7">
-        <v>80</v>
-      </c>
-      <c r="K59" s="7">
-        <v>6</v>
-      </c>
-      <c r="M59" s="7" t="s">
+      <c r="M61" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="10" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9" t="s">
         <v>37</v>
       </c>
     </row>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Number of Index Files</t>
   </si>
   <si>
-    <t>Size of Index files</t>
-  </si>
-  <si>
     <t>Number of Read files</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Time to process 1 Read file (seconds)</t>
   </si>
   <si>
-    <t>Size of Read files(GB)</t>
-  </si>
-  <si>
     <t>Varying the Number of threads</t>
   </si>
   <si>
@@ -171,23 +165,32 @@
     <t>Boot time VM's</t>
   </si>
   <si>
-    <t>c1.xlarge 10</t>
-  </si>
-  <si>
-    <t>c1.xlarge 5</t>
-  </si>
-  <si>
     <t>painter-Euca</t>
   </si>
   <si>
-    <t>c1.xlarge 2</t>
+    <t>m1.xlarge 10</t>
+  </si>
+  <si>
+    <t>m1.xlarge 40</t>
+  </si>
+  <si>
+    <t>m1.xlarge 20</t>
+  </si>
+  <si>
+    <t>Size of each Read files(GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Size of each Read files(GB)</t>
+  </si>
+  <si>
+    <t>Size of all Index files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,13 +257,25 @@
       <color rgb="FF292929"/>
       <name val="Courier"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -299,7 +314,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="114">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -412,10 +427,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -435,8 +459,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="79"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="112" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="112"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="112" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="114">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -491,7 +522,11 @@
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -548,7 +583,12 @@
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="112" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1666,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1691,16 +1731,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -1710,46 +1750,46 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" thickTop="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1762,7 +1802,7 @@
         <v>36942</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -1780,13 +1820,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1798,7 +1838,7 @@
         <v>18603</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1816,13 +1856,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1835,7 +1875,7 @@
         <v>11916</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1853,13 +1893,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>37</v>
@@ -1872,7 +1912,7 @@
         <v>3841</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1890,7 +1930,7 @@
     </row>
     <row r="9" spans="1:12" ht="20" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="50" thickTop="1" thickBot="1">
@@ -1900,43 +1940,43 @@
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" thickTop="1">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1948,7 +1988,7 @@
         <v>8810</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -1966,13 +2006,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1984,7 +2024,7 @@
         <v>4428</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -2002,13 +2042,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2020,7 +2060,7 @@
         <v>2855</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -2038,13 +2078,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
         <v>37</v>
@@ -2057,7 +2097,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
         <v>4</v>
@@ -2084,7 +2124,7 @@
     </row>
     <row r="17" spans="1:13" ht="20" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="66" thickTop="1" thickBot="1">
@@ -2094,43 +2134,43 @@
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" thickTop="1">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -2142,7 +2182,7 @@
         <v>3539</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2156,13 +2196,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>37</v>
@@ -2174,7 +2214,7 @@
         <v>2908</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2188,13 +2228,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>37</v>
@@ -2206,7 +2246,7 @@
         <v>2834</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -2220,13 +2260,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>37</v>
@@ -2238,7 +2278,7 @@
         <v>2718</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>12</v>
@@ -2252,13 +2292,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>37</v>
@@ -2270,7 +2310,7 @@
         <v>2716</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>16</v>
@@ -2284,13 +2324,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>37</v>
@@ -2302,7 +2342,7 @@
         <v>2725</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24">
         <v>20</v>
@@ -2316,13 +2356,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>37</v>
@@ -2334,7 +2374,7 @@
         <v>2715</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <v>32</v>
@@ -2348,7 +2388,7 @@
     </row>
     <row r="28" spans="1:13" ht="20" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50" thickTop="1" thickBot="1">
@@ -2359,46 +2399,46 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="16" thickTop="1">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -2411,7 +2451,7 @@
         <v>36942</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -2429,13 +2469,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -2447,7 +2487,7 @@
         <v>19618</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2464,13 +2504,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>16</v>
@@ -2482,7 +2522,7 @@
         <v>28299</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2497,146 +2537,148 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="14" customHeight="1">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0.73199999999999998</v>
       </c>
+      <c r="F33">
+        <v>25215</v>
+      </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
         <v>1</v>
       </c>
-      <c r="J33" s="7">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33">
+    </row>
+    <row r="35" spans="1:12">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="40" spans="1:12" ht="20" thickBot="1">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16" thickTop="1">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F34">
-        <v>25215</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="J34" s="7">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="E36" s="3"/>
-    </row>
-    <row r="41" spans="1:12" ht="20" thickBot="1">
-      <c r="A41" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="50" thickTop="1" thickBot="1">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42">
         <v>2</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="J42" s="7">
+        <v>80</v>
+      </c>
+      <c r="K42" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="16" thickTop="1">
+      <c r="L42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>0.22900000000000001</v>
-      </c>
+        <v>0.435</v>
+      </c>
+      <c r="F43" s="13"/>
       <c r="H43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" s="7">
-        <v>80</v>
-      </c>
-      <c r="K43" s="8">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="K43" s="7">
+        <v>10</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -2644,32 +2686,32 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E44">
-        <v>0.45</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F44" s="12"/>
       <c r="H44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" s="7">
-        <v>40</v>
-      </c>
-      <c r="K44" s="7">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="K44" s="8">
+        <v>3</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -2677,22 +2719,23 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>0.22900000000000001</v>
-      </c>
+        <v>0.435</v>
+      </c>
+      <c r="F45" s="13"/>
       <c r="H45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -2700,251 +2743,265 @@
       <c r="J45" s="7">
         <v>12</v>
       </c>
-      <c r="K45" s="8">
-        <v>20</v>
+      <c r="K45" s="7">
+        <v>3</v>
       </c>
       <c r="L45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46">
-        <v>40</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>20</v>
-      </c>
-      <c r="E46">
-        <v>0.45</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="H46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46" s="7">
-        <v>12</v>
-      </c>
-      <c r="K46" s="7">
-        <v>10</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
+      <c r="F46" s="13"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="F47" s="3"/>
+      <c r="F47" s="13"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="F48" s="3"/>
-      <c r="J48" s="7"/>
+      <c r="F48" s="13"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:14">
-      <c r="F49" s="3"/>
+    <row r="49" spans="1:14" ht="20" thickBot="1">
+      <c r="A49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="13"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="20" thickBot="1">
-      <c r="A50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A51" s="1" t="s">
+    <row r="50" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16" thickTop="1">
+      <c r="A51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7">
+        <v>40</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="6" t="s">
+      <c r="D51" s="7">
+        <v>40</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="16" thickTop="1">
+      <c r="I51" s="7">
+        <v>2</v>
+      </c>
+      <c r="J51" s="7">
+        <v>80</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>2</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="7">
         <v>40</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E52" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>0.435</v>
+      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I52" s="7">
         <v>2</v>
       </c>
       <c r="J52" s="7">
-        <v>80</v>
-      </c>
-      <c r="K52" s="8">
+        <v>40</v>
+      </c>
+      <c r="K52" s="7">
         <v>0</v>
       </c>
       <c r="L52" s="7">
         <v>2</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" ht="20" thickBot="1">
+      <c r="A57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="16" thickTop="1">
+      <c r="A59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="7">
         <v>40</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="7">
-        <v>20</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="7">
+      <c r="C59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="7">
+        <v>40</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="7"/>
+      <c r="H59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="7">
         <v>2</v>
       </c>
-      <c r="J53" s="7">
-        <v>40</v>
-      </c>
-      <c r="K53" s="7">
-        <v>0</v>
-      </c>
-      <c r="L53" s="7">
-        <v>2</v>
-      </c>
-      <c r="M53" s="7" t="s">
+      <c r="J59" s="7">
+        <v>80</v>
+      </c>
+      <c r="K59" s="7">
+        <v>10</v>
+      </c>
+      <c r="M59" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="20" thickBot="1">
-      <c r="A58" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="16" thickTop="1">
+    <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="7">
         <v>40</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E60" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F60" s="7"/>
+        <v>0.435</v>
+      </c>
+      <c r="F60" s="12"/>
       <c r="G60" s="7"/>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I60" s="7">
         <v>2</v>
@@ -2953,119 +3010,85 @@
         <v>80</v>
       </c>
       <c r="K60" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="7">
-        <v>40</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="7">
-        <v>20</v>
-      </c>
-      <c r="E61" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61" s="7">
-        <v>2</v>
-      </c>
-      <c r="J61" s="7">
-        <v>80</v>
-      </c>
-      <c r="K61" s="7">
-        <v>6</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -314,7 +314,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,6 +428,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -467,7 +469,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -527,6 +529,7 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -588,6 +591,7 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="112" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
@@ -631,7 +635,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -792,11 +795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461936840"/>
-        <c:axId val="461945288"/>
+        <c:axId val="456759272"/>
+        <c:axId val="456727848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461936840"/>
+        <c:axId val="456759272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,19 +821,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461945288"/>
+        <c:crossAx val="456727848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461945288"/>
+        <c:axId val="456727848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,14 +859,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461936840"/>
+        <c:crossAx val="456759272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -877,7 +878,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1034,11 +1034,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462004536"/>
-        <c:axId val="462011688"/>
+        <c:axId val="456931576"/>
+        <c:axId val="390512360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="462004536"/>
+        <c:axId val="456931576"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1068,12 +1068,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462011688"/>
+        <c:crossAx val="390512360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462011688"/>
+        <c:axId val="390512360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462004536"/>
+        <c:crossAx val="456931576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1242,11 +1242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462037384"/>
-        <c:axId val="462041944"/>
+        <c:axId val="456725720"/>
+        <c:axId val="457111880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="462037384"/>
+        <c:axId val="456725720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,13 +1256,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462041944"/>
+        <c:crossAx val="457111880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462041944"/>
+        <c:axId val="457111880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462037384"/>
+        <c:crossAx val="456725720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1967,6 +1967,9 @@
       <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="16" thickTop="1">
       <c r="A11" t="s">
@@ -2635,6 +2638,9 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="F42" s="12"/>
+      <c r="G42">
+        <v>3966</v>
+      </c>
       <c r="H42" t="s">
         <v>6</v>
       </c>
@@ -3093,7 +3099,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="62">
   <si>
     <t>Type</t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t>Size of all Index files</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>QB:8 cores</t>
+  </si>
+  <si>
+    <t>Load read file</t>
+  </si>
+  <si>
+    <t>10 index files with 4 parts each(40 files)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40(r)x10(i)x 105MB      + 40x 4x 105MB </t>
+  </si>
+  <si>
+    <t>Output size(MB)</t>
+  </si>
+  <si>
+    <t>Size of output temp while running (~)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,6 +449,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -469,7 +494,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -530,6 +555,8 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -592,6 +619,8 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="112" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
@@ -635,6 +664,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -795,11 +825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456759272"/>
-        <c:axId val="456727848"/>
+        <c:axId val="386734968"/>
+        <c:axId val="386743368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456759272"/>
+        <c:axId val="386734968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,18 +851,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456727848"/>
+        <c:crossAx val="386743368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456727848"/>
+        <c:axId val="386743368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,13 +890,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456759272"/>
+        <c:crossAx val="386734968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -878,6 +910,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1034,11 +1067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456931576"/>
-        <c:axId val="390512360"/>
+        <c:axId val="386810440"/>
+        <c:axId val="386817592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456931576"/>
+        <c:axId val="386810440"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1068,12 +1101,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390512360"/>
+        <c:crossAx val="386817592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390512360"/>
+        <c:axId val="386817592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456931576"/>
+        <c:crossAx val="386810440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1242,11 +1275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456725720"/>
-        <c:axId val="457111880"/>
+        <c:axId val="386843288"/>
+        <c:axId val="386847848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456725720"/>
+        <c:axId val="386843288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,13 +1289,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457111880"/>
+        <c:crossAx val="386847848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457111880"/>
+        <c:axId val="386847848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456725720"/>
+        <c:crossAx val="386843288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1706,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1727,6 +1760,8 @@
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
@@ -1741,6 +1776,9 @@
       </c>
       <c r="E1" t="s">
         <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -2540,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14" customHeight="1">
+    <row r="33" spans="1:15" ht="14" customHeight="1">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2575,15 +2613,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:15">
       <c r="E35" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="20" thickBot="1">
+    <row r="40" spans="1:15" ht="20" thickBot="1">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="50" thickTop="1" thickBot="1">
+    <row r="41" spans="1:15" ht="50" thickTop="1" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2620,8 +2658,15 @@
       <c r="L41" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="16" thickTop="1">
+      <c r="M41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" ht="31" thickTop="1">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2642,7 +2687,7 @@
         <v>3966</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -2651,13 +2696,19 @@
         <v>80</v>
       </c>
       <c r="K42" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>105</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2675,7 +2726,7 @@
       </c>
       <c r="F43" s="13"/>
       <c r="H43" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -2684,13 +2735,13 @@
         <v>40</v>
       </c>
       <c r="K43" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2723,7 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2740,6 +2791,9 @@
         <v>0.435</v>
       </c>
       <c r="F45" s="13"/>
+      <c r="G45">
+        <v>23872</v>
+      </c>
       <c r="H45" t="s">
         <v>6</v>
       </c>
@@ -2756,17 +2810,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:15">
       <c r="F46" s="13"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:15">
       <c r="F47" s="13"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:15">
       <c r="F48" s="13"/>
       <c r="K48" s="7"/>
     </row>
@@ -3022,42 +3076,62 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:13" ht="45">
       <c r="A69" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="M69" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="K71" s="3">
+        <v>2</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:13">
       <c r="A78" s="9" t="s">
         <v>41</v>
       </c>
@@ -3099,6 +3173,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -84,15 +84,6 @@
     <t>Number of nodes</t>
   </si>
   <si>
-    <t>Cyder 12 core</t>
-  </si>
-  <si>
-    <t>Painter=4 core</t>
-  </si>
-  <si>
-    <t>Poseidon=4 core</t>
-  </si>
-  <si>
     <t>~ Time For all Read files</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>QB</t>
   </si>
   <si>
-    <t>QB:8 cores</t>
-  </si>
-  <si>
     <t>Load read file</t>
   </si>
   <si>
@@ -205,6 +193,18 @@
   </si>
   <si>
     <t>Size of output temp while running (~)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QB     8 core, RAM 8 GB </t>
+  </si>
+  <si>
+    <t>Cyder 12 core, RAM 64GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painter   4 core, RAM 4 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painter  4 core, RAM 4 GB </t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,6 +449,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -494,7 +496,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -557,6 +559,7 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -621,6 +624,7 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="112" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
@@ -1741,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1750,7 +1754,7 @@
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
@@ -1764,21 +1768,21 @@
     <col min="15" max="15" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="32" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -1789,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -1810,13 +1814,13 @@
         <v>9</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" thickTop="1">
@@ -1979,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -2000,13 +2004,13 @@
         <v>9</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" thickTop="1">
@@ -2176,13 +2180,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -2197,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -2440,16 +2444,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>4</v>
@@ -2461,7 +2465,7 @@
         <v>9</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>19</v>
@@ -2618,7 +2622,7 @@
     </row>
     <row r="40" spans="1:15" ht="20" thickBot="1">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="50" thickTop="1" thickBot="1">
@@ -2629,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>12</v>
@@ -2647,10 +2651,10 @@
         <v>5</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>20</v>
@@ -2659,10 +2663,10 @@
         <v>18</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O41" s="2"/>
     </row>
@@ -2687,7 +2691,7 @@
         <v>3966</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -2705,7 +2709,7 @@
         <v>105</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2726,7 +2730,7 @@
       </c>
       <c r="F43" s="13"/>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -2826,7 +2830,7 @@
     </row>
     <row r="49" spans="1:14" ht="20" thickBot="1">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F49" s="13"/>
       <c r="K49" s="7"/>
@@ -2839,13 +2843,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>12</v>
@@ -2857,10 +2861,10 @@
         <v>5</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>20</v>
@@ -2869,10 +2873,10 @@
         <v>18</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="16" thickTop="1">
@@ -2894,7 +2898,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I51" s="7">
         <v>2</v>
@@ -2909,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2931,7 +2935,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I52" s="7">
         <v>2</v>
@@ -2946,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2963,7 +2967,7 @@
     </row>
     <row r="57" spans="1:14" ht="20" thickBot="1">
       <c r="A57" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F57" s="12"/>
     </row>
@@ -2975,13 +2979,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>12</v>
@@ -2993,10 +2997,10 @@
         <v>5</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>20</v>
@@ -3005,7 +3009,7 @@
         <v>18</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16" thickTop="1">
@@ -3027,7 +3031,7 @@
       <c r="F59" s="12"/>
       <c r="G59" s="7"/>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I59" s="7">
         <v>2</v>
@@ -3039,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3061,7 +3065,7 @@
       <c r="F60" s="12"/>
       <c r="G60" s="7"/>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I60" s="7">
         <v>2</v>
@@ -3073,15 +3077,15 @@
         <v>6</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="45">
       <c r="A69" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3089,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3103,72 +3107,72 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16640" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
   <si>
     <t>Type</t>
   </si>
@@ -335,7 +335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,6 +449,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -496,7 +500,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -560,6 +564,8 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -625,6 +631,8 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="112" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
@@ -678,8 +686,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.223848887120157"/>
-          <c:y val="0.216306877569507"/>
+          <c:x val="0.200877958785014"/>
+          <c:y val="0.15370390068622"/>
           <c:w val="0.665655404706682"/>
           <c:h val="0.680482408053424"/>
         </c:manualLayout>
@@ -829,11 +837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386734968"/>
-        <c:axId val="386743368"/>
+        <c:axId val="481437992"/>
+        <c:axId val="481446440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="386734968"/>
+        <c:axId val="481437992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,12 +870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386743368"/>
+        <c:crossAx val="481446440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="386743368"/>
+        <c:axId val="481446440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386734968"/>
+        <c:crossAx val="481437992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -914,7 +922,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.859928374190592"/>
+          <c:y val="0.352445095928083"/>
+          <c:w val="0.130883264400526"/>
+          <c:h val="0.13234209809441"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1071,11 +1088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386810440"/>
-        <c:axId val="386817592"/>
+        <c:axId val="101563896"/>
+        <c:axId val="101571016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="386810440"/>
+        <c:axId val="101563896"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1105,12 +1122,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386817592"/>
+        <c:crossAx val="101571016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="386817592"/>
+        <c:axId val="101571016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386810440"/>
+        <c:crossAx val="101563896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1279,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386843288"/>
-        <c:axId val="386847848"/>
+        <c:axId val="101596744"/>
+        <c:axId val="101601304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="386843288"/>
+        <c:axId val="101596744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,13 +1310,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386847848"/>
+        <c:crossAx val="101601304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="386847848"/>
+        <c:axId val="101601304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386843288"/>
+        <c:crossAx val="101596744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1743,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2729,6 +2746,9 @@
         <v>0.435</v>
       </c>
       <c r="F43" s="13"/>
+      <c r="G43">
+        <v>8031</v>
+      </c>
       <c r="H43" t="s">
         <v>52</v>
       </c>
@@ -2762,6 +2782,9 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="F44" s="12"/>
+      <c r="G44">
+        <v>25807</v>
+      </c>
       <c r="H44" t="s">
         <v>6</v>
       </c>
@@ -2815,369 +2838,432 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="F46" s="13"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>16</v>
+      </c>
+      <c r="K46" s="8">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>0.435</v>
+      </c>
       <c r="F47" s="13"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" s="7">
+        <v>16</v>
+      </c>
+      <c r="K47" s="7">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="F48" s="13"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" ht="20" thickBot="1">
-      <c r="A49" s="4" t="s">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="F52" s="13"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="F53" s="13"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" ht="20" thickBot="1">
+      <c r="A54" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A50" s="1" t="s">
+      <c r="F54" s="13"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16" thickTop="1">
-      <c r="A51" s="7" t="s">
+    <row r="56" spans="1:14" ht="16" thickTop="1">
+      <c r="A56" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B56" s="7">
         <v>40</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D56" s="7">
         <v>40</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E56" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I56" s="7">
         <v>2</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J56" s="7">
         <v>80</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K56" s="8">
         <v>0</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L56" s="7">
         <v>2</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="7" t="s">
+    <row r="57" spans="1:14">
+      <c r="A57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B57" s="7">
         <v>40</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D57" s="7">
         <v>20</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E57" s="7">
         <v>0.435</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I57" s="7">
         <v>2</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J57" s="7">
         <v>40</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K57" s="7">
         <v>0</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L57" s="7">
         <v>2</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" ht="20" thickBot="1">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:14">
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:14" ht="20" thickBot="1">
+      <c r="A62" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A58" s="1" t="s">
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="G63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K63" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16" thickTop="1">
-      <c r="A59" s="7" t="s">
+    <row r="64" spans="1:14" ht="16" thickTop="1">
+      <c r="A64" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B64" s="7">
         <v>40</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D64" s="7">
         <v>40</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E64" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="7"/>
-      <c r="H59" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="7"/>
+      <c r="H64" t="s">
         <v>45</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I64" s="7">
         <v>2</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J64" s="7">
         <v>80</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K64" s="7">
         <v>10</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="M64" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="7" t="s">
+    <row r="65" spans="1:13">
+      <c r="A65" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B65" s="7">
         <v>40</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D65" s="7">
         <v>20</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E65" s="7">
         <v>0.435</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="7"/>
-      <c r="H60" t="s">
+      <c r="F65" s="12"/>
+      <c r="G65" s="7"/>
+      <c r="H65" t="s">
         <v>45</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I65" s="7">
         <v>2</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J65" s="7">
         <v>80</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K65" s="7">
         <v>6</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M65" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="45">
-      <c r="A69" s="10" t="s">
+    <row r="74" spans="1:13" ht="45">
+      <c r="A74" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
-      <c r="K70">
+    <row r="75" spans="1:13">
+      <c r="K75">
         <v>1</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
-      <c r="K71" s="3">
+    <row r="76" spans="1:13">
+      <c r="K76" s="3">
         <v>2</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="9" t="s">
-        <v>36</v>
+      <c r="L76" s="3"/>
+      <c r="M76">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="9" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16640" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
   <si>
     <t>Type</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Number of Read files</t>
   </si>
   <si>
-    <t>1.9GB</t>
-  </si>
-  <si>
     <t>Time to Process all Read  files</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t xml:space="preserve"> Size of each Read files(GB)</t>
   </si>
   <si>
-    <t>Size of all Index files</t>
-  </si>
-  <si>
     <t>QB</t>
   </si>
   <si>
@@ -205,13 +199,22 @@
   </si>
   <si>
     <t xml:space="preserve">Painter  4 core, RAM 4 GB </t>
+  </si>
+  <si>
+    <t>3.3GB</t>
+  </si>
+  <si>
+    <t>B.glumae</t>
+  </si>
+  <si>
+    <t>Size of all Index files(GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,25 +281,13 @@
       <color rgb="FF292929"/>
       <name val="Courier"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -335,7 +326,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,7 +439,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -472,7 +490,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -492,15 +510,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="79"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="112" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="112"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="112" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="162">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -555,17 +566,31 @@
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -622,18 +647,31 @@
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Neutral" xfId="112" builtinId="28"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -686,8 +724,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.200877958785014"/>
-          <c:y val="0.15370390068622"/>
+          <c:x val="0.205472139489455"/>
+          <c:y val="0.145777884105306"/>
           <c:w val="0.665655404706682"/>
           <c:h val="0.680482408053424"/>
         </c:manualLayout>
@@ -787,7 +825,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$11:$E$14</c:f>
+              <c:f>Sheet1!$E$16:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -808,7 +846,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$11:$F$14</c:f>
+              <c:f>Sheet1!$F$16:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -837,11 +875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="481437992"/>
-        <c:axId val="481446440"/>
+        <c:axId val="517892040"/>
+        <c:axId val="511854824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="481437992"/>
+        <c:axId val="517892040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,12 +908,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481446440"/>
+        <c:crossAx val="511854824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481446440"/>
+        <c:axId val="511854824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481437992"/>
+        <c:crossAx val="517892040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -995,7 +1033,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
+              <c:f>Sheet1!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1020,7 +1058,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$19:$I$25</c:f>
+              <c:f>Sheet1!$I$24:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1050,7 +1088,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$19:$F$25</c:f>
+              <c:f>Sheet1!$F$24:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1088,11 +1126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101563896"/>
-        <c:axId val="101571016"/>
+        <c:axId val="511899928"/>
+        <c:axId val="517702760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101563896"/>
+        <c:axId val="511899928"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1122,12 +1160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101571016"/>
+        <c:crossAx val="517702760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101571016"/>
+        <c:axId val="517702760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101563896"/>
+        <c:crossAx val="511899928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1252,7 +1290,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$30:$K$32</c:f>
+              <c:f>Sheet1!$K$39:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1270,7 +1308,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$30:$F$32</c:f>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1296,11 +1334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101596744"/>
-        <c:axId val="101601304"/>
+        <c:axId val="517905832"/>
+        <c:axId val="511807544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101596744"/>
+        <c:axId val="517905832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,13 +1348,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101601304"/>
+        <c:crossAx val="511807544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101601304"/>
+        <c:axId val="511807544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101596744"/>
+        <c:crossAx val="517905832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1353,10 +1391,10 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1378,15 +1416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1415,7 +1453,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1760,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1787,19 +1825,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -1810,45 +1848,45 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" thickTop="1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="C3">
+        <v>1.9</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1861,7 +1899,7 @@
         <v>36942</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -1879,13 +1917,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
+      <c r="C4">
+        <v>1.9</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1897,7 +1935,7 @@
         <v>18603</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1915,13 +1953,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
+      <c r="C5">
+        <v>1.9</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1934,7 +1972,7 @@
         <v>11916</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1952,13 +1990,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
+      <c r="C6">
+        <v>1.9</v>
       </c>
       <c r="D6">
         <v>37</v>
@@ -1971,7 +2009,7 @@
         <v>3841</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1987,412 +2025,263 @@
         <v>142117</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="50" thickTop="1" thickBot="1">
-      <c r="A10" s="1" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" thickTop="1">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1.9</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F16">
+        <v>8810</v>
+      </c>
+      <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>D16*F16</f>
+        <v>35240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1.9</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1.2</v>
+      </c>
+      <c r="F17">
+        <v>4428</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>D17*F17</f>
+        <v>35424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1.9</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F18">
+        <v>2855</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f>D18*F18</f>
+        <v>34260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1.9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F19" s="7">
+        <v>936</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I19" s="7">
+        <v>4</v>
+      </c>
+      <c r="J19" s="7">
+        <v>4</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="22" spans="1:12" ht="20" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="66" thickTop="1" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16" thickTop="1">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="G23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F11">
-        <v>8810</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11" s="7">
-        <v>4</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <f>D11*F11</f>
-        <v>35240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>1.2</v>
-      </c>
-      <c r="F12">
-        <v>4428</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12" s="7">
-        <v>4</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f>D12*F12</f>
-        <v>35424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F13">
-        <v>2855</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" s="7">
-        <v>4</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <f>D13*F13</f>
-        <v>34260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>37</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F14" s="7">
-        <v>936</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="J23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16" thickTop="1">
+      <c r="A24" t="s">
         <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4</v>
-      </c>
-      <c r="J14" s="7">
-        <v>4</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="20" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="66" thickTop="1" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16" thickTop="1">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F19">
-        <v>3539</v>
-      </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>12</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>37</v>
-      </c>
-      <c r="E20">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F20">
-        <v>2908</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" s="7">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F21">
-        <v>2834</v>
-      </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21" s="7">
-        <v>12</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F22">
-        <v>2718</v>
-      </c>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <v>12</v>
-      </c>
-      <c r="J22" s="7">
-        <v>12</v>
-      </c>
-      <c r="K22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F23">
-        <v>2716</v>
-      </c>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23">
-        <v>16</v>
-      </c>
-      <c r="J23" s="7">
-        <v>12</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>7</v>
       </c>
       <c r="B24">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
+      <c r="C24">
+        <v>1.9</v>
       </c>
       <c r="D24">
         <v>37</v>
@@ -2401,30 +2290,30 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F24">
-        <v>2725</v>
+        <v>3539</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J24" s="7">
         <v>12</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
+      <c r="C25">
+        <v>1.9</v>
       </c>
       <c r="D25">
         <v>37</v>
@@ -2433,13 +2322,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F25">
-        <v>2715</v>
+        <v>2908</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="J25" s="7">
         <v>12</v>
@@ -2448,711 +2337,761 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20" thickBot="1">
-      <c r="A28" s="4" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>1.9</v>
+      </c>
+      <c r="D26">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F26">
+        <v>2834</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26" s="7">
+        <v>12</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>1.9</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F27">
+        <v>2718</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27" s="7">
+        <v>12</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>1.9</v>
+      </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F28">
+        <v>2716</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="J28" s="7">
+        <v>12</v>
+      </c>
+      <c r="K28" s="7">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="16" thickTop="1">
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>1.9</v>
+      </c>
+      <c r="D29">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F29">
+        <v>2725</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29" s="7">
+        <v>12</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>40</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>1.9</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F30">
+        <v>2715</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>32</v>
+      </c>
+      <c r="J30" s="7">
+        <v>12</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1.9</v>
+      </c>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F31">
+        <v>662</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31" s="7">
+        <v>12</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>37</v>
+      </c>
+      <c r="E32">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F32">
+        <v>676</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>32</v>
+      </c>
+      <c r="J32" s="7">
+        <v>12</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="20" thickBot="1">
+      <c r="A37" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
+      <c r="H38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" ht="16" thickTop="1">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F30">
+      <c r="F39">
         <f>615.7*60</f>
         <v>36942</v>
       </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30" s="7">
-        <v>4</v>
-      </c>
-      <c r="K30">
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39" s="7">
+        <v>4</v>
+      </c>
+      <c r="K39">
         <v>1</v>
       </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31">
+      <c r="C40" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D40">
         <v>8</v>
       </c>
-      <c r="E31">
+      <c r="E40">
         <v>1.2</v>
       </c>
-      <c r="F31">
+      <c r="F40">
         <v>19618</v>
       </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31">
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40">
         <v>2</v>
       </c>
-      <c r="J31" s="7">
-        <v>4</v>
-      </c>
-      <c r="K31">
+      <c r="J40" s="7">
+        <v>4</v>
+      </c>
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L40">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
+      <c r="C41" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D41">
         <v>16</v>
       </c>
-      <c r="E32">
+      <c r="E41">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F32">
+      <c r="F41">
         <v>28299</v>
       </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32">
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="J32" s="7">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
+      <c r="J41" s="7">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14" customHeight="1">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>16</v>
-      </c>
-      <c r="E33">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F33">
-        <v>25215</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33" s="7">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="E35" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="20" thickBot="1">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" ht="31" thickTop="1">
+    <row r="42" spans="1:13" ht="14" customHeight="1">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F42">
+        <v>25215</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" s="7">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="20" thickBot="1">
+      <c r="A49" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42">
+      <c r="H50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" ht="31" thickTop="1">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
         <v>40</v>
       </c>
-      <c r="E42">
+      <c r="C51">
+        <v>1.9</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42">
+      <c r="G51">
         <v>3966</v>
       </c>
-      <c r="H42" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42">
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51">
         <v>2</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J51" s="7">
         <v>80</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K51" s="8">
         <v>10</v>
       </c>
-      <c r="L42">
+      <c r="L51">
         <v>2</v>
       </c>
-      <c r="M42">
+      <c r="M51">
         <v>105</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43">
+      <c r="N51" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C52">
+        <v>1.9</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>0.435</v>
+      </c>
+      <c r="G52">
+        <v>8031</v>
+      </c>
+      <c r="H52" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" s="7">
+        <v>40</v>
+      </c>
+      <c r="K52" s="7">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>1.9</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G53">
+        <v>25807</v>
+      </c>
+      <c r="H53" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" s="7">
+        <v>12</v>
+      </c>
+      <c r="K53" s="8">
         <v>3</v>
       </c>
-      <c r="D43">
+      <c r="L53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>1.9</v>
+      </c>
+      <c r="D54">
         <v>20</v>
       </c>
-      <c r="E43">
+      <c r="E54">
         <v>0.435</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43">
-        <v>8031</v>
-      </c>
-      <c r="H43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43">
+      <c r="G54">
+        <v>23872</v>
+      </c>
+      <c r="H54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54">
         <v>2</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J54" s="7">
+        <v>12</v>
+      </c>
+      <c r="K54" s="7">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
         <v>40</v>
       </c>
-      <c r="K43" s="7">
-        <v>5</v>
-      </c>
-      <c r="L43">
+      <c r="C55">
+        <v>1.9</v>
+      </c>
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44">
+      <c r="J55" s="7">
+        <v>16</v>
+      </c>
+      <c r="K55" s="8">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
         <v>40</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C56">
+        <v>1.9</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>0.435</v>
+      </c>
+      <c r="H56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56" s="7">
+        <v>16</v>
+      </c>
+      <c r="K56" s="7">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:15" ht="20" thickBot="1">
+      <c r="A63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D44">
-        <v>40</v>
-      </c>
-      <c r="E44">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44">
-        <v>25807</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="H64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="16" thickTop="1">
+      <c r="A65" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44" s="7">
-        <v>12</v>
-      </c>
-      <c r="K44" s="8">
-        <v>3</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>20</v>
-      </c>
-      <c r="E45">
-        <v>0.435</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45">
-        <v>23872</v>
-      </c>
-      <c r="H45" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45" s="7">
-        <v>12</v>
-      </c>
-      <c r="K45" s="7">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46">
-        <v>40</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>40</v>
-      </c>
-      <c r="E46">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="H46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46" s="7">
-        <v>16</v>
-      </c>
-      <c r="K46" s="8">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47">
-        <v>40</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>20</v>
-      </c>
-      <c r="E47">
-        <v>0.435</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="H47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47" s="7">
-        <v>16</v>
-      </c>
-      <c r="K47" s="7">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="E48" s="3"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="F52" s="13"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="F53" s="13"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:14" ht="20" thickBot="1">
-      <c r="A54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="16" thickTop="1">
-      <c r="A56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="7">
-        <v>40</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="7">
-        <v>40</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="7">
-        <v>2</v>
-      </c>
-      <c r="J56" s="7">
-        <v>80</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0</v>
-      </c>
-      <c r="L56" s="7">
-        <v>2</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="7">
-        <v>40</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="7">
-        <v>20</v>
-      </c>
-      <c r="E57" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="7">
-        <v>2</v>
-      </c>
-      <c r="J57" s="7">
-        <v>40</v>
-      </c>
-      <c r="K57" s="7">
-        <v>0</v>
-      </c>
-      <c r="L57" s="7">
-        <v>2</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" ht="20" thickBot="1">
-      <c r="A62" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="16" thickTop="1">
-      <c r="A64" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="7">
-        <v>40</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="7">
-        <v>40</v>
-      </c>
-      <c r="E64" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="7"/>
-      <c r="H64" t="s">
-        <v>45</v>
-      </c>
-      <c r="I64" s="7">
-        <v>2</v>
-      </c>
-      <c r="J64" s="7">
-        <v>80</v>
-      </c>
-      <c r="K64" s="7">
-        <v>10</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="B65" s="7">
         <v>40</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>3</v>
+      <c r="C65">
+        <v>1.9</v>
       </c>
       <c r="D65" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E65" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="F65" s="12"/>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F65" s="7">
+        <v>3468</v>
+      </c>
       <c r="G65" s="7"/>
-      <c r="H65" t="s">
-        <v>45</v>
+      <c r="H65" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="I65" s="7">
         <v>2</v>
@@ -3160,110 +3099,262 @@
       <c r="J65" s="7">
         <v>80</v>
       </c>
-      <c r="K65" s="7">
-        <v>6</v>
+      <c r="K65" s="8">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7">
+        <v>2</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="45">
-      <c r="A74" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="K75">
+    <row r="66" spans="1:13">
+      <c r="A66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="7">
+        <v>40</v>
+      </c>
+      <c r="C66">
+        <v>1.9</v>
+      </c>
+      <c r="D66" s="7">
+        <v>20</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="7">
+        <v>2</v>
+      </c>
+      <c r="J66" s="7">
+        <v>40</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+      <c r="L66" s="7">
+        <v>2</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="20" thickBot="1">
+      <c r="A71" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="K76" s="3">
+      <c r="C72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L76" s="3"/>
-      <c r="M76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="9" t="s">
+      <c r="E72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="16" thickTop="1">
+      <c r="A73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="7">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>1.9</v>
+      </c>
+      <c r="D73" s="7">
+        <v>40</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" s="7">
+        <v>2</v>
+      </c>
+      <c r="J73" s="7">
+        <v>80</v>
+      </c>
+      <c r="K73" s="7">
+        <v>10</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="7">
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>1.9</v>
+      </c>
+      <c r="D74" s="7">
+        <v>20</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" s="7">
+        <v>2</v>
+      </c>
+      <c r="J74" s="7">
+        <v>80</v>
+      </c>
+      <c r="K74" s="7">
+        <v>6</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="45">
+      <c r="A83" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="K85" s="3">
+        <v>2</v>
+      </c>
+      <c r="L85" s="3"/>
+      <c r="M85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="9" t="s">
+    <row r="89" spans="1:13">
+      <c r="A89" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="9" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="9" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="9" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="9" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="9" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16640" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17560" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
   <si>
     <t>Type</t>
   </si>
@@ -208,6 +208,45 @@
   </si>
   <si>
     <t>Size of all Index files(GB)</t>
+  </si>
+  <si>
+    <t>cyder</t>
+  </si>
+  <si>
+    <t>Size of all Index files(GB)(SI)</t>
+  </si>
+  <si>
+    <t>Number of Read files(NR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Size of each Read files(GB)(SR)</t>
+  </si>
+  <si>
+    <t>Each temp file size(GB)(ST)</t>
+  </si>
+  <si>
+    <t>Nmber index file masks(Nm)</t>
+  </si>
+  <si>
+    <t>Number of Index Files with -d(0,1) (NI)</t>
+  </si>
+  <si>
+    <t>10*(4^0)=10</t>
+  </si>
+  <si>
+    <t>10*(4^1)=40</t>
+  </si>
+  <si>
+    <t>NM*ST*NR + (4^d)*ST*NR + NR*ST + NR *ST</t>
+  </si>
+  <si>
+    <t>NM*ST*NR + (4^d*)*ST*NR + NR*ST + NR *ST</t>
+  </si>
+  <si>
+    <t>App. Max Disk space required(GB)(MDS)</t>
+  </si>
+  <si>
+    <t>Disk Space Required</t>
   </si>
 </sst>
 </file>
@@ -326,7 +365,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="162">
+  <cellStyleXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -489,8 +528,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -510,8 +577,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="79"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="162">
+  <cellStyles count="190">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -591,6 +661,20 @@
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -672,6 +756,20 @@
     <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -875,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517892040"/>
-        <c:axId val="511854824"/>
+        <c:axId val="404976632"/>
+        <c:axId val="404985080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517892040"/>
+        <c:axId val="404976632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,12 +1006,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511854824"/>
+        <c:crossAx val="404985080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511854824"/>
+        <c:axId val="404985080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +1045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517892040"/>
+        <c:crossAx val="404976632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1126,11 +1224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="511899928"/>
-        <c:axId val="517702760"/>
+        <c:axId val="405044408"/>
+        <c:axId val="405051528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="511899928"/>
+        <c:axId val="405044408"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1160,12 +1258,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517702760"/>
+        <c:crossAx val="405051528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517702760"/>
+        <c:axId val="405051528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511899928"/>
+        <c:crossAx val="405044408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1334,11 +1432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517905832"/>
-        <c:axId val="511807544"/>
+        <c:axId val="405077080"/>
+        <c:axId val="405081640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517905832"/>
+        <c:axId val="405077080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,13 +1446,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511807544"/>
+        <c:crossAx val="405081640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511807544"/>
+        <c:axId val="405081640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517905832"/>
+        <c:crossAx val="405077080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1798,15 +1896,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1814,7 +1912,7 @@
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
@@ -2034,6 +2132,27 @@
       </c>
       <c r="C7">
         <v>0.439</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>7464</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20" thickBot="1">
@@ -3317,39 +3436,128 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:8">
       <c r="A99" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:8">
       <c r="A100" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:8">
       <c r="A101" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:8">
       <c r="A102" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:8">
       <c r="A103" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="20" thickBot="1">
+      <c r="A111" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="11" customFormat="1" ht="66" thickTop="1" thickBot="1">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="46" thickTop="1">
+      <c r="A113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113">
+        <v>1.9</v>
+      </c>
+      <c r="E113" s="7">
+        <v>40</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="H113" s="7">
+        <v>54</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="45">
+      <c r="A114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114">
+        <v>1.9</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
+      </c>
+      <c r="F114">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G114">
+        <v>0.105</v>
+      </c>
+      <c r="H114" s="7">
+        <v>58</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
   <si>
     <t>Type</t>
   </si>
@@ -159,9 +159,6 @@
     <t>m1.xlarge 10</t>
   </si>
   <si>
-    <t>m1.xlarge 40</t>
-  </si>
-  <si>
     <t>m1.xlarge 20</t>
   </si>
   <si>
@@ -247,6 +244,12 @@
   </si>
   <si>
     <t>Disk Space Required</t>
+  </si>
+  <si>
+    <t>m1.large 40</t>
+  </si>
+  <si>
+    <t>m1.large 20</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="190">
+  <cellStyleXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -556,8 +559,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -580,8 +587,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="190">
+  <cellStyles count="194">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -675,6 +685,8 @@
     <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -770,6 +782,8 @@
     <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1896,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1926,16 +1940,16 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -1946,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2125,7 +2139,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -2143,7 +2157,7 @@
         <v>7464</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -2168,13 +2182,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -2365,13 +2379,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -2656,7 +2670,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>37</v>
@@ -2693,13 +2707,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>21</v>
@@ -2882,13 +2896,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>21</v>
@@ -2912,10 +2926,10 @@
         <v>17</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="O50" s="2"/>
     </row>
@@ -2939,7 +2953,7 @@
         <v>3966</v>
       </c>
       <c r="H51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -2957,7 +2971,7 @@
         <v>105</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2980,7 +2994,7 @@
         <v>8031</v>
       </c>
       <c r="H52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -3082,7 +3096,7 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3114,7 +3128,7 @@
         <v>0.435</v>
       </c>
       <c r="H56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -3153,13 +3167,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>21</v>
@@ -3225,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3261,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="20" thickBot="1">
@@ -3277,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>21</v>
@@ -3340,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3381,7 +3395,7 @@
         <v>42</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3389,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3473,7 +3487,7 @@
     </row>
     <row r="111" spans="1:8" ht="20" thickBot="1">
       <c r="A111" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="11" customFormat="1" ht="66" thickTop="1" thickBot="1">
@@ -3481,25 +3495,25 @@
         <v>0</v>
       </c>
       <c r="B112" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D112" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G112" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="H112" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="46" thickTop="1">
@@ -3510,7 +3524,7 @@
         <v>10</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D113">
         <v>1.9</v>
@@ -3525,10 +3539,10 @@
         <v>0.105</v>
       </c>
       <c r="H113" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="45">
@@ -3539,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114">
         <v>1.9</v>
@@ -3554,10 +3568,39 @@
         <v>0.105</v>
       </c>
       <c r="H114" s="7">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="45">
+      <c r="A115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115">
+        <v>1.9</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>0.435</v>
+      </c>
+      <c r="G115">
+        <v>0.22</v>
+      </c>
+      <c r="H115">
+        <v>64</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17560" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16640" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="75">
   <si>
     <t>Type</t>
   </si>
@@ -171,21 +171,9 @@
     <t>QB</t>
   </si>
   <si>
-    <t>Load read file</t>
-  </si>
-  <si>
-    <t>10 index files with 4 parts each(40 files)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40(r)x10(i)x 105MB      + 40x 4x 105MB </t>
-  </si>
-  <si>
     <t>Output size(MB)</t>
   </si>
   <si>
-    <t>Size of output temp while running (~)</t>
-  </si>
-  <si>
     <t xml:space="preserve">QB     8 core, RAM 8 GB </t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t xml:space="preserve">Painter  4 core, RAM 4 GB </t>
   </si>
   <si>
-    <t>3.3GB</t>
-  </si>
-  <si>
     <t>B.glumae</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>10*(4^1)=40</t>
   </si>
   <si>
-    <t>NM*ST*NR + (4^d)*ST*NR + NR*ST + NR *ST</t>
-  </si>
-  <si>
     <t>NM*ST*NR + (4^d*)*ST*NR + NR*ST + NR *ST</t>
   </si>
   <si>
@@ -246,10 +228,22 @@
     <t>Disk Space Required</t>
   </si>
   <si>
-    <t>m1.large 40</t>
-  </si>
-  <si>
     <t>m1.large 20</t>
+  </si>
+  <si>
+    <t>m1.large 1</t>
+  </si>
+  <si>
+    <t>App disk space for 1 Read(GB)</t>
+  </si>
+  <si>
+    <t>Different Genomes</t>
+  </si>
+  <si>
+    <t>Different Genome Sizes</t>
+  </si>
+  <si>
+    <t>NR *ST *(NM + (4^d)+ 2)</t>
   </si>
 </sst>
 </file>
@@ -368,7 +362,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="194">
+  <cellStyleXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,6 +443,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -591,7 +625,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="194">
+  <cellStyles count="234">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -687,6 +721,26 @@
     <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -784,6 +838,26 @@
     <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -817,16 +891,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number of Read files vs</a:t>
+              <a:t>Number of read files vs</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time to Solution per Read file</a:t>
+              <a:t> Time to solution per read file</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0826448285340102"/>
+          <c:y val="0.00661157024793388"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -836,9 +917,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.205472139489455"/>
-          <c:y val="0.145777884105306"/>
-          <c:w val="0.665655404706682"/>
+          <c:x val="0.228059467412569"/>
+          <c:y val="0.139166265373853"/>
+          <c:w val="0.599946967614674"/>
           <c:h val="0.680482408053424"/>
         </c:manualLayout>
       </c:layout>
@@ -933,6 +1014,13 @@
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -987,11 +1075,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404976632"/>
-        <c:axId val="404985080"/>
+        <c:axId val="2454520"/>
+        <c:axId val="404775800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404976632"/>
+        <c:axId val="2454520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,12 +1108,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404985080"/>
+        <c:crossAx val="404775800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404985080"/>
+        <c:axId val="404775800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404976632"/>
+        <c:crossAx val="2454520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1076,9 +1164,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.859928374190592"/>
-          <c:y val="0.352445095928083"/>
-          <c:w val="0.130883264400526"/>
+          <c:x val="0.80453177727784"/>
+          <c:y val="0.334909377635167"/>
+          <c:w val="0.176057818234733"/>
           <c:h val="0.13234209809441"/>
         </c:manualLayout>
       </c:layout>
@@ -1136,7 +1224,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.245101549806274"/>
+          <c:y val="0.123424103237095"/>
+          <c:w val="0.608944425425083"/>
+          <c:h val="0.705757220203848"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1166,6 +1264,11 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -1238,11 +1341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405044408"/>
-        <c:axId val="405051528"/>
+        <c:axId val="429339128"/>
+        <c:axId val="420666888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405044408"/>
+        <c:axId val="429339128"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1272,12 +1375,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405051528"/>
+        <c:crossAx val="420666888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405051528"/>
+        <c:axId val="420666888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405044408"/>
+        <c:crossAx val="429339128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1446,11 +1549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405077080"/>
-        <c:axId val="405081640"/>
+        <c:axId val="429510472"/>
+        <c:axId val="429489096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405077080"/>
+        <c:axId val="429510472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,13 +1563,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405081640"/>
+        <c:crossAx val="429489096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405081640"/>
+        <c:axId val="429489096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405077080"/>
+        <c:crossAx val="429510472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1498,15 +1601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1528,15 +1631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1910,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1940,16 +2043,16 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -1960,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2137,38 +2240,6 @@
         <v>142117</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>0.439</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>7464</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7" s="7">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-    </row>
     <row r="14" spans="1:12" ht="20" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>14</v>
@@ -2182,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
@@ -2379,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
@@ -2630,70 +2701,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>1.9</v>
-      </c>
-      <c r="D31">
-        <v>37</v>
-      </c>
-      <c r="E31">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F31">
-        <v>662</v>
-      </c>
-      <c r="H31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31">
-        <v>20</v>
-      </c>
-      <c r="J31" s="7">
-        <v>12</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32">
-        <v>37</v>
-      </c>
-      <c r="E32">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F32">
-        <v>676</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <v>32</v>
-      </c>
-      <c r="J32" s="7">
-        <v>12</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1</v>
-      </c>
-    </row>
     <row r="37" spans="1:13" ht="20" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>15</v>
@@ -2707,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
@@ -2896,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
@@ -2926,14 +2933,12 @@
         <v>17</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="31" thickTop="1">
+    <row r="51" spans="1:15" ht="16" thickTop="1">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2970,11 +2975,9 @@
       <c r="M51">
         <v>105</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="19" customHeight="1">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3144,7 +3147,71 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="E57" s="3"/>
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>1.9</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G57">
+        <v>7337</v>
+      </c>
+      <c r="H57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" s="7">
+        <v>12</v>
+      </c>
+      <c r="K57" s="8">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>1.9</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>0.435</v>
+      </c>
+      <c r="H58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" s="7">
+        <v>12</v>
+      </c>
+      <c r="K58" s="7">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:15">
       <c r="J61" s="7"/>
@@ -3167,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>2</v>
@@ -3230,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="7">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K65" s="8">
         <v>0</v>
@@ -3239,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3266,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K66" s="7">
         <v>0</v>
@@ -3275,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="20" thickBot="1">
@@ -3291,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>2</v>
@@ -3390,222 +3457,534 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="45">
-      <c r="A83" s="10" t="s">
+    <row r="79" spans="1:13" ht="20" thickBot="1">
+      <c r="A79" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="66" thickTop="1" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K80" s="11"/>
+      <c r="L80" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="16" thickTop="1">
+      <c r="A81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81">
+        <v>1.9</v>
+      </c>
+      <c r="E81" s="7">
+        <v>40</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="H81" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82">
+        <v>1.9</v>
+      </c>
+      <c r="E82">
+        <v>40</v>
+      </c>
+      <c r="F82">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G82">
+        <v>0.105</v>
+      </c>
+      <c r="H82" s="7">
+        <v>67</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83">
+        <v>1.9</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>0.435</v>
+      </c>
+      <c r="G83">
+        <v>0.22</v>
+      </c>
+      <c r="H83">
+        <v>70</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J83">
+        <v>1.6</v>
+      </c>
+      <c r="L83" s="12"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84">
+        <v>0.435</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="91" spans="1:13" ht="20" thickBot="1">
+      <c r="A91" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="16" thickTop="1">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93">
+        <v>40</v>
+      </c>
+      <c r="C93">
+        <v>0.439</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>7464</v>
+      </c>
+      <c r="H93" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93">
+        <v>12</v>
+      </c>
+      <c r="J93" s="7">
+        <v>12</v>
+      </c>
+      <c r="K93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>40</v>
+      </c>
+      <c r="C94">
+        <v>1.9</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>1.2</v>
+      </c>
+      <c r="F94">
+        <v>12960</v>
+      </c>
+      <c r="H94" t="s">
+        <v>57</v>
+      </c>
+      <c r="I94">
+        <v>12</v>
+      </c>
+      <c r="J94" s="7">
+        <v>12</v>
+      </c>
+      <c r="K94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="20" thickBot="1">
+      <c r="A98" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16" thickTop="1">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>1.9</v>
+      </c>
+      <c r="D100">
+        <v>37</v>
+      </c>
+      <c r="E100">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F100">
+        <v>662</v>
+      </c>
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100">
+        <v>12</v>
+      </c>
+      <c r="J100" s="7">
+        <v>12</v>
+      </c>
+      <c r="K100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>3.3</v>
+      </c>
+      <c r="D101">
+        <v>37</v>
+      </c>
+      <c r="E101">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F101">
+        <v>676</v>
+      </c>
+      <c r="H101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101">
+        <v>12</v>
+      </c>
+      <c r="J101" s="7">
+        <v>12</v>
+      </c>
+      <c r="K101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="K85" s="3">
-        <v>2</v>
-      </c>
-      <c r="L85" s="3"/>
-      <c r="M85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="9" t="s">
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="9" t="s">
+    <row r="111" spans="1:11">
+      <c r="A111" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="9" t="s">
+    <row r="112" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A112" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="9" t="s">
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:12" ht="16" thickTop="1">
+      <c r="A113" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="9" t="s">
+    <row r="114" spans="1:12">
+      <c r="A114" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="9" t="s">
+    <row r="115" spans="1:12">
+      <c r="A115" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="9" t="s">
+    <row r="116" spans="1:12">
+      <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="9" t="s">
+    <row r="122" spans="1:12">
+      <c r="A122" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="9" t="s">
+    <row r="123" spans="1:12">
+      <c r="A123" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="9" t="s">
+    <row r="124" spans="1:12" ht="59" customHeight="1">
+      <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="9" t="s">
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="9" t="s">
+    <row r="126" spans="1:12">
+      <c r="A126" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="9" t="s">
+    <row r="127" spans="1:12">
+      <c r="A127" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="9" t="s">
+    <row r="128" spans="1:12">
+      <c r="A128" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="20" thickBot="1">
-      <c r="A111" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="11" customFormat="1" ht="66" thickTop="1" thickBot="1">
-      <c r="A112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="46" thickTop="1">
-      <c r="A113" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113">
-        <v>10</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113">
-        <v>1.9</v>
-      </c>
-      <c r="E113" s="7">
-        <v>40</v>
-      </c>
-      <c r="F113" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G113" s="7">
-        <v>0.105</v>
-      </c>
-      <c r="H113" s="7">
-        <v>52</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="45">
-      <c r="A114" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114">
-        <v>1.9</v>
-      </c>
-      <c r="E114">
-        <v>40</v>
-      </c>
-      <c r="F114">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G114">
-        <v>0.105</v>
-      </c>
-      <c r="H114" s="7">
-        <v>64</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="45">
-      <c r="A115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>70</v>
-      </c>
-      <c r="D115">
-        <v>1.9</v>
-      </c>
-      <c r="E115">
-        <v>20</v>
-      </c>
-      <c r="F115">
-        <v>0.435</v>
-      </c>
-      <c r="G115">
-        <v>0.22</v>
-      </c>
-      <c r="H115">
-        <v>64</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>72</v>
+    <row r="131" spans="12:12" ht="59" customHeight="1">
+      <c r="L131" s="2"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16640" tabRatio="129"/>
+    <workbookView xWindow="8300" yWindow="60" windowWidth="28800" windowHeight="16640" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="75">
   <si>
     <t>Type</t>
   </si>
@@ -362,7 +362,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="234">
+  <cellStyleXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,6 +443,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -625,7 +639,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="234">
+  <cellStyles count="248">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -741,6 +755,13 @@
     <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -858,6 +879,13 @@
     <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -890,12 +918,16 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
               <a:t>Number of read files vs</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time to solution per read file</a:t>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t> Time </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -904,8 +936,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0826448285340102"/>
-          <c:y val="0.00661157024793388"/>
+          <c:x val="0.396136889138858"/>
+          <c:y val="0.0372095977571649"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -917,8 +949,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.228059467412569"/>
-          <c:y val="0.139166265373853"/>
+          <c:x val="0.228059461317335"/>
+          <c:y val="0.147511088234972"/>
           <c:w val="0.599946967614674"/>
           <c:h val="0.680482408053424"/>
         </c:manualLayout>
@@ -999,9 +1031,8 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:ln>
@@ -1009,9 +1040,8 @@
           <c:marker>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1075,11 +1105,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2454520"/>
-        <c:axId val="404775800"/>
+        <c:axId val="445156424"/>
+        <c:axId val="426301528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2454520"/>
+        <c:axId val="445156424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,12 +1138,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404775800"/>
+        <c:crossAx val="426301528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404775800"/>
+        <c:axId val="426301528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2454520"/>
+        <c:crossAx val="445156424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1208,14 +1238,20 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
               <a:t>Number</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
               <a:t> of threads vs Time</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1341,11 +1377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429339128"/>
-        <c:axId val="420666888"/>
+        <c:axId val="445872472"/>
+        <c:axId val="446668456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429339128"/>
+        <c:axId val="445872472"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1375,12 +1411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420666888"/>
+        <c:crossAx val="446668456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420666888"/>
+        <c:axId val="446668456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429339128"/>
+        <c:crossAx val="445872472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1505,7 +1541,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$39:$K$41</c:f>
+              <c:f>Sheet1!$K$40:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1523,7 +1559,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:f>Sheet1!$F$40:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1549,11 +1585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429510472"/>
-        <c:axId val="429489096"/>
+        <c:axId val="445761432"/>
+        <c:axId val="445764024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429510472"/>
+        <c:axId val="445761432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,13 +1599,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429489096"/>
+        <c:crossAx val="445764024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429489096"/>
+        <c:axId val="445764024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429510472"/>
+        <c:crossAx val="445761432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1601,13 +1637,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>889000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -1638,7 +1674,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2013,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2701,121 +2737,218 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="20" thickBot="1">
-      <c r="A37" s="4" t="s">
+    <row r="31" spans="1:12">
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>1.9</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>1.2</v>
+      </c>
+      <c r="F32">
+        <v>13996</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" s="7">
+        <v>12</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>1.9</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>1.2</v>
+      </c>
+      <c r="F33">
+        <v>13583</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33" s="7">
+        <v>12</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>1.9</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>1.2</v>
+      </c>
+      <c r="F34">
+        <v>12960</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34" s="7">
+        <v>12</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>1.9</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>1.2</v>
+      </c>
+      <c r="F35">
+        <v>12881</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35" s="7">
+        <v>12</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="20" thickBot="1">
+      <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" ht="16" thickTop="1">
-      <c r="A39" t="s">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="16" thickTop="1">
+      <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>40</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C40" s="7">
         <v>1.9</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <f>615.7*60</f>
         <v>36942</v>
       </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="J39" s="7">
-        <v>4</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>1.2</v>
-      </c>
-      <c r="F40">
-        <v>19618</v>
-      </c>
       <c r="H40" t="s">
         <v>16</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" s="7">
         <v>4</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
@@ -2828,31 +2961,31 @@
         <v>1.9</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>0.73199999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="F41">
-        <v>28299</v>
+        <v>19618</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="7">
         <v>4</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="14" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2869,13 +3002,13 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="F42">
-        <v>25215</v>
+        <v>28299</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42" s="7">
         <v>4</v>
@@ -2887,97 +3020,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="E44" s="3"/>
-    </row>
-    <row r="49" spans="1:15" ht="20" thickBot="1">
-      <c r="A49" s="4" t="s">
+    <row r="43" spans="1:13" ht="14" customHeight="1">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F43">
+        <v>25215</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" s="7">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="20" thickBot="1">
+      <c r="A50" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J51" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" ht="16" thickTop="1">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51">
-        <v>40</v>
-      </c>
-      <c r="C51">
-        <v>1.9</v>
-      </c>
-      <c r="D51">
-        <v>40</v>
-      </c>
-      <c r="E51">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G51">
-        <v>3966</v>
-      </c>
-      <c r="H51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="J51" s="7">
-        <v>80</v>
-      </c>
-      <c r="K51" s="8">
-        <v>10</v>
-      </c>
-      <c r="L51">
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <v>105</v>
-      </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1">
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" ht="16" thickTop="1">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2988,13 +3117,13 @@
         <v>1.9</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E52">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G52">
-        <v>8031</v>
+        <v>3966</v>
       </c>
       <c r="H52" t="s">
         <v>49</v>
@@ -3003,16 +3132,20 @@
         <v>2</v>
       </c>
       <c r="J52" s="7">
-        <v>40</v>
-      </c>
-      <c r="K52" s="7">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="K52" s="8">
+        <v>10</v>
       </c>
       <c r="L52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="M52">
+        <v>105</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="19" customHeight="1">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3023,25 +3156,25 @@
         <v>1.9</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>0.20899999999999999</v>
+        <v>0.435</v>
       </c>
       <c r="G53">
-        <v>25807</v>
+        <v>8031</v>
       </c>
       <c r="H53" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" s="7">
-        <v>12</v>
-      </c>
-      <c r="K53" s="8">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="K53" s="7">
+        <v>5</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -3058,13 +3191,13 @@
         <v>1.9</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E54">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G54">
-        <v>23872</v>
+        <v>25807</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
@@ -3075,7 +3208,7 @@
       <c r="J54" s="7">
         <v>12</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="8">
         <v>3</v>
       </c>
       <c r="L54">
@@ -3093,22 +3226,25 @@
         <v>1.9</v>
       </c>
       <c r="D55">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>0.20899999999999999</v>
+        <v>0.435</v>
+      </c>
+      <c r="G55">
+        <v>23872</v>
       </c>
       <c r="H55" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55" s="7">
-        <v>16</v>
-      </c>
-      <c r="K55" s="8">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="K55" s="7">
+        <v>3</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -3125,10 +3261,10 @@
         <v>1.9</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="H56" t="s">
         <v>49</v>
@@ -3139,7 +3275,7 @@
       <c r="J56" s="7">
         <v>16</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="8">
         <v>2</v>
       </c>
       <c r="L56">
@@ -3151,31 +3287,28 @@
         <v>6</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C57">
         <v>1.9</v>
       </c>
       <c r="D57">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G57">
-        <v>7337</v>
+        <v>0.435</v>
       </c>
       <c r="H57" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57" s="7">
-        <v>12</v>
-      </c>
-      <c r="K57" s="8">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -3192,10 +3325,13 @@
         <v>1.9</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E58">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G58">
+        <v>7337</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
@@ -3206,110 +3342,103 @@
       <c r="J58" s="7">
         <v>12</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="8">
         <v>3</v>
       </c>
       <c r="L58">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>1.9</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>0.435</v>
+      </c>
+      <c r="H59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" s="7">
+        <v>12</v>
+      </c>
+      <c r="K59" s="7">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:15">
+      <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="1:15" ht="20" thickBot="1">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:15">
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:15" ht="20" thickBot="1">
+      <c r="A64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A64" s="1" t="s">
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J65" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16" thickTop="1">
-      <c r="A65" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="7">
-        <v>40</v>
-      </c>
-      <c r="C65">
-        <v>1.9</v>
-      </c>
-      <c r="D65" s="7">
-        <v>40</v>
-      </c>
-      <c r="E65" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F65" s="7">
-        <v>3468</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="7">
-        <v>2</v>
-      </c>
-      <c r="J65" s="7">
-        <v>2</v>
-      </c>
-      <c r="K65" s="8">
-        <v>0</v>
-      </c>
-      <c r="L65" s="7">
-        <v>2</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14" ht="16" thickTop="1">
       <c r="A66" s="7" t="s">
         <v>6</v>
       </c>
@@ -3320,10 +3449,13 @@
         <v>1.9</v>
       </c>
       <c r="D66" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E66" s="7">
-        <v>0.435</v>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F66" s="7">
+        <v>3468</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
@@ -3335,96 +3467,99 @@
       <c r="J66" s="7">
         <v>2</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="8">
         <v>0</v>
       </c>
       <c r="L66" s="7">
         <v>2</v>
       </c>
       <c r="M66" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="7">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>1.9</v>
+      </c>
+      <c r="D67" s="7">
+        <v>20</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="7">
+        <v>2</v>
+      </c>
+      <c r="J67" s="7">
+        <v>2</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7">
+        <v>2</v>
+      </c>
+      <c r="M67" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="20" thickBot="1">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:14" ht="20" thickBot="1">
+      <c r="A72" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16" thickTop="1">
-      <c r="A73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="7">
-        <v>40</v>
-      </c>
-      <c r="C73">
-        <v>1.9</v>
-      </c>
-      <c r="D73" s="7">
-        <v>40</v>
-      </c>
-      <c r="E73" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" s="7">
-        <v>2</v>
-      </c>
-      <c r="J73" s="7">
-        <v>80</v>
-      </c>
-      <c r="K73" s="7">
-        <v>10</v>
-      </c>
-      <c r="M73" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14" ht="16" thickTop="1">
       <c r="A74" s="7" t="s">
         <v>6</v>
       </c>
@@ -3435,10 +3570,10 @@
         <v>1.9</v>
       </c>
       <c r="D74" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E74" s="7">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" t="s">
@@ -3451,113 +3586,114 @@
         <v>80</v>
       </c>
       <c r="K74" s="7">
+        <v>10</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="B75" s="7">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>1.9</v>
+      </c>
+      <c r="D75" s="7">
+        <v>20</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2</v>
+      </c>
+      <c r="J75" s="7">
+        <v>80</v>
+      </c>
+      <c r="K75" s="7">
+        <v>6</v>
+      </c>
+      <c r="M75" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="20" thickBot="1">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:14" ht="20" thickBot="1">
+      <c r="A80" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="66" thickTop="1" thickBot="1">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:13" ht="66" thickTop="1" thickBot="1">
+      <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G81" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11" t="s">
+      <c r="I81" s="11"/>
+      <c r="J81" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="12" t="s">
+      <c r="K81" s="11"/>
+      <c r="L81" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16" thickTop="1">
-      <c r="A81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81">
-        <v>10</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81">
-        <v>1.9</v>
-      </c>
-      <c r="E81" s="7">
-        <v>40</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0.105</v>
-      </c>
-      <c r="H81" s="7">
-        <v>52.4</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J81" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" ht="16" thickTop="1">
       <c r="A82" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B82">
         <v>10</v>
       </c>
-      <c r="C82" t="s">
-        <v>65</v>
+      <c r="C82" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D82">
         <v>1.9</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="7">
         <v>40</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="7">
         <v>0.105</v>
       </c>
       <c r="H82" s="7">
-        <v>67</v>
+        <v>52.4</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J82">
-        <v>1.6</v>
+      <c r="J82" s="7">
+        <v>1.2</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3574,16 +3710,16 @@
         <v>1.9</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F83">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G83">
-        <v>0.22</v>
-      </c>
-      <c r="H83">
-        <v>70</v>
+        <v>0.105</v>
+      </c>
+      <c r="H83" s="7">
+        <v>67</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>74</v>
@@ -3591,12 +3727,10 @@
       <c r="J83">
         <v>1.6</v>
       </c>
-      <c r="L83" s="12"/>
-      <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" t="s">
-        <v>55</v>
+      <c r="A84" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -3605,108 +3739,119 @@
         <v>65</v>
       </c>
       <c r="D84">
+        <v>1.9</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+      <c r="F84">
         <v>0.435</v>
       </c>
-      <c r="E84">
+      <c r="G84">
+        <v>0.22</v>
+      </c>
+      <c r="H84">
+        <v>70</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84">
+        <v>1.6</v>
+      </c>
+      <c r="L84" s="12"/>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85">
+        <v>0.435</v>
+      </c>
+      <c r="E85">
         <v>4</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="L85" s="3"/>
-    </row>
-    <row r="91" spans="1:13" ht="20" thickBot="1">
-      <c r="A91" s="4" t="s">
+      <c r="G85">
+        <v>0.2</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="L86" s="3"/>
+    </row>
+    <row r="92" spans="1:13" ht="20" thickBot="1">
+      <c r="A92" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J92" s="6" t="s">
+      <c r="J93" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="K93" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16" thickTop="1">
-      <c r="A93" t="s">
+    <row r="94" spans="1:13" ht="16" thickTop="1">
+      <c r="A94" t="s">
         <v>55</v>
-      </c>
-      <c r="B93">
-        <v>40</v>
-      </c>
-      <c r="C93">
-        <v>0.439</v>
-      </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>7464</v>
-      </c>
-      <c r="H93" t="s">
-        <v>57</v>
-      </c>
-      <c r="I93">
-        <v>12</v>
-      </c>
-      <c r="J93" s="7">
-        <v>12</v>
-      </c>
-      <c r="K93" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" t="s">
-        <v>6</v>
       </c>
       <c r="B94">
         <v>40</v>
       </c>
       <c r="C94">
-        <v>1.9</v>
+        <v>0.439</v>
       </c>
       <c r="D94">
         <v>4</v>
       </c>
       <c r="E94">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>12960</v>
+        <v>7464</v>
       </c>
       <c r="H94" t="s">
         <v>57</v>
@@ -3721,79 +3866,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="20" thickBot="1">
-      <c r="A98" s="4" t="s">
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>40</v>
+      </c>
+      <c r="C95">
+        <v>1.9</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>1.2</v>
+      </c>
+      <c r="F95">
+        <v>12960</v>
+      </c>
+      <c r="H95" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95">
+        <v>12</v>
+      </c>
+      <c r="J95" s="7">
+        <v>12</v>
+      </c>
+      <c r="K95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="20" thickBot="1">
+      <c r="A99" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="50" thickTop="1" thickBot="1">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J100" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K100" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="16" thickTop="1">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100">
-        <v>10</v>
-      </c>
-      <c r="C100">
-        <v>1.9</v>
-      </c>
-      <c r="D100">
-        <v>37</v>
-      </c>
-      <c r="E100">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F100">
-        <v>662</v>
-      </c>
-      <c r="H100" t="s">
-        <v>7</v>
-      </c>
-      <c r="I100">
-        <v>12</v>
-      </c>
-      <c r="J100" s="7">
-        <v>12</v>
-      </c>
-      <c r="K100" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" ht="16" thickTop="1">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="D101">
         <v>37</v>
@@ -3810,7 +3955,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F101">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="H101" t="s">
         <v>7</v>
@@ -3825,166 +3970,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="10" t="s">
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>3.3</v>
+      </c>
+      <c r="D102">
+        <v>37</v>
+      </c>
+      <c r="E102">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F102">
+        <v>676</v>
+      </c>
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102">
+        <v>12</v>
+      </c>
+      <c r="J102" s="7">
+        <v>12</v>
+      </c>
+      <c r="K102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="10" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A112" s="9" t="s">
+    <row r="113" spans="1:12" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A113" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="1:12" ht="16" thickTop="1">
-      <c r="A113" s="9" t="s">
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:12" ht="16" thickTop="1">
+      <c r="A114" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="9" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="59" customHeight="1">
-      <c r="A124" s="9" t="s">
+    <row r="125" spans="1:12" ht="18" customHeight="1">
+      <c r="A125" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="12:12" ht="59" customHeight="1">
-      <c r="L131" s="2"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="9" t="s">
-        <v>32</v>
-      </c>
+    <row r="132" spans="1:12" ht="59" customHeight="1">
+      <c r="L132" s="2"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="10"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A157" s="9"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A158" s="9"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A159" s="9"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A160" s="9"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A161" s="9"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="A162" s="9"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="9"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A169" s="9"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="A170" s="9"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="A171" s="9"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A172" s="9"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="A173" s="9"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A174" s="9"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="60" windowWidth="28800" windowHeight="16640" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
   <si>
     <t>Type</t>
   </si>
@@ -141,9 +141,6 @@
     <t>LONI- BigJob</t>
   </si>
   <si>
-    <t>Sierra-Euca-Bigjob</t>
-  </si>
-  <si>
     <t>LONI-EUCA BigJob</t>
   </si>
   <si>
@@ -244,6 +241,21 @@
   </si>
   <si>
     <t>NR *ST *(NM + (4^d)+ 2)</t>
+  </si>
+  <si>
+    <t>India-Euca</t>
+  </si>
+  <si>
+    <t>Time to Process 4 Read  files</t>
+  </si>
+  <si>
+    <t>m1.large 4</t>
+  </si>
+  <si>
+    <t>Euca-Bigjob</t>
+  </si>
+  <si>
+    <t>c1x.large 1</t>
   </si>
 </sst>
 </file>
@@ -362,7 +374,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="248">
+  <cellStyleXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -611,8 +623,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -638,8 +662,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="248">
+  <cellStyles count="260">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -762,6 +792,12 @@
     <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -886,6 +922,12 @@
     <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1105,11 +1147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445156424"/>
-        <c:axId val="426301528"/>
+        <c:axId val="504618952"/>
+        <c:axId val="603506072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445156424"/>
+        <c:axId val="504618952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,12 +1180,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426301528"/>
+        <c:crossAx val="603506072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="426301528"/>
+        <c:axId val="603506072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445156424"/>
+        <c:crossAx val="504618952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,10 +1307,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.245101549806274"/>
-          <c:y val="0.123424103237095"/>
-          <c:w val="0.608944425425083"/>
-          <c:h val="0.705757220203848"/>
+          <c:x val="0.179625359330084"/>
+          <c:y val="0.128021721422753"/>
+          <c:w val="0.795498687664042"/>
+          <c:h val="0.708056113675446"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1278,15 +1320,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Varying the Number of threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>read files .229 GB</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -1369,6 +1403,100 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>read file 1.2GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$32:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$32:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13996.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13583.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12960.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12881.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B.glumae</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$37:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$37:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8247.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7740.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7515.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1377,11 +1505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445872472"/>
-        <c:axId val="446668456"/>
+        <c:axId val="603321160"/>
+        <c:axId val="603326296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445872472"/>
+        <c:axId val="603321160"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1411,12 +1539,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446668456"/>
+        <c:crossAx val="603326296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446668456"/>
+        <c:axId val="603326296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,11 +1573,25 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445872472"/>
+        <c:crossAx val="603321160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.758088245726041"/>
+          <c:y val="0.322569209391812"/>
+          <c:w val="0.155015369700409"/>
+          <c:h val="0.136309366872127"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1541,7 +1683,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$40:$K$42</c:f>
+              <c:f>Sheet1!$K$44:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1559,7 +1701,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$40:$F$42</c:f>
+              <c:f>Sheet1!$F$44:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1585,11 +1727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445761432"/>
-        <c:axId val="445764024"/>
+        <c:axId val="603495496"/>
+        <c:axId val="603574664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445761432"/>
+        <c:axId val="603495496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,13 +1741,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445764024"/>
+        <c:crossAx val="603574664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445764024"/>
+        <c:axId val="603574664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445761432"/>
+        <c:crossAx val="603495496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1672,10 +1814,10 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2049,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F19"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2079,16 +2221,16 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -2099,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2289,13 +2431,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -2335,7 +2477,7 @@
       <c r="E16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="13">
         <v>8810</v>
       </c>
       <c r="H16" t="s">
@@ -2371,7 +2513,7 @@
       <c r="E17">
         <v>1.2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="13">
         <v>4428</v>
       </c>
       <c r="H17" t="s">
@@ -2407,7 +2549,7 @@
       <c r="E18">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="13">
         <v>2855</v>
       </c>
       <c r="H18" t="s">
@@ -2443,7 +2585,7 @@
       <c r="E19" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="14">
         <v>936</v>
       </c>
       <c r="G19" s="7"/>
@@ -2486,13 +2628,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -2869,388 +3011,334 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="20" thickBot="1">
-      <c r="A38" s="4" t="s">
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>0.435</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>8247</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>0.435</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>7740</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>0.435</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>7515</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="J40" s="7"/>
+    </row>
+    <row r="42" spans="1:13" ht="20" thickBot="1">
+      <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A39" s="1" t="s">
+    <row r="43" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" ht="16" thickTop="1">
-      <c r="A40" t="s">
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="16" thickTop="1">
+      <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" s="7">
         <v>1.9</v>
       </c>
-      <c r="D40">
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="E40">
+      <c r="E44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F40">
+      <c r="F44">
         <f>615.7*60</f>
         <v>36942</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H44" t="s">
         <v>16</v>
       </c>
-      <c r="I40">
+      <c r="I44">
         <v>4</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J44" s="7">
         <v>4</v>
       </c>
-      <c r="K40">
+      <c r="K44">
         <v>1</v>
       </c>
-      <c r="L40">
+      <c r="L44">
         <v>4</v>
       </c>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45" s="7">
         <v>1.9</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>8</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <v>1.2</v>
       </c>
-      <c r="F41">
+      <c r="F45">
         <v>19618</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H45" t="s">
         <v>16</v>
       </c>
-      <c r="I41">
+      <c r="I45">
         <v>2</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J45" s="7">
         <v>4</v>
       </c>
-      <c r="K41">
+      <c r="K45">
         <v>2</v>
       </c>
-      <c r="L41">
+      <c r="L45">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46" s="7">
         <v>1.9</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F42">
+      <c r="F46">
         <v>28299</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H46" t="s">
         <v>16</v>
       </c>
-      <c r="I42">
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J46" s="7">
         <v>4</v>
       </c>
-      <c r="K42">
+      <c r="K46">
         <v>4</v>
       </c>
-      <c r="L42">
+      <c r="L46">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="14" customHeight="1">
-      <c r="A43" t="s">
+    <row r="47" spans="1:13" ht="14" customHeight="1">
+      <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47" s="7">
         <v>1.9</v>
       </c>
-      <c r="D43">
+      <c r="D47">
         <v>16</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F43">
+      <c r="F47">
         <v>25215</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H47" t="s">
         <v>16</v>
       </c>
-      <c r="I43">
+      <c r="I47">
         <v>4</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J47" s="7">
         <v>4</v>
       </c>
-      <c r="K43">
+      <c r="K47">
         <v>4</v>
       </c>
-      <c r="L43">
+      <c r="L47">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="E45" s="3"/>
-    </row>
-    <row r="50" spans="1:15" ht="20" thickBot="1">
-      <c r="A50" s="4" t="s">
+    <row r="49" spans="1:15">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="20" thickBot="1">
+      <c r="A54" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A51" s="1" t="s">
+    <row r="55" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" ht="16" thickTop="1">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52">
-        <v>40</v>
-      </c>
-      <c r="C52">
-        <v>1.9</v>
-      </c>
-      <c r="D52">
-        <v>40</v>
-      </c>
-      <c r="E52">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G52">
-        <v>3966</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="M55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52" s="7">
-        <v>80</v>
-      </c>
-      <c r="K52" s="8">
-        <v>10</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
-        <v>105</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <v>40</v>
-      </c>
-      <c r="C53">
-        <v>1.9</v>
-      </c>
-      <c r="D53">
-        <v>20</v>
-      </c>
-      <c r="E53">
-        <v>0.435</v>
-      </c>
-      <c r="G53">
-        <v>8031</v>
-      </c>
-      <c r="H53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="J53" s="7">
-        <v>40</v>
-      </c>
-      <c r="K53" s="7">
-        <v>5</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54">
-        <v>40</v>
-      </c>
-      <c r="C54">
-        <v>1.9</v>
-      </c>
-      <c r="D54">
-        <v>40</v>
-      </c>
-      <c r="E54">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G54">
-        <v>25807</v>
-      </c>
-      <c r="H54" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="J54" s="7">
-        <v>12</v>
-      </c>
-      <c r="K54" s="8">
-        <v>3</v>
-      </c>
-      <c r="L54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55">
-        <v>40</v>
-      </c>
-      <c r="C55">
-        <v>1.9</v>
-      </c>
-      <c r="D55">
-        <v>20</v>
-      </c>
-      <c r="E55">
-        <v>0.435</v>
-      </c>
-      <c r="G55">
-        <v>23872</v>
-      </c>
-      <c r="H55" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55" s="7">
-        <v>12</v>
-      </c>
-      <c r="K55" s="7">
-        <v>3</v>
-      </c>
-      <c r="L55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" ht="16" thickTop="1">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -3266,23 +3354,30 @@
       <c r="E56">
         <v>0.20899999999999999</v>
       </c>
+      <c r="G56">
+        <v>3966</v>
+      </c>
       <c r="H56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K56" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="M56">
+        <v>105</v>
+      </c>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="19" customHeight="1">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -3298,17 +3393,20 @@
       <c r="E57">
         <v>0.435</v>
       </c>
+      <c r="G57">
+        <v>8031</v>
+      </c>
       <c r="H57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57" s="7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K57" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -3319,7 +3417,7 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>1.9</v>
@@ -3331,7 +3429,7 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="G58">
-        <v>7337</v>
+        <v>25807</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
@@ -3354,7 +3452,7 @@
         <v>6</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C59">
         <v>1.9</v>
@@ -3365,6 +3463,9 @@
       <c r="E59">
         <v>0.435</v>
       </c>
+      <c r="G59">
+        <v>23872</v>
+      </c>
       <c r="H59" t="s">
         <v>5</v>
       </c>
@@ -3381,724 +3482,922 @@
         <v>2</v>
       </c>
     </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>1.9</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60" s="7">
+        <v>16</v>
+      </c>
+      <c r="K60" s="8">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>40</v>
+      </c>
+      <c r="C61">
+        <v>1.9</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>0.435</v>
+      </c>
+      <c r="H61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" s="7">
+        <v>16</v>
+      </c>
+      <c r="K61" s="7">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+    </row>
     <row r="62" spans="1:15">
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>1.9</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G62">
+        <v>7337</v>
+      </c>
+      <c r="H62" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" s="7">
+        <v>12</v>
+      </c>
+      <c r="K62" s="8">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:15" ht="20" thickBot="1">
-      <c r="A64" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K64" s="7"/>
-    </row>
-    <row r="65" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A65" s="1" t="s">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>1.9</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>0.435</v>
+      </c>
+      <c r="H63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" s="7">
+        <v>12</v>
+      </c>
+      <c r="K63" s="7">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:14" ht="20" thickBot="1">
+      <c r="A68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C69" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16" thickTop="1">
+      <c r="A70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="7">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>1.9</v>
+      </c>
+      <c r="D70" s="7">
+        <v>40</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F70" s="7">
+        <v>3468</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2</v>
+      </c>
+      <c r="J70" s="7">
+        <v>2</v>
+      </c>
+      <c r="K70" s="8">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>2</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="7">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>1.9</v>
+      </c>
+      <c r="D71" s="7">
+        <v>20</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2</v>
+      </c>
+      <c r="J71" s="7">
+        <v>2</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <v>2</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="7">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>1.9</v>
+      </c>
+      <c r="D72" s="7">
+        <v>40</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F72" s="7">
+        <v>907</v>
+      </c>
+      <c r="G72" s="7">
+        <v>980</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="7">
+        <v>2</v>
+      </c>
+      <c r="J72" s="7">
+        <v>2</v>
+      </c>
+      <c r="K72" s="8">
+        <v>0</v>
+      </c>
+      <c r="L72" s="7">
+        <v>2</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="7">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>1.9</v>
+      </c>
+      <c r="D73" s="7">
+        <v>40</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73" s="7">
+        <v>2</v>
+      </c>
+      <c r="J73" s="7">
+        <v>2</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+      <c r="L73" s="7">
+        <v>2</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="20" thickBot="1">
+      <c r="A76" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="16" thickTop="1">
+      <c r="A78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="7">
+        <v>40</v>
+      </c>
+      <c r="C78">
+        <v>1.9</v>
+      </c>
+      <c r="D78" s="7">
+        <v>40</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" s="7">
+        <v>2</v>
+      </c>
+      <c r="J78" s="7">
+        <v>80</v>
+      </c>
+      <c r="K78" s="7">
+        <v>10</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="7">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>1.9</v>
+      </c>
+      <c r="D79" s="7">
+        <v>20</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" s="7">
+        <v>2</v>
+      </c>
+      <c r="J79" s="7">
+        <v>80</v>
+      </c>
+      <c r="K79" s="7">
+        <v>6</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="20" thickBot="1">
+      <c r="A84" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="66" thickTop="1" thickBot="1">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K85" s="11"/>
+      <c r="L85" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="16" thickTop="1">
+      <c r="A86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86">
+        <v>1.9</v>
+      </c>
+      <c r="E86" s="7">
+        <v>40</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="H86" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J86" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>1.9</v>
+      </c>
+      <c r="E87">
+        <v>40</v>
+      </c>
+      <c r="F87">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G87">
+        <v>0.105</v>
+      </c>
+      <c r="H87" s="7">
+        <v>67</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J87">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88">
+        <v>1.9</v>
+      </c>
+      <c r="E88">
+        <v>20</v>
+      </c>
+      <c r="F88">
+        <v>0.435</v>
+      </c>
+      <c r="G88">
+        <v>0.22</v>
+      </c>
+      <c r="H88">
+        <v>70</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J88">
+        <v>1.6</v>
+      </c>
+      <c r="L88" s="12"/>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89">
+        <v>0.435</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0.2</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="96" spans="1:13" ht="20" thickBot="1">
+      <c r="A96" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16" thickTop="1">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98">
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <v>0.439</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>7464</v>
+      </c>
+      <c r="H98" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="I98">
+        <v>12</v>
+      </c>
+      <c r="J98" s="7">
+        <v>12</v>
+      </c>
+      <c r="K98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>40</v>
+      </c>
+      <c r="C99">
+        <v>1.9</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>1.2</v>
+      </c>
+      <c r="F99">
+        <v>12960</v>
+      </c>
+      <c r="H99" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99">
+        <v>12</v>
+      </c>
+      <c r="J99" s="7">
+        <v>12</v>
+      </c>
+      <c r="K99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="20" thickBot="1">
+      <c r="A103" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="6" t="s">
+      <c r="I104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="K104" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="16" thickTop="1">
-      <c r="A66" s="7" t="s">
+    </row>
+    <row r="105" spans="1:11" ht="16" thickTop="1">
+      <c r="A105" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="7">
-        <v>40</v>
-      </c>
-      <c r="C66">
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105">
         <v>1.9</v>
       </c>
-      <c r="D66" s="7">
-        <v>40</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="D105">
+        <v>37</v>
+      </c>
+      <c r="E105">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F66" s="7">
-        <v>3468</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="7">
-        <v>2</v>
-      </c>
-      <c r="J66" s="7">
-        <v>2</v>
-      </c>
-      <c r="K66" s="8">
-        <v>0</v>
-      </c>
-      <c r="L66" s="7">
-        <v>2</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="7" t="s">
+      <c r="F105">
+        <v>662</v>
+      </c>
+      <c r="H105" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105">
+        <v>12</v>
+      </c>
+      <c r="J105" s="7">
+        <v>12</v>
+      </c>
+      <c r="K105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="7">
-        <v>40</v>
-      </c>
-      <c r="C67">
-        <v>1.9</v>
-      </c>
-      <c r="D67" s="7">
-        <v>20</v>
-      </c>
-      <c r="E67" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="7">
-        <v>2</v>
-      </c>
-      <c r="J67" s="7">
-        <v>2</v>
-      </c>
-      <c r="K67" s="7">
-        <v>0</v>
-      </c>
-      <c r="L67" s="7">
-        <v>2</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="20" thickBot="1">
-      <c r="A72" s="4" t="s">
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>3.3</v>
+      </c>
+      <c r="D106">
+        <v>37</v>
+      </c>
+      <c r="E106">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F106">
+        <v>676</v>
+      </c>
+      <c r="H106" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106">
+        <v>12</v>
+      </c>
+      <c r="J106" s="7">
+        <v>12</v>
+      </c>
+      <c r="K106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="16" thickTop="1">
-      <c r="A74" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="7">
-        <v>40</v>
-      </c>
-      <c r="C74">
-        <v>1.9</v>
-      </c>
-      <c r="D74" s="7">
-        <v>40</v>
-      </c>
-      <c r="E74" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" t="s">
-        <v>44</v>
-      </c>
-      <c r="I74" s="7">
-        <v>2</v>
-      </c>
-      <c r="J74" s="7">
-        <v>80</v>
-      </c>
-      <c r="K74" s="7">
-        <v>10</v>
-      </c>
-      <c r="M74" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="7">
-        <v>40</v>
-      </c>
-      <c r="C75">
-        <v>1.9</v>
-      </c>
-      <c r="D75" s="7">
-        <v>20</v>
-      </c>
-      <c r="E75" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="7">
-        <v>2</v>
-      </c>
-      <c r="J75" s="7">
-        <v>80</v>
-      </c>
-      <c r="K75" s="7">
-        <v>6</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="20" thickBot="1">
-      <c r="A80" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="66" thickTop="1" thickBot="1">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K81" s="11"/>
-      <c r="L81" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="16" thickTop="1">
-      <c r="A82" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82">
-        <v>10</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82">
-        <v>1.9</v>
-      </c>
-      <c r="E82" s="7">
-        <v>40</v>
-      </c>
-      <c r="F82" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0.105</v>
-      </c>
-      <c r="H82" s="7">
-        <v>52.4</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J82" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83">
-        <v>1.9</v>
-      </c>
-      <c r="E83">
-        <v>40</v>
-      </c>
-      <c r="F83">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G83">
-        <v>0.105</v>
-      </c>
-      <c r="H83" s="7">
-        <v>67</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J83">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84">
-        <v>1.9</v>
-      </c>
-      <c r="E84">
-        <v>20</v>
-      </c>
-      <c r="F84">
-        <v>0.435</v>
-      </c>
-      <c r="G84">
-        <v>0.22</v>
-      </c>
-      <c r="H84">
-        <v>70</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J84">
-        <v>1.6</v>
-      </c>
-      <c r="L84" s="12"/>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85">
-        <v>0.435</v>
-      </c>
-      <c r="E85">
-        <v>4</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>0.2</v>
-      </c>
-      <c r="H85">
-        <v>20</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="L86" s="3"/>
-    </row>
-    <row r="92" spans="1:13" ht="20" thickBot="1">
-      <c r="A92" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="16" thickTop="1">
-      <c r="A94" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94">
-        <v>40</v>
-      </c>
-      <c r="C94">
-        <v>0.439</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>7464</v>
-      </c>
-      <c r="H94" t="s">
-        <v>57</v>
-      </c>
-      <c r="I94">
-        <v>12</v>
-      </c>
-      <c r="J94" s="7">
-        <v>12</v>
-      </c>
-      <c r="K94" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95">
-        <v>40</v>
-      </c>
-      <c r="C95">
-        <v>1.9</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95">
-        <v>1.2</v>
-      </c>
-      <c r="F95">
-        <v>12960</v>
-      </c>
-      <c r="H95" t="s">
-        <v>57</v>
-      </c>
-      <c r="I95">
-        <v>12</v>
-      </c>
-      <c r="J95" s="7">
-        <v>12</v>
-      </c>
-      <c r="K95" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="20" thickBot="1">
-      <c r="A99" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="50" thickTop="1" thickBot="1">
-      <c r="A100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="16" thickTop="1">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101">
-        <v>10</v>
-      </c>
-      <c r="C101">
-        <v>1.9</v>
-      </c>
-      <c r="D101">
+    <row r="115" spans="1:5">
+      <c r="A115" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A117" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5" ht="16" thickTop="1">
+      <c r="A118" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E101">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F101">
-        <v>662</v>
-      </c>
-      <c r="H101" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101">
-        <v>12</v>
-      </c>
-      <c r="J101" s="7">
-        <v>12</v>
-      </c>
-      <c r="K101" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102">
-        <v>10</v>
-      </c>
-      <c r="C102">
-        <v>3.3</v>
-      </c>
-      <c r="D102">
-        <v>37</v>
-      </c>
-      <c r="E102">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F102">
-        <v>676</v>
-      </c>
-      <c r="H102" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102">
-        <v>12</v>
-      </c>
-      <c r="J102" s="7">
-        <v>12</v>
-      </c>
-      <c r="K102" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="9" t="s">
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A113" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-    </row>
-    <row r="114" spans="1:12" ht="16" thickTop="1">
-      <c r="A114" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="18" customHeight="1">
-      <c r="A125" s="9" t="s">
+    <row r="129" spans="1:12" ht="18" customHeight="1">
+      <c r="A129" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="9" t="s">
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="9" t="s">
+    <row r="131" spans="1:12">
+      <c r="A131" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="9" t="s">
+    <row r="132" spans="1:12">
+      <c r="A132" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="9" t="s">
+    <row r="133" spans="1:12">
+      <c r="A133" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="59" customHeight="1">
-      <c r="L132" s="2"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="10"/>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="9"/>
+    <row r="136" spans="1:12" ht="59" customHeight="1">
+      <c r="L136" s="2"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="9"/>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="9"/>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="9"/>
+      <c r="A158" s="10"/>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="9"/>
@@ -4109,17 +4408,17 @@
     <row r="163" spans="1:1">
       <c r="A163" s="9"/>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="9"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="9"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="9"/>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="9"/>
+    <row r="164" spans="1:1">
+      <c r="A164" s="9"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="9"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="9"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="9"/>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="9"/>
@@ -4130,9 +4429,20 @@
     <row r="175" spans="1:1">
       <c r="A175" s="9"/>
     </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="9"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="9"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="9"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="17280" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="260">
+  <cellStyleXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -455,6 +455,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -669,7 +677,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="260">
+  <cellStyles count="268">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -798,6 +806,10 @@
     <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -928,6 +940,10 @@
     <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1147,11 +1163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504618952"/>
-        <c:axId val="603506072"/>
+        <c:axId val="543676328"/>
+        <c:axId val="543197992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504618952"/>
+        <c:axId val="543676328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,12 +1196,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603506072"/>
+        <c:crossAx val="543197992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="603506072"/>
+        <c:axId val="543197992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504618952"/>
+        <c:crossAx val="543676328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1505,11 +1521,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="603321160"/>
-        <c:axId val="603326296"/>
+        <c:axId val="500702520"/>
+        <c:axId val="3212168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="603321160"/>
+        <c:axId val="500702520"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1539,12 +1555,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603326296"/>
+        <c:crossAx val="3212168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="603326296"/>
+        <c:axId val="3212168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603321160"/>
+        <c:crossAx val="500702520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1727,11 +1743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="603495496"/>
-        <c:axId val="603574664"/>
+        <c:axId val="543731560"/>
+        <c:axId val="500662824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="603495496"/>
+        <c:axId val="543731560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,13 +1757,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603574664"/>
+        <c:crossAx val="500662824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="603574664"/>
+        <c:axId val="500662824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603495496"/>
+        <c:crossAx val="543731560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2193,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3684,7 +3700,7 @@
         <v>40</v>
       </c>
       <c r="E70" s="7">
-        <v>0.22900000000000001</v>
+        <v>1</v>
       </c>
       <c r="F70" s="7">
         <v>3468</v>
@@ -3765,7 +3781,7 @@
         <v>907</v>
       </c>
       <c r="G72" s="7">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>74</v>
@@ -4443,6 +4459,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -1163,11 +1163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="543676328"/>
-        <c:axId val="543197992"/>
+        <c:axId val="391217880"/>
+        <c:axId val="391225144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="543676328"/>
+        <c:axId val="391217880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,12 +1196,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543197992"/>
+        <c:crossAx val="391225144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="543197992"/>
+        <c:axId val="391225144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543676328"/>
+        <c:crossAx val="391217880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1521,11 +1521,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500702520"/>
-        <c:axId val="3212168"/>
+        <c:axId val="391262792"/>
+        <c:axId val="391268328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500702520"/>
+        <c:axId val="391262792"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1555,12 +1555,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3212168"/>
+        <c:crossAx val="391268328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3212168"/>
+        <c:axId val="391268328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500702520"/>
+        <c:crossAx val="391262792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1743,11 +1743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="543731560"/>
-        <c:axId val="500662824"/>
+        <c:axId val="391293176"/>
+        <c:axId val="391297704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="543731560"/>
+        <c:axId val="391293176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,13 +1757,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500662824"/>
+        <c:crossAx val="391297704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500662824"/>
+        <c:axId val="391297704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543731560"/>
+        <c:crossAx val="391293176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2209,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2485,7 +2485,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -2521,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -2557,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -2593,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D19" s="7">
         <v>37</v>
@@ -4002,7 +4002,7 @@
         <v>63</v>
       </c>
       <c r="D86">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="E86" s="7">
         <v>40</v>
@@ -4014,7 +4014,7 @@
         <v>0.105</v>
       </c>
       <c r="H86" s="7">
-        <v>52.4</v>
+        <v>54.6</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>73</v>
@@ -4034,7 +4034,7 @@
         <v>64</v>
       </c>
       <c r="D87">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="E87">
         <v>40</v>
@@ -4066,7 +4066,7 @@
         <v>64</v>
       </c>
       <c r="D88">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="E88">
         <v>20</v>
@@ -4273,7 +4273,7 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D105">
         <v>37</v>
@@ -4459,7 +4459,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="17280" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
   <si>
     <t>Type</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Poseidon</t>
   </si>
   <si>
-    <t>Varying the Number of Read Files</t>
-  </si>
-  <si>
     <t>Varying the Number of Read Files with different number of Index files</t>
   </si>
   <si>
@@ -256,6 +253,12 @@
   </si>
   <si>
     <t>c1x.large 1</t>
+  </si>
+  <si>
+    <t>Varying the size of Read Files</t>
+  </si>
+  <si>
+    <t>B. Glumae</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="268">
+  <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -455,6 +458,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -677,7 +686,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="268">
+  <cellStyles count="274">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -810,6 +819,9 @@
     <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -944,6 +956,9 @@
     <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1113,7 +1128,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$E$19</c:f>
+              <c:f>Sheet1!$E$19:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1134,7 +1149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$16:$F$19</c:f>
+              <c:f>Sheet1!$F$19:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1149,6 +1164,50 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>936.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>cyder-Bglumae</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1596.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2978.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4387.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391217880"/>
-        <c:axId val="391225144"/>
+        <c:axId val="390926856"/>
+        <c:axId val="414249096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391217880"/>
+        <c:axId val="390926856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,12 +1255,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391225144"/>
+        <c:crossAx val="414249096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391225144"/>
+        <c:axId val="414249096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391217880"/>
+        <c:crossAx val="390926856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1254,8 +1313,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80453177727784"/>
           <c:y val="0.334909377635167"/>
-          <c:w val="0.176057818234733"/>
-          <c:h val="0.13234209809441"/>
+          <c:w val="0.184486939132608"/>
+          <c:h val="0.148946205580915"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1359,7 +1418,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$24:$I$30</c:f>
+              <c:f>Sheet1!$I$27:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1389,7 +1448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$24:$F$30</c:f>
+              <c:f>Sheet1!$F$27:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1427,7 +1486,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$32:$I$35</c:f>
+              <c:f>Sheet1!$I$35:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1448,7 +1507,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$35</c:f>
+              <c:f>Sheet1!$F$35:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1477,7 +1536,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$37:$I$39</c:f>
+              <c:f>Sheet1!$I$40:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1495,7 +1554,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$37:$F$39</c:f>
+              <c:f>Sheet1!$F$40:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1521,11 +1580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391262792"/>
-        <c:axId val="391268328"/>
+        <c:axId val="544920360"/>
+        <c:axId val="544925912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391262792"/>
+        <c:axId val="544920360"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1555,12 +1614,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391268328"/>
+        <c:crossAx val="544925912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391268328"/>
+        <c:axId val="544925912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391262792"/>
+        <c:crossAx val="544920360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1699,7 +1758,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$K$46</c:f>
+              <c:f>Sheet1!$K$47:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1717,7 +1776,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$44:$F$46</c:f>
+              <c:f>Sheet1!$F$47:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1743,11 +1802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391293176"/>
-        <c:axId val="391297704"/>
+        <c:axId val="414235784"/>
+        <c:axId val="414240248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391293176"/>
+        <c:axId val="414235784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,13 +1816,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391297704"/>
+        <c:crossAx val="414240248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391297704"/>
+        <c:axId val="414240248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391293176"/>
+        <c:crossAx val="414235784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1802,7 +1861,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1826,13 +1885,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1862,7 +1921,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2207,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" activeCellId="1" sqref="G17 E8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2234,19 +2293,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
@@ -2257,13 +2316,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2278,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" thickTop="1">
@@ -2434,340 +2493,309 @@
         <v>142117</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="50" thickTop="1" thickBot="1">
-      <c r="A15" s="1" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>0.435</v>
+      </c>
+      <c r="E8">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1596</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <v>0.435</v>
+      </c>
+      <c r="E9">
+        <v>0.39</v>
+      </c>
+      <c r="F9">
+        <v>2978</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>0.435</v>
+      </c>
+      <c r="E10">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F10">
+        <v>4387</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>0.435</v>
+      </c>
+      <c r="E11">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16" thickTop="1">
-      <c r="A16" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="16" thickTop="1">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>1.7</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F16" s="13">
-        <v>8810</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16" s="7">
-        <v>4</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f>D16*F16</f>
-        <v>35240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>1.7</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>1.2</v>
-      </c>
-      <c r="F17" s="13">
-        <v>4428</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17" s="7">
-        <v>4</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f>D17*F17</f>
-        <v>35424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>1.7</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F18" s="13">
-        <v>2855</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18" s="7">
-        <v>4</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <f>D18*F18</f>
-        <v>34260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>10</v>
       </c>
       <c r="C19">
         <v>1.7</v>
       </c>
-      <c r="D19" s="7">
-        <v>37</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F19" s="14">
-        <v>936</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F19" s="13">
+        <v>8810</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19">
         <v>4</v>
       </c>
       <c r="J19" s="7">
         <v>4</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="8">
         <v>1</v>
       </c>
+      <c r="L19">
+        <f>D19*F19</f>
+        <v>35240</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="22" spans="1:12" ht="20" thickBot="1">
-      <c r="A22" s="4" t="s">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="66" thickTop="1" thickBot="1">
-      <c r="A23" s="1" t="s">
+      <c r="C20">
+        <v>1.7</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="F20" s="13">
+        <v>4428</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f>D20*F20</f>
+        <v>35424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1.7</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2855</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" s="7">
+        <v>4</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f>D21*F21</f>
+        <v>34260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1.7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>37</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F22" s="14">
+        <v>936</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4</v>
+      </c>
+      <c r="J22" s="7">
+        <v>4</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="20" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="66" thickTop="1" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16" thickTop="1">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>40</v>
-      </c>
-      <c r="C24">
-        <v>1.9</v>
-      </c>
-      <c r="D24">
-        <v>37</v>
-      </c>
-      <c r="E24">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F24">
-        <v>3539</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>12</v>
-      </c>
-      <c r="K24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>1.9</v>
-      </c>
-      <c r="D25">
-        <v>37</v>
-      </c>
-      <c r="E25">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F25">
-        <v>2908</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25" s="7">
-        <v>12</v>
-      </c>
-      <c r="K25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>1.9</v>
-      </c>
-      <c r="D26">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F26">
-        <v>2834</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26">
-        <v>8</v>
-      </c>
-      <c r="J26" s="7">
-        <v>12</v>
-      </c>
-      <c r="K26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="J26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16" thickTop="1">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2784,18 +2812,18 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F27">
-        <v>2718</v>
+        <v>3539</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J27" s="7">
         <v>12</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2816,13 +2844,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F28">
-        <v>2716</v>
+        <v>2908</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
       </c>
       <c r="I28">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J28" s="7">
         <v>12</v>
@@ -2848,13 +2876,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F29">
-        <v>2725</v>
+        <v>2834</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J29" s="7">
         <v>12</v>
@@ -2880,13 +2908,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F30">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="H30" t="s">
         <v>7</v>
       </c>
       <c r="I30">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J30" s="7">
         <v>12</v>
@@ -2896,8 +2924,36 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>1.9</v>
+      </c>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F31">
+        <v>2716</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+      <c r="J31" s="7">
+        <v>12</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
@@ -2910,19 +2966,19 @@
         <v>1.9</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F32">
-        <v>13996</v>
+        <v>2725</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J32" s="7">
         <v>12</v>
@@ -2942,19 +2998,19 @@
         <v>1.9</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E33">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F33">
-        <v>13583</v>
+        <v>2715</v>
       </c>
       <c r="H33" t="s">
         <v>7</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J33" s="7">
         <v>12</v>
@@ -2964,36 +3020,8 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>1.9</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>1.2</v>
-      </c>
-      <c r="F34">
-        <v>12960</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34">
-        <v>12</v>
-      </c>
-      <c r="J34" s="7">
-        <v>12</v>
-      </c>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
@@ -3012,13 +3040,13 @@
         <v>1.2</v>
       </c>
       <c r="F35">
-        <v>12881</v>
+        <v>13996</v>
       </c>
       <c r="H35" t="s">
         <v>7</v>
       </c>
       <c r="I35">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J35" s="7">
         <v>12</v>
@@ -3027,268 +3055,258 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>1.9</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>1.2</v>
+      </c>
+      <c r="F36">
+        <v>13583</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36" s="7">
+        <v>12</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+    </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0.435</v>
+        <v>1.9</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F37">
-        <v>8247</v>
+        <v>12960</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J37" s="7">
         <v>12</v>
       </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>40</v>
       </c>
       <c r="C38">
-        <v>0.435</v>
+        <v>1.9</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F38">
-        <v>7740</v>
+        <v>12881</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J38" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>0.435</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>8247</v>
+      </c>
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>0.435</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>7740</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.435</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>7515</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="J42" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="J43" s="7"/>
+    </row>
+    <row r="45" spans="1:13" ht="20" thickBot="1">
+      <c r="A45" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B39">
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" ht="16" thickTop="1">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
         <v>40</v>
       </c>
-      <c r="C39">
-        <v>0.435</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>7515</v>
-      </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39">
-        <v>12</v>
-      </c>
-      <c r="J39" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="J40" s="7"/>
-    </row>
-    <row r="42" spans="1:13" ht="20" thickBot="1">
-      <c r="A42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="C47" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" ht="16" thickTop="1">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
+      <c r="E47">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F44">
+      <c r="F47">
         <f>615.7*60</f>
         <v>36942</v>
       </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44">
-        <v>4</v>
-      </c>
-      <c r="J44" s="7">
-        <v>4</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45">
-        <v>40</v>
-      </c>
-      <c r="C45" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D45">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>1.2</v>
-      </c>
-      <c r="F45">
-        <v>19618</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45" s="7">
-        <v>4</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>40</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D46">
-        <v>16</v>
-      </c>
-      <c r="E46">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F46">
-        <v>28299</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="7">
-        <v>4</v>
-      </c>
-      <c r="K46">
-        <v>4</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="14" customHeight="1">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47">
-        <v>40</v>
-      </c>
-      <c r="C47" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D47">
-        <v>16</v>
-      </c>
-      <c r="E47">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F47">
-        <v>25215</v>
-      </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -3297,173 +3315,170 @@
         <v>4</v>
       </c>
       <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
         <v>4</v>
       </c>
-      <c r="L47">
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>1.2</v>
+      </c>
+      <c r="F48">
+        <v>19618</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" s="7">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F49">
+        <v>28299</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="E49" s="3"/>
-    </row>
-    <row r="54" spans="1:15" ht="20" thickBot="1">
-      <c r="A54" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A55" s="1" t="s">
+      <c r="J49" s="7">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="14" customHeight="1">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>40</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F50">
+        <v>25215</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50" s="7">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="20" thickBot="1">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C58" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="J58" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" ht="16" thickTop="1">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56">
-        <v>40</v>
-      </c>
-      <c r="C56">
-        <v>1.9</v>
-      </c>
-      <c r="D56">
-        <v>40</v>
-      </c>
-      <c r="E56">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G56">
-        <v>3966</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="K58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56" s="7">
-        <v>80</v>
-      </c>
-      <c r="K56" s="8">
-        <v>10</v>
-      </c>
-      <c r="L56">
-        <v>2</v>
-      </c>
-      <c r="M56">
-        <v>105</v>
-      </c>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57">
-        <v>40</v>
-      </c>
-      <c r="C57">
-        <v>1.9</v>
-      </c>
-      <c r="D57">
-        <v>20</v>
-      </c>
-      <c r="E57">
-        <v>0.435</v>
-      </c>
-      <c r="G57">
-        <v>8031</v>
-      </c>
-      <c r="H57" t="s">
-        <v>48</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57" s="7">
-        <v>40</v>
-      </c>
-      <c r="K57" s="7">
-        <v>5</v>
-      </c>
-      <c r="L57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>40</v>
-      </c>
-      <c r="C58">
-        <v>1.9</v>
-      </c>
-      <c r="D58">
-        <v>40</v>
-      </c>
-      <c r="E58">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G58">
-        <v>25807</v>
-      </c>
-      <c r="H58" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58" s="7">
-        <v>12</v>
-      </c>
-      <c r="K58" s="8">
-        <v>3</v>
-      </c>
-      <c r="L58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" ht="16" thickTop="1">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -3474,31 +3489,35 @@
         <v>1.9</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G59">
-        <v>23872</v>
+        <v>3966</v>
       </c>
       <c r="H59" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" s="7">
-        <v>12</v>
-      </c>
-      <c r="K59" s="7">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="K59" s="8">
+        <v>10</v>
       </c>
       <c r="L59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="M59">
+        <v>105</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="19" customHeight="1">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -3509,22 +3528,25 @@
         <v>1.9</v>
       </c>
       <c r="D60">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>0.20899999999999999</v>
+        <v>0.435</v>
+      </c>
+      <c r="G60">
+        <v>8031</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" s="7">
-        <v>16</v>
-      </c>
-      <c r="K60" s="8">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="K60" s="7">
+        <v>5</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -3541,22 +3563,25 @@
         <v>1.9</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E61">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G61">
+        <v>25807</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I61">
         <v>2</v>
       </c>
       <c r="J61" s="7">
-        <v>16</v>
-      </c>
-      <c r="K61" s="7">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="K61" s="8">
+        <v>3</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -3567,19 +3592,19 @@
         <v>6</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C62">
         <v>1.9</v>
       </c>
       <c r="D62">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>0.20899999999999999</v>
+        <v>0.435</v>
       </c>
       <c r="G62">
-        <v>7337</v>
+        <v>23872</v>
       </c>
       <c r="H62" t="s">
         <v>5</v>
@@ -3590,7 +3615,7 @@
       <c r="J62" s="7">
         <v>12</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="7">
         <v>3</v>
       </c>
       <c r="L62">
@@ -3602,212 +3627,195 @@
         <v>6</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C63">
         <v>1.9</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E63">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63" s="7">
-        <v>12</v>
-      </c>
-      <c r="K63" s="7">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="K63" s="8">
+        <v>2</v>
       </c>
       <c r="L63">
         <v>2</v>
       </c>
     </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>1.9</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>0.435</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64" s="7">
+        <v>16</v>
+      </c>
+      <c r="K64" s="7">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>1.9</v>
+      </c>
+      <c r="D65">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G65">
+        <v>7337</v>
+      </c>
+      <c r="H65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" s="7">
+        <v>12</v>
+      </c>
+      <c r="K65" s="8">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+    </row>
     <row r="66" spans="1:14">
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="1:14" ht="20" thickBot="1">
-      <c r="A68" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A69" s="1" t="s">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>1.9</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>0.435</v>
+      </c>
+      <c r="H66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" s="7">
+        <v>12</v>
+      </c>
+      <c r="K66" s="7">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:14" ht="20" thickBot="1">
+      <c r="A71" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C72" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="J72" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="K72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="16" thickTop="1">
-      <c r="A70" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="7">
-        <v>40</v>
-      </c>
-      <c r="C70">
-        <v>1.9</v>
-      </c>
-      <c r="D70" s="7">
-        <v>40</v>
-      </c>
-      <c r="E70" s="7">
-        <v>1</v>
-      </c>
-      <c r="F70" s="7">
-        <v>3468</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" s="7">
-        <v>2</v>
-      </c>
-      <c r="J70" s="7">
-        <v>2</v>
-      </c>
-      <c r="K70" s="8">
-        <v>0</v>
-      </c>
-      <c r="L70" s="7">
-        <v>2</v>
-      </c>
-      <c r="M70" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="7">
-        <v>40</v>
-      </c>
-      <c r="C71">
-        <v>1.9</v>
-      </c>
-      <c r="D71" s="7">
-        <v>20</v>
-      </c>
-      <c r="E71" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" s="7">
-        <v>2</v>
-      </c>
-      <c r="J71" s="7">
-        <v>2</v>
-      </c>
-      <c r="K71" s="7">
-        <v>0</v>
-      </c>
-      <c r="L71" s="7">
-        <v>2</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="7">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>1.9</v>
-      </c>
-      <c r="D72" s="7">
-        <v>40</v>
-      </c>
-      <c r="E72" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F72" s="7">
-        <v>907</v>
-      </c>
-      <c r="G72" s="7">
-        <v>1020</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I72" s="7">
-        <v>2</v>
-      </c>
-      <c r="J72" s="7">
-        <v>2</v>
-      </c>
-      <c r="K72" s="8">
-        <v>0</v>
-      </c>
-      <c r="L72" s="7">
-        <v>2</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="N72" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="16" thickTop="1">
       <c r="A73" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C73">
         <v>1.9</v>
@@ -3816,13 +3824,14 @@
         <v>40</v>
       </c>
       <c r="E73" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="G73" s="7">
-        <v>1080</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F73" s="7">
+        <v>3468</v>
+      </c>
+      <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I73" s="7">
         <v>2</v>
@@ -3830,599 +3839,705 @@
       <c r="J73" s="7">
         <v>2</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73" s="8">
         <v>0</v>
       </c>
       <c r="L73" s="7">
         <v>2</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="20" thickBot="1">
-      <c r="A76" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A77" s="1" t="s">
+      <c r="C74">
+        <v>1.9</v>
+      </c>
+      <c r="D74" s="7">
+        <v>20</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="7">
+        <v>2</v>
+      </c>
+      <c r="J74" s="7">
+        <v>2</v>
+      </c>
+      <c r="K74" s="7">
         <v>0</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="L74" s="7">
+        <v>2</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="7">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>1.9</v>
+      </c>
+      <c r="D75" s="7">
+        <v>40</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F75" s="7">
+        <v>907</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1020</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2</v>
+      </c>
+      <c r="J75" s="7">
+        <v>2</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>2</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="7">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>1.9</v>
+      </c>
+      <c r="D76" s="7">
+        <v>40</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" s="7">
+        <v>2</v>
+      </c>
+      <c r="J76" s="7">
+        <v>2</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0</v>
+      </c>
+      <c r="L76" s="7">
+        <v>2</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="20" thickBot="1">
+      <c r="A79" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C80" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" s="1" t="s">
+      <c r="J80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="K80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="16" thickTop="1">
-      <c r="A78" s="7" t="s">
+    </row>
+    <row r="81" spans="1:13" ht="16" thickTop="1">
+      <c r="A81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B81" s="7">
         <v>40</v>
       </c>
-      <c r="C78">
+      <c r="C81">
         <v>1.9</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D81" s="7">
         <v>40</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E81" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" t="s">
+      <c r="G81" s="7"/>
+      <c r="H81" t="s">
+        <v>42</v>
+      </c>
+      <c r="I81" s="7">
+        <v>2</v>
+      </c>
+      <c r="J81" s="7">
+        <v>80</v>
+      </c>
+      <c r="K81" s="7">
+        <v>10</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="7">
+        <v>40</v>
+      </c>
+      <c r="C82">
+        <v>1.9</v>
+      </c>
+      <c r="D82" s="7">
+        <v>20</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" s="7">
+        <v>2</v>
+      </c>
+      <c r="J82" s="7">
+        <v>80</v>
+      </c>
+      <c r="K82" s="7">
+        <v>6</v>
+      </c>
+      <c r="M82" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I78" s="7">
-        <v>2</v>
-      </c>
-      <c r="J78" s="7">
-        <v>80</v>
-      </c>
-      <c r="K78" s="7">
-        <v>10</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="7" t="s">
+    </row>
+    <row r="87" spans="1:13" ht="20" thickBot="1">
+      <c r="A87" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="66" thickTop="1" thickBot="1">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K88" s="11"/>
+      <c r="L88" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="16" thickTop="1">
+      <c r="A89" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B79" s="7">
-        <v>40</v>
-      </c>
-      <c r="C79">
-        <v>1.9</v>
-      </c>
-      <c r="D79" s="7">
-        <v>20</v>
-      </c>
-      <c r="E79" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" t="s">
-        <v>43</v>
-      </c>
-      <c r="I79" s="7">
-        <v>2</v>
-      </c>
-      <c r="J79" s="7">
-        <v>80</v>
-      </c>
-      <c r="K79" s="7">
-        <v>6</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="20" thickBot="1">
-      <c r="A84" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="66" thickTop="1" thickBot="1">
-      <c r="A85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K85" s="11"/>
-      <c r="L85" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="16" thickTop="1">
-      <c r="A86" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86">
-        <v>1.7</v>
-      </c>
-      <c r="E86" s="7">
-        <v>40</v>
-      </c>
-      <c r="F86" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G86" s="7">
-        <v>0.105</v>
-      </c>
-      <c r="H86" s="7">
-        <v>54.6</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J86" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87">
-        <v>1.7</v>
-      </c>
-      <c r="E87">
-        <v>40</v>
-      </c>
-      <c r="F87">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G87">
-        <v>0.105</v>
-      </c>
-      <c r="H87" s="7">
-        <v>67</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J87">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88">
-        <v>1.7</v>
-      </c>
-      <c r="E88">
-        <v>20</v>
-      </c>
-      <c r="F88">
-        <v>0.435</v>
-      </c>
-      <c r="G88">
-        <v>0.22</v>
-      </c>
-      <c r="H88">
-        <v>70</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J88">
-        <v>1.6</v>
-      </c>
-      <c r="L88" s="12"/>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" t="s">
-        <v>54</v>
       </c>
       <c r="B89">
         <v>10</v>
       </c>
-      <c r="C89" t="s">
-        <v>64</v>
+      <c r="C89" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D89">
+        <v>1.7</v>
+      </c>
+      <c r="E89" s="7">
+        <v>40</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="H89" s="7">
+        <v>54.6</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J89" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90">
+        <v>1.7</v>
+      </c>
+      <c r="E90">
+        <v>40</v>
+      </c>
+      <c r="F90">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.105</v>
+      </c>
+      <c r="H90" s="7">
+        <v>67</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J90">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91">
+        <v>1.7</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+      <c r="F91">
         <v>0.435</v>
       </c>
-      <c r="E89">
+      <c r="G91">
+        <v>0.22</v>
+      </c>
+      <c r="H91">
+        <v>70</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J91">
+        <v>1.6</v>
+      </c>
+      <c r="L91" s="12"/>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92">
+        <v>0.435</v>
+      </c>
+      <c r="E92">
         <v>4</v>
       </c>
-      <c r="F89">
+      <c r="F92">
         <v>1</v>
       </c>
-      <c r="G89">
+      <c r="G92">
         <v>0.2</v>
       </c>
-      <c r="H89">
+      <c r="H92">
         <v>20</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="L90" s="3"/>
-    </row>
-    <row r="96" spans="1:13" ht="20" thickBot="1">
-      <c r="A96" s="4" t="s">
+      <c r="I92" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="L93" s="3"/>
+    </row>
+    <row r="99" spans="1:11" ht="20" thickBot="1">
+      <c r="A99" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16" thickTop="1">
+      <c r="A101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101">
+        <v>40</v>
+      </c>
+      <c r="C101">
+        <v>0.439</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>7464</v>
+      </c>
+      <c r="H101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I101">
+        <v>12</v>
+      </c>
+      <c r="J101" s="7">
+        <v>12</v>
+      </c>
+      <c r="K101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>40</v>
+      </c>
+      <c r="C102">
+        <v>1.9</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>1.2</v>
+      </c>
+      <c r="F102">
+        <v>12960</v>
+      </c>
+      <c r="H102" t="s">
+        <v>55</v>
+      </c>
+      <c r="I102">
+        <v>12</v>
+      </c>
+      <c r="J102" s="7">
+        <v>12</v>
+      </c>
+      <c r="K102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="20" thickBot="1">
+      <c r="A106" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="50" thickTop="1" thickBot="1">
-      <c r="A97" s="1" t="s">
+    <row r="107" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C107" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="16" thickTop="1">
-      <c r="A98" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98">
+      <c r="J107" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16" thickTop="1">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>1.7</v>
+      </c>
+      <c r="D108">
+        <v>37</v>
+      </c>
+      <c r="E108">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F108">
+        <v>662</v>
+      </c>
+      <c r="H108" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108">
+        <v>12</v>
+      </c>
+      <c r="J108" s="7">
+        <v>12</v>
+      </c>
+      <c r="K108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>3.3</v>
+      </c>
+      <c r="D109">
+        <v>37</v>
+      </c>
+      <c r="E109">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F109">
+        <v>676</v>
+      </c>
+      <c r="H109" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109">
+        <v>12</v>
+      </c>
+      <c r="J109" s="7">
+        <v>12</v>
+      </c>
+      <c r="K109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C98">
-        <v>0.439</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>7464</v>
-      </c>
-      <c r="H98" t="s">
-        <v>56</v>
-      </c>
-      <c r="I98">
-        <v>12</v>
-      </c>
-      <c r="J98" s="7">
-        <v>12</v>
-      </c>
-      <c r="K98" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99">
-        <v>40</v>
-      </c>
-      <c r="C99">
-        <v>1.9</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99">
-        <v>1.2</v>
-      </c>
-      <c r="F99">
-        <v>12960</v>
-      </c>
-      <c r="H99" t="s">
-        <v>56</v>
-      </c>
-      <c r="I99">
-        <v>12</v>
-      </c>
-      <c r="J99" s="7">
-        <v>12</v>
-      </c>
-      <c r="K99" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="20" thickBot="1">
-      <c r="A103" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="50" thickTop="1" thickBot="1">
-      <c r="A104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="16" thickTop="1">
-      <c r="A105" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105">
-        <v>10</v>
-      </c>
-      <c r="C105">
-        <v>1.7</v>
-      </c>
-      <c r="D105">
-        <v>37</v>
-      </c>
-      <c r="E105">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F105">
-        <v>662</v>
-      </c>
-      <c r="H105" t="s">
-        <v>7</v>
-      </c>
-      <c r="I105">
-        <v>12</v>
-      </c>
-      <c r="J105" s="7">
-        <v>12</v>
-      </c>
-      <c r="K105" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106">
-        <v>10</v>
-      </c>
-      <c r="C106">
-        <v>3.3</v>
-      </c>
-      <c r="D106">
-        <v>37</v>
-      </c>
-      <c r="E106">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F106">
-        <v>676</v>
-      </c>
-      <c r="H106" t="s">
-        <v>7</v>
-      </c>
-      <c r="I106">
-        <v>12</v>
-      </c>
-      <c r="J106" s="7">
-        <v>12</v>
-      </c>
-      <c r="K106" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A117" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-    </row>
-    <row r="118" spans="1:5" ht="16" thickTop="1">
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A120" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5" ht="16" thickTop="1">
+      <c r="A121" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="9" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="18" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L129" s="2"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="18" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L132" s="2"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="59" customHeight="1">
-      <c r="L136" s="2"/>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="59" customHeight="1">
+      <c r="L139" s="2"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="9"/>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="9"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="9"/>
+      <c r="A161" s="10"/>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="9"/>
@@ -4436,14 +4551,14 @@
     <row r="167" spans="1:1">
       <c r="A167" s="9"/>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="9"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="9"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="9"/>
+    <row r="168" spans="1:1">
+      <c r="A168" s="9"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="9"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="9"/>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="9"/>
@@ -4456,6 +4571,15 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="9"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="9"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="9"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="81">
   <si>
     <t>Type</t>
   </si>
@@ -259,13 +259,16 @@
   </si>
   <si>
     <t>B. Glumae</t>
+  </si>
+  <si>
+    <t>10 index files with -A option</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,6 +335,12 @@
       <color rgb="FF292929"/>
       <name val="Courier"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,7 +386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="274">
+  <cellStyleXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -652,8 +661,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -685,8 +704,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="274">
+  <cellStyles count="284">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -822,6 +842,11 @@
     <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -959,6 +984,11 @@
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1128,7 +1158,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$19:$E$22</c:f>
+              <c:f>Sheet1!$E$23:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1149,7 +1179,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$19:$F$22</c:f>
+              <c:f>Sheet1!$F$23:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1178,10 +1208,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$10</c:f>
+              <c:f>Sheet1!$E$8:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.194</c:v>
                 </c:pt>
@@ -1190,16 +1220,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$10</c:f>
+              <c:f>Sheet1!$F$8:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1596.0</c:v>
                 </c:pt>
@@ -1208,6 +1241,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4387.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5774.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,11 +1258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390926856"/>
-        <c:axId val="414249096"/>
+        <c:axId val="536217736"/>
+        <c:axId val="536223272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390926856"/>
+        <c:axId val="536217736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,12 +1291,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414249096"/>
+        <c:crossAx val="536223272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414249096"/>
+        <c:axId val="536223272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390926856"/>
+        <c:crossAx val="536217736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1418,7 +1454,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$27:$I$33</c:f>
+              <c:f>Sheet1!$I$31:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1448,7 +1484,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$27:$F$33</c:f>
+              <c:f>Sheet1!$F$31:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1486,7 +1522,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$35:$I$38</c:f>
+              <c:f>Sheet1!$I$39:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1507,7 +1543,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$35:$F$38</c:f>
+              <c:f>Sheet1!$F$39:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1536,7 +1572,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$40:$I$42</c:f>
+              <c:f>Sheet1!$I$44:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1554,7 +1590,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$40:$F$42</c:f>
+              <c:f>Sheet1!$F$44:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1580,11 +1616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544920360"/>
-        <c:axId val="544925912"/>
+        <c:axId val="536809176"/>
+        <c:axId val="437451896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544920360"/>
+        <c:axId val="536809176"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1614,12 +1650,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544925912"/>
+        <c:crossAx val="437451896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544925912"/>
+        <c:axId val="437451896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544920360"/>
+        <c:crossAx val="536809176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1758,7 +1794,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$47:$K$49</c:f>
+              <c:f>Sheet1!$K$51:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1776,7 +1812,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$47:$F$49</c:f>
+              <c:f>Sheet1!$F$51:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1802,11 +1838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414235784"/>
-        <c:axId val="414240248"/>
+        <c:axId val="437476808"/>
+        <c:axId val="437481256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414235784"/>
+        <c:axId val="437476808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,13 +1852,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414240248"/>
+        <c:crossAx val="437481256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414240248"/>
+        <c:axId val="437481256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +1868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414235784"/>
+        <c:crossAx val="437476808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1861,7 +1897,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1885,13 +1921,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1921,7 +1957,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2266,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:O186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="G17 E8:F10"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2493,10 +2529,14 @@
         <v>142117</v>
       </c>
     </row>
+    <row r="7" spans="1:12" ht="13" customHeight="1"/>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>79</v>
       </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
       <c r="C8">
         <v>0.435</v>
       </c>
@@ -2508,12 +2548,24 @@
       </c>
       <c r="H8" t="s">
         <v>55</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>79</v>
       </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
       <c r="C9">
         <v>0.435</v>
       </c>
@@ -2525,12 +2577,24 @@
       </c>
       <c r="H9" t="s">
         <v>55</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>79</v>
       </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
       <c r="C10">
         <v>0.435</v>
       </c>
@@ -2542,388 +2606,405 @@
       </c>
       <c r="H10" t="s">
         <v>55</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>79</v>
       </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
       <c r="C11">
         <v>0.435</v>
       </c>
       <c r="E11">
         <v>0.78200000000000003</v>
       </c>
+      <c r="F11">
+        <v>5774</v>
+      </c>
       <c r="H11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="20" thickBot="1">
-      <c r="A17" s="4" t="s">
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.435</v>
+      </c>
+      <c r="E13">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F13">
+        <v>252</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0.435</v>
+      </c>
+      <c r="E14">
+        <v>0.39</v>
+      </c>
+      <c r="F14">
+        <v>454</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0.435</v>
+      </c>
+      <c r="E15">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F15">
+        <v>700</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="7">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0.435</v>
+      </c>
+      <c r="E16">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F16">
+        <v>868</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" thickBot="1">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="50" thickTop="1" thickBot="1">
-      <c r="A18" s="1" t="s">
+    <row r="22" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickTop="1">
-      <c r="A19" t="s">
+    <row r="23" spans="1:12" ht="16" thickTop="1">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B19">
+      <c r="B23">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C23">
         <v>1.7</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F23" s="13">
         <v>8810</v>
       </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19">
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J23" s="7">
         <v>4</v>
       </c>
-      <c r="K19" s="8">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <f>D19*F19</f>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>D23*F23</f>
         <v>35240</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>1.7</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>8</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>1.2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F24" s="13">
         <v>4428</v>
       </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20">
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24">
         <v>4</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J24" s="7">
         <v>4</v>
       </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f>D20*F20</f>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f>D24*F24</f>
         <v>35424</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B21">
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>1.7</v>
       </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F25" s="13">
         <v>2855</v>
       </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21">
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25">
         <v>4</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J25" s="7">
         <v>4</v>
       </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <f>D21*F21</f>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f>D25*F25</f>
         <v>34260</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B26" s="7">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <v>1.7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D26" s="7">
         <v>37</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E26" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F26" s="14">
         <v>936</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I26" s="7">
         <v>4</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J26" s="7">
         <v>4</v>
       </c>
-      <c r="K22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="20" thickBot="1">
-      <c r="A25" s="4" t="s">
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="20" thickBot="1">
+      <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="66" thickTop="1" thickBot="1">
-      <c r="A26" s="1" t="s">
+    <row r="30" spans="1:12" ht="66" thickTop="1" thickBot="1">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K30" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" thickTop="1">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>1.9</v>
-      </c>
-      <c r="D27">
-        <v>37</v>
-      </c>
-      <c r="E27">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F27">
-        <v>3539</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" s="7">
-        <v>12</v>
-      </c>
-      <c r="K27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>1.9</v>
-      </c>
-      <c r="D28">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F28">
-        <v>2908</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28" s="7">
-        <v>12</v>
-      </c>
-      <c r="K28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>1.9</v>
-      </c>
-      <c r="D29">
-        <v>37</v>
-      </c>
-      <c r="E29">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F29">
-        <v>2834</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29">
-        <v>8</v>
-      </c>
-      <c r="J29" s="7">
-        <v>12</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>40</v>
-      </c>
-      <c r="C30">
-        <v>1.9</v>
-      </c>
-      <c r="D30">
-        <v>37</v>
-      </c>
-      <c r="E30">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F30">
-        <v>2718</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30">
-        <v>12</v>
-      </c>
-      <c r="J30" s="7">
-        <v>12</v>
-      </c>
-      <c r="K30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="16" thickTop="1">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2940,18 +3021,18 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F31">
-        <v>2716</v>
+        <v>3539</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J31" s="7">
         <v>12</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2972,13 +3053,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F32">
-        <v>2725</v>
+        <v>2908</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J32" s="7">
         <v>12</v>
@@ -2987,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3004,13 +3085,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F33">
-        <v>2715</v>
+        <v>2834</v>
       </c>
       <c r="H33" t="s">
         <v>7</v>
       </c>
       <c r="I33">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J33" s="7">
         <v>12</v>
@@ -3019,11 +3100,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:13">
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>1.9</v>
+      </c>
+      <c r="D34">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F34">
+        <v>2718</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34" s="7">
+        <v>12</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3034,19 +3143,19 @@
         <v>1.9</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E35">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F35">
-        <v>13996</v>
+        <v>2716</v>
       </c>
       <c r="H35" t="s">
         <v>7</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J35" s="7">
         <v>12</v>
@@ -3055,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3066,19 +3175,19 @@
         <v>1.9</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F36">
-        <v>13583</v>
+        <v>2725</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J36" s="7">
         <v>12</v>
@@ -3087,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3098,19 +3207,19 @@
         <v>1.9</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E37">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F37">
-        <v>12960</v>
+        <v>2715</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
       </c>
       <c r="I37">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J37" s="7">
         <v>12</v>
@@ -3119,510 +3228,466 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
+    <row r="38" spans="1:11">
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B38">
-        <v>40</v>
-      </c>
-      <c r="C38">
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39">
         <v>1.9</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>8</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>1.2</v>
       </c>
-      <c r="F38">
+      <c r="F39">
+        <v>13996</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39" s="7">
+        <v>12</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>1.9</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>1.2</v>
+      </c>
+      <c r="F40">
+        <v>13583</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40" s="7">
+        <v>12</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>1.9</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>1.2</v>
+      </c>
+      <c r="F41">
+        <v>12960</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41" s="7">
+        <v>12</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.9</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>1.2</v>
+      </c>
+      <c r="F42">
         <v>12881</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H42" t="s">
         <v>7</v>
       </c>
-      <c r="I38">
+      <c r="I42">
         <v>16</v>
       </c>
-      <c r="J38" s="7">
-        <v>12</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
+      <c r="J42" s="7">
+        <v>12</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40">
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
         <v>0.435</v>
       </c>
-      <c r="D40">
+      <c r="D44">
         <v>5</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>8247</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H44" t="s">
         <v>55</v>
       </c>
-      <c r="I40">
+      <c r="I44">
         <v>4</v>
       </c>
-      <c r="J40" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
+      <c r="J44" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
         <v>0.435</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>5</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>7740</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H45" t="s">
         <v>55</v>
       </c>
-      <c r="I41">
+      <c r="I45">
         <v>8</v>
       </c>
-      <c r="J41" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
+      <c r="J45" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
         <v>0.435</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>5</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>7515</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H46" t="s">
         <v>55</v>
       </c>
-      <c r="I42">
-        <v>12</v>
-      </c>
-      <c r="J42" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="J43" s="7"/>
-    </row>
-    <row r="45" spans="1:13" ht="20" thickBot="1">
-      <c r="A45" s="4" t="s">
+      <c r="I46">
+        <v>12</v>
+      </c>
+      <c r="J46" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="J47" s="7"/>
+    </row>
+    <row r="49" spans="1:15" ht="20" thickBot="1">
+      <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A46" s="1" t="s">
+    <row r="50" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" ht="16" thickTop="1">
-      <c r="A47" t="s">
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" ht="16" thickTop="1">
+      <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B47">
-        <v>40</v>
-      </c>
-      <c r="C47" s="7">
+      <c r="B51">
+        <v>40</v>
+      </c>
+      <c r="C51" s="7">
         <v>1.9</v>
       </c>
-      <c r="D47">
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="E47">
+      <c r="E51">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F47">
+      <c r="F51">
         <f>615.7*60</f>
         <v>36942</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H51" t="s">
         <v>15</v>
       </c>
-      <c r="I47">
+      <c r="I51">
         <v>4</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J51" s="7">
         <v>4</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
         <v>6</v>
       </c>
-      <c r="B48">
-        <v>40</v>
-      </c>
-      <c r="C48" s="7">
+      <c r="B52">
+        <v>40</v>
+      </c>
+      <c r="C52" s="7">
         <v>1.9</v>
       </c>
-      <c r="D48">
+      <c r="D52">
         <v>8</v>
       </c>
-      <c r="E48">
+      <c r="E52">
         <v>1.2</v>
       </c>
-      <c r="F48">
+      <c r="F52">
         <v>19618</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H52" t="s">
         <v>15</v>
       </c>
-      <c r="I48">
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J52" s="7">
         <v>4</v>
       </c>
-      <c r="K48">
+      <c r="K52">
         <v>2</v>
       </c>
-      <c r="L48">
+      <c r="L52">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
         <v>6</v>
       </c>
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="C49" s="7">
+      <c r="B53">
+        <v>40</v>
+      </c>
+      <c r="C53" s="7">
         <v>1.9</v>
       </c>
-      <c r="D49">
+      <c r="D53">
         <v>16</v>
       </c>
-      <c r="E49">
+      <c r="E53">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F49">
+      <c r="F53">
         <v>28299</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H53" t="s">
         <v>15</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="7">
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" s="7">
         <v>4</v>
       </c>
-      <c r="K49">
+      <c r="K53">
         <v>4</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="14" customHeight="1">
-      <c r="A50" t="s">
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="14" customHeight="1">
+      <c r="A54" t="s">
         <v>6</v>
       </c>
-      <c r="B50">
-        <v>40</v>
-      </c>
-      <c r="C50" s="7">
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54" s="7">
         <v>1.9</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F50">
+      <c r="F54">
         <v>25215</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H54" t="s">
         <v>15</v>
       </c>
-      <c r="I50">
+      <c r="I54">
         <v>4</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J54" s="7">
         <v>4</v>
       </c>
-      <c r="K50">
+      <c r="K54">
         <v>4</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="E52" s="3"/>
-    </row>
-    <row r="57" spans="1:15" ht="20" thickBot="1">
-      <c r="A57" s="4" t="s">
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="61" spans="1:15" ht="20" thickBot="1">
+      <c r="A61" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A58" s="1" t="s">
+    <row r="62" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J62" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" ht="16" thickTop="1">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59">
-        <v>40</v>
-      </c>
-      <c r="C59">
-        <v>1.9</v>
-      </c>
-      <c r="D59">
-        <v>40</v>
-      </c>
-      <c r="E59">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G59">
-        <v>3966</v>
-      </c>
-      <c r="H59" t="s">
-        <v>47</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
-      <c r="J59" s="7">
-        <v>80</v>
-      </c>
-      <c r="K59" s="8">
-        <v>10</v>
-      </c>
-      <c r="L59">
-        <v>2</v>
-      </c>
-      <c r="M59">
-        <v>105</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60">
-        <v>40</v>
-      </c>
-      <c r="C60">
-        <v>1.9</v>
-      </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
-      <c r="E60">
-        <v>0.435</v>
-      </c>
-      <c r="G60">
-        <v>8031</v>
-      </c>
-      <c r="H60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-      <c r="J60" s="7">
-        <v>40</v>
-      </c>
-      <c r="K60" s="7">
-        <v>5</v>
-      </c>
-      <c r="L60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>40</v>
-      </c>
-      <c r="C61">
-        <v>1.9</v>
-      </c>
-      <c r="D61">
-        <v>40</v>
-      </c>
-      <c r="E61">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G61">
-        <v>25807</v>
-      </c>
-      <c r="H61" t="s">
-        <v>5</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61" s="7">
-        <v>12</v>
-      </c>
-      <c r="K61" s="8">
-        <v>3</v>
-      </c>
-      <c r="L61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>40</v>
-      </c>
-      <c r="C62">
-        <v>1.9</v>
-      </c>
-      <c r="D62">
-        <v>20</v>
-      </c>
-      <c r="E62">
-        <v>0.435</v>
-      </c>
-      <c r="G62">
-        <v>23872</v>
-      </c>
-      <c r="H62" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" s="7">
-        <v>12</v>
-      </c>
-      <c r="K62" s="7">
-        <v>3</v>
-      </c>
-      <c r="L62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" ht="16" thickTop="1">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -3638,6 +3703,9 @@
       <c r="E63">
         <v>0.20899999999999999</v>
       </c>
+      <c r="G63">
+        <v>3966</v>
+      </c>
       <c r="H63" t="s">
         <v>47</v>
       </c>
@@ -3645,16 +3713,20 @@
         <v>2</v>
       </c>
       <c r="J63" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K63" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="M63">
+        <v>105</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" ht="19" customHeight="1">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -3670,6 +3742,9 @@
       <c r="E64">
         <v>0.435</v>
       </c>
+      <c r="G64">
+        <v>8031</v>
+      </c>
       <c r="H64" t="s">
         <v>47</v>
       </c>
@@ -3677,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="J64" s="7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K64" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -3691,7 +3766,7 @@
         <v>6</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C65">
         <v>1.9</v>
@@ -3703,7 +3778,7 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="G65">
-        <v>7337</v>
+        <v>25807</v>
       </c>
       <c r="H65" t="s">
         <v>5</v>
@@ -3726,7 +3801,7 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C66">
         <v>1.9</v>
@@ -3737,6 +3812,9 @@
       <c r="E66">
         <v>0.435</v>
       </c>
+      <c r="G66">
+        <v>23872</v>
+      </c>
       <c r="H66" t="s">
         <v>5</v>
       </c>
@@ -3753,803 +3831,922 @@
         <v>2</v>
       </c>
     </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>1.9</v>
+      </c>
+      <c r="D67">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67" s="7">
+        <v>16</v>
+      </c>
+      <c r="K67" s="8">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>1.9</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>0.435</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68" s="7">
+        <v>16</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+    </row>
     <row r="69" spans="1:14">
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>1.9</v>
+      </c>
+      <c r="D69">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G69">
+        <v>7337</v>
+      </c>
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" s="7">
+        <v>12</v>
+      </c>
+      <c r="K69" s="8">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="1:14" ht="20" thickBot="1">
-      <c r="A71" s="4" t="s">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>1.9</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>0.435</v>
+      </c>
+      <c r="H70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" s="7">
+        <v>12</v>
+      </c>
+      <c r="K70" s="7">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:14" ht="20" thickBot="1">
+      <c r="A75" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A72" s="1" t="s">
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="N76" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" thickTop="1">
-      <c r="A73" s="7" t="s">
+    <row r="77" spans="1:14" ht="16" thickTop="1">
+      <c r="A77" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="7">
-        <v>40</v>
-      </c>
-      <c r="C73">
+      <c r="B77" s="7">
+        <v>40</v>
+      </c>
+      <c r="C77">
         <v>1.9</v>
       </c>
-      <c r="D73" s="7">
-        <v>40</v>
-      </c>
-      <c r="E73" s="7">
-        <v>1</v>
-      </c>
-      <c r="F73" s="7">
+      <c r="D77" s="7">
+        <v>40</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7">
         <v>3468</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I77" s="7">
         <v>2</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J77" s="7">
         <v>2</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K77" s="8">
         <v>0</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L77" s="7">
         <v>2</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="M77" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="7" t="s">
+    <row r="78" spans="1:14">
+      <c r="A78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="7">
-        <v>40</v>
-      </c>
-      <c r="C74">
+      <c r="B78" s="7">
+        <v>40</v>
+      </c>
+      <c r="C78">
         <v>1.9</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D78" s="7">
         <v>20</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E78" s="7">
         <v>0.435</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7" t="s">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I78" s="7">
         <v>2</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J78" s="7">
         <v>2</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K78" s="7">
         <v>0</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L78" s="7">
         <v>2</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="M78" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="7" t="s">
+    <row r="79" spans="1:14">
+      <c r="A79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B79" s="7">
         <v>10</v>
       </c>
-      <c r="C75">
+      <c r="C79">
         <v>1.9</v>
       </c>
-      <c r="D75" s="7">
-        <v>40</v>
-      </c>
-      <c r="E75" s="7">
+      <c r="D79" s="7">
+        <v>40</v>
+      </c>
+      <c r="E79" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F79" s="7">
         <v>907</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G79" s="7">
         <v>1020</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I79" s="7">
         <v>2</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J79" s="7">
         <v>2</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K79" s="8">
         <v>0</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L79" s="7">
         <v>2</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="M79" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="7" t="s">
+    <row r="80" spans="1:14">
+      <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B80" s="7">
         <v>10</v>
       </c>
-      <c r="C76">
+      <c r="C80">
         <v>1.9</v>
       </c>
-      <c r="D76" s="7">
-        <v>40</v>
-      </c>
-      <c r="E76" s="7">
+      <c r="D80" s="7">
+        <v>40</v>
+      </c>
+      <c r="E80" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G80" s="7">
         <v>1080</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I80" s="7">
         <v>2</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J80" s="7">
         <v>2</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K80" s="7">
         <v>0</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L80" s="7">
         <v>2</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="M80" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="20" thickBot="1">
-      <c r="A79" s="4" t="s">
+    <row r="83" spans="1:13" ht="20" thickBot="1">
+      <c r="A83" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A80" s="1" t="s">
+    <row r="84" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="6" t="s">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K80" s="6" t="s">
+      <c r="K84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="M84" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16" thickTop="1">
-      <c r="A81" s="7" t="s">
+    <row r="85" spans="1:13" ht="16" thickTop="1">
+      <c r="A85" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="7">
-        <v>40</v>
-      </c>
-      <c r="C81">
+      <c r="B85" s="7">
+        <v>40</v>
+      </c>
+      <c r="C85">
         <v>1.9</v>
       </c>
-      <c r="D81" s="7">
-        <v>40</v>
-      </c>
-      <c r="E81" s="7">
+      <c r="D85" s="7">
+        <v>40</v>
+      </c>
+      <c r="E85" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" t="s">
+      <c r="G85" s="7"/>
+      <c r="H85" t="s">
         <v>42</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I85" s="7">
         <v>2</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J85" s="7">
         <v>80</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K85" s="7">
         <v>10</v>
       </c>
-      <c r="M81" s="7" t="s">
+      <c r="M85" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="7" t="s">
+    <row r="86" spans="1:13">
+      <c r="A86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="7">
-        <v>40</v>
-      </c>
-      <c r="C82">
+      <c r="B86" s="7">
+        <v>40</v>
+      </c>
+      <c r="C86">
         <v>1.9</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D86" s="7">
         <v>20</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E86" s="7">
         <v>0.435</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" t="s">
+      <c r="G86" s="7"/>
+      <c r="H86" t="s">
         <v>42</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I86" s="7">
         <v>2</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J86" s="7">
         <v>80</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K86" s="7">
         <v>6</v>
       </c>
-      <c r="M82" s="7" t="s">
+      <c r="M86" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="20" thickBot="1">
-      <c r="A87" s="4" t="s">
+    <row r="91" spans="1:13" ht="20" thickBot="1">
+      <c r="A91" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="66" thickTop="1" thickBot="1">
-      <c r="A88" s="1" t="s">
+    <row r="92" spans="1:13" ht="66" thickTop="1" thickBot="1">
+      <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B92" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G92" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11" t="s">
+      <c r="I92" s="11"/>
+      <c r="J92" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K88" s="11"/>
-      <c r="L88" s="12" t="s">
+      <c r="K92" s="11"/>
+      <c r="L92" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16" thickTop="1">
-      <c r="A89" s="7" t="s">
+    <row r="93" spans="1:13" ht="16" thickTop="1">
+      <c r="A93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B89">
+      <c r="B93">
         <v>10</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D89">
+      <c r="D93">
         <v>1.7</v>
       </c>
-      <c r="E89" s="7">
-        <v>40</v>
-      </c>
-      <c r="F89" s="7">
+      <c r="E93" s="7">
+        <v>40</v>
+      </c>
+      <c r="F93" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G93" s="7">
         <v>0.105</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H93" s="7">
         <v>54.6</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J93" s="7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="7" t="s">
+    <row r="94" spans="1:13">
+      <c r="A94" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B90">
+      <c r="B94">
         <v>10</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C94" t="s">
         <v>63</v>
       </c>
-      <c r="D90">
+      <c r="D94">
         <v>1.7</v>
       </c>
-      <c r="E90">
-        <v>40</v>
-      </c>
-      <c r="F90">
+      <c r="E94">
+        <v>40</v>
+      </c>
+      <c r="F94">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G90">
+      <c r="G94">
         <v>0.105</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H94" s="7">
         <v>67</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J90">
+      <c r="J94">
         <v>1.6</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="7" t="s">
+    <row r="95" spans="1:13">
+      <c r="A95" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B91">
+      <c r="B95">
         <v>10</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C95" t="s">
         <v>63</v>
       </c>
-      <c r="D91">
+      <c r="D95">
         <v>1.7</v>
       </c>
-      <c r="E91">
+      <c r="E95">
         <v>20</v>
       </c>
-      <c r="F91">
+      <c r="F95">
         <v>0.435</v>
       </c>
-      <c r="G91">
+      <c r="G95">
         <v>0.22</v>
       </c>
-      <c r="H91">
+      <c r="H95">
         <v>70</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J91">
+      <c r="J95">
         <v>1.6</v>
       </c>
-      <c r="L91" s="12"/>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" t="s">
+      <c r="L95" s="12"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" t="s">
         <v>53</v>
       </c>
-      <c r="B92">
+      <c r="B96">
         <v>10</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C96" t="s">
         <v>63</v>
       </c>
-      <c r="D92">
+      <c r="D96">
         <v>0.435</v>
       </c>
-      <c r="E92">
+      <c r="E96">
         <v>4</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
         <v>0.2</v>
       </c>
-      <c r="H92">
+      <c r="H96">
         <v>20</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I96" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
-      <c r="L93" s="3"/>
-    </row>
-    <row r="99" spans="1:11" ht="20" thickBot="1">
-      <c r="A99" s="4" t="s">
+    <row r="97" spans="1:12">
+      <c r="L97" s="3"/>
+    </row>
+    <row r="103" spans="1:12" ht="20" thickBot="1">
+      <c r="A103" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="50" thickTop="1" thickBot="1">
-      <c r="A100" s="1" t="s">
+    <row r="104" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="6" t="s">
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J104" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K104" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="16" thickTop="1">
-      <c r="A101" t="s">
+    <row r="105" spans="1:12" ht="16" thickTop="1">
+      <c r="A105" t="s">
         <v>53</v>
       </c>
-      <c r="B101">
-        <v>40</v>
-      </c>
-      <c r="C101">
+      <c r="B105">
+        <v>40</v>
+      </c>
+      <c r="C105">
         <v>0.439</v>
       </c>
-      <c r="D101">
+      <c r="D105">
         <v>5</v>
       </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
         <v>7464</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H105" t="s">
         <v>55</v>
       </c>
-      <c r="I101">
-        <v>12</v>
-      </c>
-      <c r="J101" s="7">
-        <v>12</v>
-      </c>
-      <c r="K101" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" t="s">
+      <c r="I105">
+        <v>12</v>
+      </c>
+      <c r="J105" s="7">
+        <v>12</v>
+      </c>
+      <c r="K105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" t="s">
         <v>6</v>
       </c>
-      <c r="B102">
-        <v>40</v>
-      </c>
-      <c r="C102">
+      <c r="B106">
+        <v>40</v>
+      </c>
+      <c r="C106">
         <v>1.9</v>
       </c>
-      <c r="D102">
+      <c r="D106">
         <v>5</v>
       </c>
-      <c r="E102">
+      <c r="E106">
         <v>1.2</v>
       </c>
-      <c r="F102">
+      <c r="F106">
         <v>12960</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H106" t="s">
         <v>55</v>
       </c>
-      <c r="I102">
-        <v>12</v>
-      </c>
-      <c r="J102" s="7">
-        <v>12</v>
-      </c>
-      <c r="K102" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="20" thickBot="1">
-      <c r="A106" s="4" t="s">
+      <c r="I106">
+        <v>12</v>
+      </c>
+      <c r="J106" s="7">
+        <v>12</v>
+      </c>
+      <c r="K106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="20" thickBot="1">
+      <c r="A110" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="50" thickTop="1" thickBot="1">
-      <c r="A107" s="1" t="s">
+    <row r="111" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="6" t="s">
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J111" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K107" s="6" t="s">
+      <c r="K111" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="16" thickTop="1">
-      <c r="A108" t="s">
+    <row r="112" spans="1:12" ht="16" thickTop="1">
+      <c r="A112" t="s">
         <v>6</v>
       </c>
-      <c r="B108">
+      <c r="B112">
         <v>10</v>
       </c>
-      <c r="C108">
+      <c r="C112">
         <v>1.7</v>
       </c>
-      <c r="D108">
+      <c r="D112">
         <v>37</v>
       </c>
-      <c r="E108">
+      <c r="E112">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F108">
+      <c r="F112">
         <v>662</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H112" t="s">
         <v>7</v>
       </c>
-      <c r="I108">
-        <v>12</v>
-      </c>
-      <c r="J108" s="7">
-        <v>12</v>
-      </c>
-      <c r="K108" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" t="s">
+      <c r="I112">
+        <v>12</v>
+      </c>
+      <c r="J112" s="7">
+        <v>12</v>
+      </c>
+      <c r="K112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
         <v>6</v>
       </c>
-      <c r="B109">
+      <c r="B113">
         <v>10</v>
       </c>
-      <c r="C109">
+      <c r="C113">
         <v>3.3</v>
       </c>
-      <c r="D109">
+      <c r="D113">
         <v>37</v>
       </c>
-      <c r="E109">
+      <c r="E113">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F109">
+      <c r="F113">
         <v>676</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H113" t="s">
         <v>7</v>
       </c>
-      <c r="I109">
-        <v>12</v>
-      </c>
-      <c r="J109" s="7">
-        <v>12</v>
-      </c>
-      <c r="K109" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="9" t="s">
+      <c r="I113">
+        <v>12</v>
+      </c>
+      <c r="J113" s="7">
+        <v>12</v>
+      </c>
+      <c r="K113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="9" t="s">
+    <row r="123" spans="1:11">
+      <c r="A123" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A120" s="9" t="s">
+    <row r="124" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A124" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="1:5" ht="16" thickTop="1">
-      <c r="A121" s="9" t="s">
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:11" ht="16" thickTop="1">
+      <c r="A125" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="9" t="s">
+    <row r="126" spans="1:11">
+      <c r="A126" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="9" t="s">
+    <row r="127" spans="1:11">
+      <c r="A127" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="9" t="s">
+    <row r="128" spans="1:11">
+      <c r="A128" s="9" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="18" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L132" s="2"/>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="18" customHeight="1">
+      <c r="A136" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="9" t="s">
+    <row r="140" spans="1:12">
+      <c r="A140" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="59" customHeight="1">
-      <c r="L139" s="2"/>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="10"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="9"/>
+    <row r="143" spans="1:12" ht="59" customHeight="1">
+      <c r="L143" s="2"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="9"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="9"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="9"/>
+      <c r="A165" s="10"/>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="9"/>
@@ -4560,17 +4757,17 @@
     <row r="170" spans="1:1">
       <c r="A170" s="9"/>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="9"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="9"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="9"/>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="9"/>
+    <row r="171" spans="1:1">
+      <c r="A171" s="9"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="9"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="9"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="9"/>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="9"/>
@@ -4581,8 +4778,21 @@
     <row r="182" spans="1:1">
       <c r="A182" s="9"/>
     </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="9"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="9"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="9"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" tabRatio="129"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
   <si>
     <t>Type</t>
   </si>
@@ -268,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,6 +341,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC0504D"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,7 +392,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="284">
+  <cellStyleXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -671,8 +677,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -705,8 +721,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="284">
+  <cellStyles count="294">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -847,6 +864,11 @@
     <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -989,6 +1011,11 @@
     <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1158,7 +1185,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$23:$E$26</c:f>
+              <c:f>Sheet1!$E$27:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1179,7 +1206,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$23:$F$26</c:f>
+              <c:f>Sheet1!$F$27:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1204,7 +1231,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>cyder-Bglumae</c:v>
+            <c:v>cyder-Bglumae-ind40</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -1244,6 +1271,65 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5774.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>cyder Bgluame-10ind</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>805.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1152.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1502.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2406.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,11 +1344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="536217736"/>
-        <c:axId val="536223272"/>
+        <c:axId val="444767080"/>
+        <c:axId val="444863896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="536217736"/>
+        <c:axId val="444767080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,12 +1377,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536223272"/>
+        <c:crossAx val="444863896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536223272"/>
+        <c:axId val="444863896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536217736"/>
+        <c:crossAx val="444767080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1349,8 +1435,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80453177727784"/>
           <c:y val="0.334909377635167"/>
-          <c:w val="0.184486939132608"/>
-          <c:h val="0.148946205580915"/>
+          <c:w val="0.195468211101711"/>
+          <c:h val="0.198594940774554"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1454,7 +1540,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$31:$I$37</c:f>
+              <c:f>Sheet1!$I$35:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1484,7 +1570,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$31:$F$37</c:f>
+              <c:f>Sheet1!$F$35:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1522,7 +1608,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$39:$I$42</c:f>
+              <c:f>Sheet1!$I$43:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1543,7 +1629,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$39:$F$42</c:f>
+              <c:f>Sheet1!$F$43:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1572,7 +1658,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$44:$I$46</c:f>
+              <c:f>Sheet1!$I$48:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1590,7 +1676,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$44:$F$46</c:f>
+              <c:f>Sheet1!$F$48:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1616,11 +1702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="536809176"/>
-        <c:axId val="437451896"/>
+        <c:axId val="422307112"/>
+        <c:axId val="422269384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="536809176"/>
+        <c:axId val="422307112"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1650,12 +1736,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="437451896"/>
+        <c:crossAx val="422269384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437451896"/>
+        <c:axId val="422269384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536809176"/>
+        <c:crossAx val="422307112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1794,7 +1880,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$51:$K$53</c:f>
+              <c:f>Sheet1!$K$55:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1812,7 +1898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$51:$F$53</c:f>
+              <c:f>Sheet1!$F$55:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1838,11 +1924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437476808"/>
-        <c:axId val="437481256"/>
+        <c:axId val="422545192"/>
+        <c:axId val="444859448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437476808"/>
+        <c:axId val="422545192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,13 +1938,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="437481256"/>
+        <c:crossAx val="444859448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437481256"/>
+        <c:axId val="444859448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="437476808"/>
+        <c:crossAx val="422545192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1895,10 +1981,10 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1921,13 +2007,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1957,7 +2043,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2302,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O186"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2646,21 +2732,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1">
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>0.435</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>(7718+7608)/2</f>
+        <v>7663</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>79</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>0.435</v>
       </c>
       <c r="E13">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F13">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>55</v>
@@ -2675,36 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>0.435</v>
-      </c>
-      <c r="E14">
-        <v>0.39</v>
-      </c>
-      <c r="F14">
-        <v>454</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="18" customHeight="1">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2715,10 +2799,10 @@
         <v>0.435</v>
       </c>
       <c r="E15">
-        <v>0.58599999999999997</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F15">
-        <v>700</v>
+        <v>419</v>
       </c>
       <c r="H15" t="s">
         <v>55</v>
@@ -2737,17 +2821,17 @@
       <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>10</v>
       </c>
       <c r="C16">
         <v>0.435</v>
       </c>
       <c r="E16">
-        <v>0.78200000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="F16">
-        <v>868</v>
+        <v>805</v>
       </c>
       <c r="H16" t="s">
         <v>55</v>
@@ -2762,377 +2846,375 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0.435</v>
+      </c>
+      <c r="E17">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F17">
+        <v>1152</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0.435</v>
+      </c>
+      <c r="E18">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F18">
+        <v>1502</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="7">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2406</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="7">
+        <v>12</v>
+      </c>
+      <c r="J19" s="7">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="7">
+        <v>12</v>
+      </c>
+      <c r="J20" s="7">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="20" thickBot="1">
-      <c r="A21" s="4" t="s">
+    <row r="25" spans="1:15" ht="20" thickBot="1">
+      <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="50" thickTop="1" thickBot="1">
-      <c r="A22" s="1" t="s">
+    <row r="26" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" thickTop="1">
-      <c r="A23" t="s">
+    <row r="27" spans="1:15" ht="16" thickTop="1">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
+      <c r="B27">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <v>1.7</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F27" s="13">
         <v>8810</v>
       </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23">
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27">
         <v>4</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J27" s="7">
         <v>4</v>
       </c>
-      <c r="K23" s="8">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <f>D23*F23</f>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f>D27*F27</f>
         <v>35240</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="B28">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C28">
         <v>1.7</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <v>8</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>1.2</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F28" s="13">
         <v>4428</v>
       </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24">
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28">
         <v>4</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J28" s="7">
         <v>4</v>
       </c>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <f>D24*F24</f>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>D28*F28</f>
         <v>35424</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>1.7</v>
       </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-      <c r="E25">
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F29" s="13">
         <v>2855</v>
       </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25">
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J29" s="7">
         <v>4</v>
       </c>
-      <c r="K25" s="7">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <f>D25*F25</f>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>D29*F29</f>
         <v>34260</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="7" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B30" s="7">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>1.7</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D30" s="7">
         <v>37</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E30" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F30" s="14">
         <v>936</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I30" s="7">
         <v>4</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J30" s="7">
         <v>4</v>
       </c>
-      <c r="K26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="29" spans="1:12" ht="20" thickBot="1">
-      <c r="A29" s="4" t="s">
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="20" thickBot="1">
+      <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="66" thickTop="1" thickBot="1">
-      <c r="A30" s="1" t="s">
+    <row r="34" spans="1:11" ht="66" thickTop="1" thickBot="1">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K34" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" thickTop="1">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>1.9</v>
-      </c>
-      <c r="D31">
-        <v>37</v>
-      </c>
-      <c r="E31">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F31">
-        <v>3539</v>
-      </c>
-      <c r="H31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" s="7">
-        <v>12</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>1.9</v>
-      </c>
-      <c r="D32">
-        <v>37</v>
-      </c>
-      <c r="E32">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F32">
-        <v>2908</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32" s="7">
-        <v>12</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>40</v>
-      </c>
-      <c r="C33">
-        <v>1.9</v>
-      </c>
-      <c r="D33">
-        <v>37</v>
-      </c>
-      <c r="E33">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F33">
-        <v>2834</v>
-      </c>
-      <c r="H33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33">
-        <v>8</v>
-      </c>
-      <c r="J33" s="7">
-        <v>12</v>
-      </c>
-      <c r="K33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>1.9</v>
-      </c>
-      <c r="D34">
-        <v>37</v>
-      </c>
-      <c r="E34">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F34">
-        <v>2718</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34">
-        <v>12</v>
-      </c>
-      <c r="J34" s="7">
-        <v>12</v>
-      </c>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="16" thickTop="1">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3149,18 +3231,18 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F35">
-        <v>2716</v>
+        <v>3539</v>
       </c>
       <c r="H35" t="s">
         <v>7</v>
       </c>
       <c r="I35">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J35" s="7">
         <v>12</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3181,13 +3263,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F36">
-        <v>2725</v>
+        <v>2908</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J36" s="7">
         <v>12</v>
@@ -3213,13 +3295,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F37">
-        <v>2715</v>
+        <v>2834</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
       </c>
       <c r="I37">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J37" s="7">
         <v>12</v>
@@ -3229,8 +3311,36 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>1.9</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F38">
+        <v>2718</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38" s="7">
+        <v>12</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
@@ -3243,19 +3353,19 @@
         <v>1.9</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E39">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F39">
-        <v>13996</v>
+        <v>2716</v>
       </c>
       <c r="H39" t="s">
         <v>7</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J39" s="7">
         <v>12</v>
@@ -3275,19 +3385,19 @@
         <v>1.9</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E40">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F40">
-        <v>13583</v>
+        <v>2725</v>
       </c>
       <c r="H40" t="s">
         <v>7</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J40" s="7">
         <v>12</v>
@@ -3307,19 +3417,19 @@
         <v>1.9</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F41">
-        <v>12960</v>
+        <v>2715</v>
       </c>
       <c r="H41" t="s">
         <v>7</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J41" s="7">
         <v>12</v>
@@ -3329,509 +3439,465 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" t="s">
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>40</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>1.9</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>8</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>1.2</v>
       </c>
-      <c r="F42">
-        <v>12881</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F43">
+        <v>13996</v>
+      </c>
+      <c r="H43" t="s">
         <v>7</v>
       </c>
-      <c r="I42">
-        <v>16</v>
-      </c>
-      <c r="J42" s="7">
-        <v>12</v>
-      </c>
-      <c r="K42" s="7">
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" s="7">
+        <v>12</v>
+      </c>
+      <c r="K43" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
       <c r="C44">
-        <v>0.435</v>
+        <v>1.9</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F44">
-        <v>8247</v>
+        <v>13583</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J44" s="7">
         <v>12</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>40</v>
       </c>
       <c r="C45">
-        <v>0.435</v>
+        <v>1.9</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F45">
-        <v>7740</v>
+        <v>12960</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I45">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J45" s="7">
         <v>12</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>40</v>
       </c>
       <c r="C46">
+        <v>1.9</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>1.2</v>
+      </c>
+      <c r="F46">
+        <v>12881</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>16</v>
+      </c>
+      <c r="J46" s="7">
+        <v>12</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
         <v>0.435</v>
       </c>
-      <c r="D46">
+      <c r="D48">
         <v>5</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>8247</v>
+      </c>
+      <c r="H48" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>0.435</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>7740</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>0.435</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>7515</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H50" t="s">
         <v>55</v>
       </c>
-      <c r="I46">
-        <v>12</v>
-      </c>
-      <c r="J46" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="J47" s="7"/>
-    </row>
-    <row r="49" spans="1:15" ht="20" thickBot="1">
-      <c r="A49" s="4" t="s">
+      <c r="I50">
+        <v>12</v>
+      </c>
+      <c r="J50" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="J51" s="7"/>
+    </row>
+    <row r="53" spans="1:13" ht="20" thickBot="1">
+      <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A50" s="1" t="s">
+    <row r="54" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J54" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:15" ht="16" thickTop="1">
-      <c r="A51" t="s">
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" ht="16" thickTop="1">
+      <c r="A55" t="s">
         <v>6</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <v>40</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C55" s="7">
         <v>1.9</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <v>4</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F51">
+      <c r="F55">
         <f>615.7*60</f>
         <v>36942</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H55" t="s">
         <v>15</v>
       </c>
-      <c r="I51">
+      <c r="I55">
         <v>4</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J55" s="7">
         <v>4</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
         <v>4</v>
       </c>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
         <v>6</v>
       </c>
-      <c r="B52">
+      <c r="B56">
         <v>40</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C56" s="7">
         <v>1.9</v>
       </c>
-      <c r="D52">
+      <c r="D56">
         <v>8</v>
       </c>
-      <c r="E52">
+      <c r="E56">
         <v>1.2</v>
       </c>
-      <c r="F52">
+      <c r="F56">
         <v>19618</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H56" t="s">
         <v>15</v>
       </c>
-      <c r="I52">
+      <c r="I56">
         <v>2</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J56" s="7">
         <v>4</v>
       </c>
-      <c r="K52">
+      <c r="K56">
         <v>2</v>
       </c>
-      <c r="L52">
+      <c r="L56">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" t="s">
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
         <v>6</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>40</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C57" s="7">
         <v>1.9</v>
       </c>
-      <c r="D53">
+      <c r="D57">
         <v>16</v>
       </c>
-      <c r="E53">
+      <c r="E57">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F53">
+      <c r="F57">
         <v>28299</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H57" t="s">
         <v>15</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" s="7">
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" s="7">
         <v>4</v>
       </c>
-      <c r="K53">
+      <c r="K57">
         <v>4</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="14" customHeight="1">
-      <c r="A54" t="s">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="14" customHeight="1">
+      <c r="A58" t="s">
         <v>6</v>
       </c>
-      <c r="B54">
+      <c r="B58">
         <v>40</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C58" s="7">
         <v>1.9</v>
       </c>
-      <c r="D54">
+      <c r="D58">
         <v>16</v>
       </c>
-      <c r="E54">
+      <c r="E58">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F54">
+      <c r="F58">
         <v>25215</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H58" t="s">
         <v>15</v>
       </c>
-      <c r="I54">
+      <c r="I58">
         <v>4</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J58" s="7">
         <v>4</v>
       </c>
-      <c r="K54">
+      <c r="K58">
         <v>4</v>
       </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="E56" s="3"/>
-    </row>
-    <row r="61" spans="1:15" ht="20" thickBot="1">
-      <c r="A61" s="4" t="s">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="20" thickBot="1">
+      <c r="A65" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A62" s="1" t="s">
+    <row r="66" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J66" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="K66" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" ht="16" thickTop="1">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>40</v>
-      </c>
-      <c r="C63">
-        <v>1.9</v>
-      </c>
-      <c r="D63">
-        <v>40</v>
-      </c>
-      <c r="E63">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G63">
-        <v>3966</v>
-      </c>
-      <c r="H63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" s="7">
-        <v>80</v>
-      </c>
-      <c r="K63" s="8">
-        <v>10</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
-      </c>
-      <c r="M63">
-        <v>105</v>
-      </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>40</v>
-      </c>
-      <c r="C64">
-        <v>1.9</v>
-      </c>
-      <c r="D64">
-        <v>20</v>
-      </c>
-      <c r="E64">
-        <v>0.435</v>
-      </c>
-      <c r="G64">
-        <v>8031</v>
-      </c>
-      <c r="H64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64">
-        <v>2</v>
-      </c>
-      <c r="J64" s="7">
-        <v>40</v>
-      </c>
-      <c r="K64" s="7">
-        <v>5</v>
-      </c>
-      <c r="L64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>40</v>
-      </c>
-      <c r="C65">
-        <v>1.9</v>
-      </c>
-      <c r="D65">
-        <v>40</v>
-      </c>
-      <c r="E65">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G65">
-        <v>25807</v>
-      </c>
-      <c r="H65" t="s">
-        <v>5</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65" s="7">
-        <v>12</v>
-      </c>
-      <c r="K65" s="8">
-        <v>3</v>
-      </c>
-      <c r="L65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>1.9</v>
-      </c>
-      <c r="D66">
-        <v>20</v>
-      </c>
-      <c r="E66">
-        <v>0.435</v>
-      </c>
-      <c r="G66">
-        <v>23872</v>
-      </c>
-      <c r="H66" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-      <c r="J66" s="7">
-        <v>12</v>
-      </c>
-      <c r="K66" s="7">
-        <v>3</v>
-      </c>
-      <c r="L66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" ht="16" thickTop="1">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3847,6 +3913,9 @@
       <c r="E67">
         <v>0.20899999999999999</v>
       </c>
+      <c r="G67">
+        <v>3966</v>
+      </c>
       <c r="H67" t="s">
         <v>47</v>
       </c>
@@ -3854,16 +3923,20 @@
         <v>2</v>
       </c>
       <c r="J67" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K67" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="M67">
+        <v>105</v>
+      </c>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" ht="19" customHeight="1">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -3879,6 +3952,9 @@
       <c r="E68">
         <v>0.435</v>
       </c>
+      <c r="G68">
+        <v>8031</v>
+      </c>
       <c r="H68" t="s">
         <v>47</v>
       </c>
@@ -3886,21 +3962,21 @@
         <v>2</v>
       </c>
       <c r="J68" s="7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K68" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C69">
         <v>1.9</v>
@@ -3912,7 +3988,7 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="G69">
-        <v>7337</v>
+        <v>25807</v>
       </c>
       <c r="H69" t="s">
         <v>5</v>
@@ -3930,12 +4006,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>6</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C70">
         <v>1.9</v>
@@ -3946,6 +4022,9 @@
       <c r="E70">
         <v>0.435</v>
       </c>
+      <c r="G70">
+        <v>23872</v>
+      </c>
       <c r="H70" t="s">
         <v>5</v>
       </c>
@@ -3962,803 +4041,1121 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="1:14" ht="20" thickBot="1">
-      <c r="A75" s="4" t="s">
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>1.9</v>
+      </c>
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71" s="7">
+        <v>16</v>
+      </c>
+      <c r="K71" s="8">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>1.9</v>
+      </c>
+      <c r="D72">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>0.435</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72" s="7">
+        <v>16</v>
+      </c>
+      <c r="K72" s="7">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>1.9</v>
+      </c>
+      <c r="D73">
+        <v>40</v>
+      </c>
+      <c r="E73">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G73">
+        <v>7337</v>
+      </c>
+      <c r="H73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" s="7">
+        <v>12</v>
+      </c>
+      <c r="K73" s="8">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>1.9</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>0.435</v>
+      </c>
+      <c r="H74" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" s="7">
+        <v>12</v>
+      </c>
+      <c r="K74" s="7">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:15" ht="20" thickBot="1">
+      <c r="A79" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A76" s="1" t="s">
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K80" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="N80" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16" thickTop="1">
-      <c r="A77" s="7" t="s">
+    <row r="81" spans="1:13" ht="16" thickTop="1">
+      <c r="A81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B81" s="7">
         <v>40</v>
       </c>
-      <c r="C77">
+      <c r="C81">
         <v>1.9</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D81" s="7">
         <v>40</v>
       </c>
-      <c r="E77" s="7">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7">
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7">
         <v>3468</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7" t="s">
+      <c r="G81" s="7"/>
+      <c r="H81" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I81" s="7">
         <v>2</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J81" s="7">
         <v>2</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K81" s="8">
         <v>0</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L81" s="7">
         <v>2</v>
       </c>
-      <c r="M77" s="7" t="s">
+      <c r="M81" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="7" t="s">
+    <row r="82" spans="1:13">
+      <c r="A82" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B82" s="7">
         <v>40</v>
       </c>
-      <c r="C78">
+      <c r="C82">
         <v>1.9</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D82" s="7">
         <v>20</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E82" s="7">
         <v>0.435</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7" t="s">
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I82" s="7">
         <v>2</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J82" s="7">
         <v>2</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K82" s="7">
         <v>0</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L82" s="7">
         <v>2</v>
       </c>
-      <c r="M78" s="7" t="s">
+      <c r="M82" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="7" t="s">
+    <row r="83" spans="1:13">
+      <c r="A83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B83" s="7">
         <v>10</v>
       </c>
-      <c r="C79">
+      <c r="C83">
         <v>1.9</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D83" s="7">
         <v>40</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E83" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F83" s="7">
         <v>907</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G83" s="7">
         <v>1020</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I83" s="7">
         <v>2</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J83" s="7">
         <v>2</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K83" s="8">
         <v>0</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L83" s="7">
         <v>2</v>
       </c>
-      <c r="M79" s="7" t="s">
+      <c r="M83" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="7" t="s">
+    <row r="84" spans="1:13">
+      <c r="A84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B84" s="7">
         <v>10</v>
       </c>
-      <c r="C80">
+      <c r="C84">
         <v>1.9</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D84" s="7">
         <v>40</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E84" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G84" s="7">
         <v>1080</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I84" s="7">
         <v>2</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J84" s="7">
         <v>2</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K84" s="7">
         <v>0</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L84" s="7">
         <v>2</v>
       </c>
-      <c r="M80" s="7" t="s">
+      <c r="M84" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="20" thickBot="1">
-      <c r="A83" s="4" t="s">
+    <row r="87" spans="1:13" ht="20" thickBot="1">
+      <c r="A87" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A84" s="1" t="s">
+    <row r="88" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="6" t="s">
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J88" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K88" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16" thickTop="1">
-      <c r="A85" s="7" t="s">
+    <row r="89" spans="1:13" ht="16" thickTop="1">
+      <c r="A89" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B89" s="7">
         <v>40</v>
       </c>
-      <c r="C85">
+      <c r="C89">
         <v>1.9</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D89" s="7">
         <v>40</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E89" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" t="s">
+      <c r="G89" s="7"/>
+      <c r="H89" t="s">
         <v>42</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I89" s="7">
         <v>2</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J89" s="7">
         <v>80</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K89" s="7">
         <v>10</v>
       </c>
-      <c r="M85" s="7" t="s">
+      <c r="M89" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="7" t="s">
+    <row r="90" spans="1:13">
+      <c r="A90" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B90" s="7">
         <v>40</v>
       </c>
-      <c r="C86">
+      <c r="C90">
         <v>1.9</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D90" s="7">
         <v>20</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E90" s="7">
         <v>0.435</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" t="s">
+      <c r="G90" s="7"/>
+      <c r="H90" t="s">
         <v>42</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I90" s="7">
         <v>2</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J90" s="7">
         <v>80</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K90" s="7">
         <v>6</v>
       </c>
-      <c r="M86" s="7" t="s">
+      <c r="M90" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="20" thickBot="1">
-      <c r="A91" s="4" t="s">
+    <row r="95" spans="1:13" ht="20" thickBot="1">
+      <c r="A95" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="66" thickTop="1" thickBot="1">
-      <c r="A92" s="1" t="s">
+    <row r="96" spans="1:13" ht="66" thickTop="1" thickBot="1">
+      <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B96" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G96" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H96" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11" t="s">
+      <c r="I96" s="11"/>
+      <c r="J96" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K92" s="11"/>
-      <c r="L92" s="12" t="s">
+      <c r="K96" s="11"/>
+      <c r="L96" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16" thickTop="1">
-      <c r="A93" s="7" t="s">
+    <row r="97" spans="1:13" ht="16" thickTop="1">
+      <c r="A97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B93">
+      <c r="B97">
         <v>10</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D93">
+      <c r="D97">
         <v>1.7</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E97" s="7">
         <v>40</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F97" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G97" s="7">
         <v>0.105</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H97" s="7">
         <v>54.6</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J97" s="7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="7" t="s">
+    <row r="98" spans="1:13">
+      <c r="A98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B94">
+      <c r="B98">
         <v>10</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C98" t="s">
         <v>63</v>
       </c>
-      <c r="D94">
+      <c r="D98">
         <v>1.7</v>
       </c>
-      <c r="E94">
+      <c r="E98">
         <v>40</v>
       </c>
-      <c r="F94">
+      <c r="F98">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G94">
+      <c r="G98">
         <v>0.105</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H98" s="7">
         <v>67</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J94">
+      <c r="J98">
         <v>1.6</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="7" t="s">
+    <row r="99" spans="1:13">
+      <c r="A99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B95">
+      <c r="B99">
         <v>10</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C99" t="s">
         <v>63</v>
       </c>
-      <c r="D95">
+      <c r="D99">
         <v>1.7</v>
       </c>
-      <c r="E95">
+      <c r="E99">
         <v>20</v>
       </c>
-      <c r="F95">
+      <c r="F99">
         <v>0.435</v>
       </c>
-      <c r="G95">
+      <c r="G99">
         <v>0.22</v>
       </c>
-      <c r="H95">
+      <c r="H99">
         <v>70</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J95">
+      <c r="J99">
         <v>1.6</v>
       </c>
-      <c r="L95" s="12"/>
-      <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" t="s">
+      <c r="L99" s="12"/>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" t="s">
         <v>53</v>
       </c>
-      <c r="B96">
+      <c r="B100">
         <v>10</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C100" t="s">
         <v>63</v>
       </c>
-      <c r="D96">
+      <c r="D100">
         <v>0.435</v>
       </c>
-      <c r="E96">
+      <c r="E100">
         <v>4</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
         <v>0.2</v>
       </c>
-      <c r="H96">
+      <c r="H100">
         <v>20</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
-      <c r="L97" s="3"/>
-    </row>
-    <row r="103" spans="1:12" ht="20" thickBot="1">
-      <c r="A103" s="4" t="s">
+    <row r="101" spans="1:13">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="107" spans="1:13" ht="20" thickBot="1">
+      <c r="A107" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="50" thickTop="1" thickBot="1">
-      <c r="A104" s="1" t="s">
+    <row r="108" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="6" t="s">
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J108" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K104" s="6" t="s">
+      <c r="K108" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="16" thickTop="1">
-      <c r="A105" t="s">
+    <row r="109" spans="1:13" ht="16" thickTop="1">
+      <c r="A109" t="s">
         <v>53</v>
       </c>
-      <c r="B105">
+      <c r="B109">
         <v>40</v>
       </c>
-      <c r="C105">
+      <c r="C109">
         <v>0.439</v>
       </c>
-      <c r="D105">
+      <c r="D109">
         <v>5</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
         <v>7464</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H109" t="s">
         <v>55</v>
       </c>
-      <c r="I105">
-        <v>12</v>
-      </c>
-      <c r="J105" s="7">
-        <v>12</v>
-      </c>
-      <c r="K105" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" t="s">
+      <c r="I109">
+        <v>12</v>
+      </c>
+      <c r="J109" s="7">
+        <v>12</v>
+      </c>
+      <c r="K109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
         <v>6</v>
       </c>
-      <c r="B106">
+      <c r="B110">
         <v>40</v>
       </c>
-      <c r="C106">
+      <c r="C110">
         <v>1.9</v>
       </c>
-      <c r="D106">
+      <c r="D110">
         <v>5</v>
       </c>
-      <c r="E106">
+      <c r="E110">
         <v>1.2</v>
       </c>
-      <c r="F106">
+      <c r="F110">
         <v>12960</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H110" t="s">
         <v>55</v>
       </c>
-      <c r="I106">
-        <v>12</v>
-      </c>
-      <c r="J106" s="7">
-        <v>12</v>
-      </c>
-      <c r="K106" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="20" thickBot="1">
-      <c r="A110" s="4" t="s">
+      <c r="I110">
+        <v>12</v>
+      </c>
+      <c r="J110" s="7">
+        <v>12</v>
+      </c>
+      <c r="K110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="20" thickBot="1">
+      <c r="A114" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="50" thickTop="1" thickBot="1">
-      <c r="A111" s="1" t="s">
+    <row r="115" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="6" t="s">
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J115" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K111" s="6" t="s">
+      <c r="K115" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="16" thickTop="1">
-      <c r="A112" t="s">
+    <row r="116" spans="1:11" ht="16" thickTop="1">
+      <c r="A116" t="s">
         <v>6</v>
       </c>
-      <c r="B112">
+      <c r="B116">
         <v>10</v>
       </c>
-      <c r="C112">
+      <c r="C116">
         <v>1.7</v>
       </c>
-      <c r="D112">
+      <c r="D116">
         <v>37</v>
       </c>
-      <c r="E112">
+      <c r="E116">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F112">
+      <c r="F116">
         <v>662</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H116" t="s">
         <v>7</v>
       </c>
-      <c r="I112">
-        <v>12</v>
-      </c>
-      <c r="J112" s="7">
-        <v>12</v>
-      </c>
-      <c r="K112" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" t="s">
+      <c r="I116">
+        <v>12</v>
+      </c>
+      <c r="J116" s="7">
+        <v>12</v>
+      </c>
+      <c r="K116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
         <v>6</v>
       </c>
-      <c r="B113">
+      <c r="B117">
         <v>10</v>
       </c>
-      <c r="C113">
+      <c r="C117">
         <v>3.3</v>
       </c>
-      <c r="D113">
+      <c r="D117">
         <v>37</v>
       </c>
-      <c r="E113">
+      <c r="E117">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F113">
+      <c r="F117">
         <v>676</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H117" t="s">
         <v>7</v>
       </c>
-      <c r="I113">
-        <v>12</v>
-      </c>
-      <c r="J113" s="7">
-        <v>12</v>
-      </c>
-      <c r="K113" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="10" t="s">
+      <c r="I117">
+        <v>12</v>
+      </c>
+      <c r="J117" s="7">
+        <v>12</v>
+      </c>
+      <c r="K117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="10" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A124" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:11" ht="16" thickTop="1">
-      <c r="A125" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A128" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:12" ht="16" thickTop="1">
+      <c r="A129" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="9" t="s">
+    <row r="132" spans="1:12">
+      <c r="A132" s="9" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="18" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L136" s="2"/>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="18" customHeight="1">
+      <c r="A140" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="9" t="s">
+    <row r="144" spans="1:12">
+      <c r="A144" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="59" customHeight="1">
-      <c r="L143" s="2"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="10"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="9"/>
+    <row r="147" spans="1:12" ht="59" customHeight="1">
+      <c r="L147" s="2"/>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B153" s="7">
+        <v>10</v>
+      </c>
+      <c r="C153" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F153" s="7">
+        <v>252</v>
+      </c>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I153" s="7">
+        <v>12</v>
+      </c>
+      <c r="J153" s="7">
+        <v>12</v>
+      </c>
+      <c r="K153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" s="7">
+        <v>10</v>
+      </c>
+      <c r="C154" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F154" s="7">
+        <v>454</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I154" s="7">
+        <v>12</v>
+      </c>
+      <c r="J154" s="7">
+        <v>12</v>
+      </c>
+      <c r="K154" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B155" s="7">
+        <v>10</v>
+      </c>
+      <c r="C155" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F155" s="7">
+        <v>700</v>
+      </c>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I155" s="7">
+        <v>12</v>
+      </c>
+      <c r="J155" s="7">
+        <v>12</v>
+      </c>
+      <c r="K155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B156" s="7">
+        <v>10</v>
+      </c>
+      <c r="C156" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F156" s="7">
+        <v>868</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I156" s="7">
+        <v>12</v>
+      </c>
+      <c r="J156" s="7">
+        <v>12</v>
+      </c>
+      <c r="K156" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B157" s="7">
+        <v>10</v>
+      </c>
+      <c r="C157" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7">
+        <v>1</v>
+      </c>
+      <c r="F157" s="7">
+        <v>1109</v>
+      </c>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I157" s="7">
+        <v>12</v>
+      </c>
+      <c r="J157" s="7">
+        <v>12</v>
+      </c>
+      <c r="K157" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" s="7">
+        <v>10</v>
+      </c>
+      <c r="C158" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7">
+        <v>2</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I158" s="7">
+        <v>12</v>
+      </c>
+      <c r="J158" s="7">
+        <v>12</v>
+      </c>
+      <c r="K158" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B159" s="16"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="9"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="9"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="9"/>
+      <c r="A169" s="10"/>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="9"/>
@@ -4769,17 +5166,17 @@
     <row r="174" spans="1:1">
       <c r="A174" s="9"/>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="9"/>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="9"/>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="9"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="9"/>
+    <row r="175" spans="1:1">
+      <c r="A175" s="9"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="9"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="9"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="9"/>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="9"/>
@@ -4790,9 +5187,20 @@
     <row r="186" spans="1:1">
       <c r="A186" s="9"/>
     </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="9"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="9"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="9"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="129"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="83">
   <si>
     <t>Type</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>10 index files with -A option</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>eric</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="294">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -473,6 +479,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -723,7 +749,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="294">
+  <cellStyles count="314">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -869,6 +895,16 @@
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1016,6 +1052,16 @@
     <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1185,7 +1231,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$27:$E$30</c:f>
+              <c:f>Sheet1!$E$32:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1206,7 +1252,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$27:$F$30</c:f>
+              <c:f>Sheet1!$F$32:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1235,10 +1281,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$11</c:f>
+              <c:f>Sheet1!$E$8:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.194</c:v>
                 </c:pt>
@@ -1250,16 +1296,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$11</c:f>
+              <c:f>Sheet1!$F$8:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1596.0</c:v>
                 </c:pt>
@@ -1271,6 +1323,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5774.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7663.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,6 +1386,9 @@
                 <c:pt idx="4">
                   <c:v>2406.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3389.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1344,11 +1402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444767080"/>
-        <c:axId val="444863896"/>
+        <c:axId val="517709832"/>
+        <c:axId val="517715416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444767080"/>
+        <c:axId val="517709832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,12 +1435,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444863896"/>
+        <c:crossAx val="517715416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444863896"/>
+        <c:axId val="517715416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444767080"/>
+        <c:crossAx val="517709832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1540,7 +1598,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$35:$I$41</c:f>
+              <c:f>Sheet1!$I$42:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1570,7 +1628,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$35:$F$41</c:f>
+              <c:f>Sheet1!$F$42:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1608,7 +1666,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$43:$I$46</c:f>
+              <c:f>Sheet1!$I$50:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1629,7 +1687,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$43:$F$46</c:f>
+              <c:f>Sheet1!$F$50:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1658,7 +1716,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$48:$I$50</c:f>
+              <c:f>Sheet1!$I$55:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1676,7 +1734,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$48:$F$50</c:f>
+              <c:f>Sheet1!$F$55:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1702,11 +1760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422307112"/>
-        <c:axId val="422269384"/>
+        <c:axId val="508839752"/>
+        <c:axId val="508982616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422307112"/>
+        <c:axId val="508839752"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1736,12 +1794,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422269384"/>
+        <c:crossAx val="508982616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422269384"/>
+        <c:axId val="508982616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422307112"/>
+        <c:crossAx val="508839752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1880,7 +1938,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$55:$K$57</c:f>
+              <c:f>Sheet1!$K$62:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1898,7 +1956,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$55:$F$57</c:f>
+              <c:f>Sheet1!$F$62:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1924,11 +1982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422545192"/>
-        <c:axId val="444859448"/>
+        <c:axId val="517099816"/>
+        <c:axId val="517149048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422545192"/>
+        <c:axId val="517099816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,13 +1996,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444859448"/>
+        <c:crossAx val="517149048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444859448"/>
+        <c:axId val="517149048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +2012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422545192"/>
+        <c:crossAx val="517099816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1981,10 +2039,10 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2007,13 +2065,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2041,10 +2099,10 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2388,17 +2446,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -2430,7 +2488,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="59" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:12" ht="60" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +3011,9 @@
       <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>3389</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>55</v>
@@ -2977,472 +3037,487 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="20" thickBot="1">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="1" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>1.9</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>1.9</v>
+      </c>
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="16" thickTop="1">
+      <c r="E25">
+        <v>1.2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>1.9</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" s="7">
+        <v>4</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>1.9</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" s="7">
+        <v>4</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="30" spans="1:15" ht="20" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16" thickTop="1">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C32">
         <v>1.7</v>
       </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F32" s="13">
         <v>8810</v>
       </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27" s="7">
-        <v>4</v>
-      </c>
-      <c r="K27" s="8">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>D27*F27</f>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" s="7">
+        <v>4</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f>D32*F32</f>
         <v>35240</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B33">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C33">
         <v>1.7</v>
       </c>
-      <c r="D28">
+      <c r="D33">
         <v>8</v>
       </c>
-      <c r="E28">
+      <c r="E33">
         <v>1.2</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F33" s="13">
         <v>4428</v>
       </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28" s="7">
-        <v>4</v>
-      </c>
-      <c r="K28" s="7">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f>D28*F28</f>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f>D33*F33</f>
         <v>35424</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="B34">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C34">
         <v>1.7</v>
       </c>
-      <c r="D29">
-        <v>12</v>
-      </c>
-      <c r="E29">
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F34" s="13">
         <v>2855</v>
       </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29" s="7">
-        <v>4</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <f>D29*F29</f>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f>D34*F34</f>
         <v>34260</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="7" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B35" s="7">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C35">
         <v>1.7</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D35" s="7">
         <v>37</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E35" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F35" s="14">
         <v>936</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="7">
-        <v>4</v>
-      </c>
-      <c r="J30" s="7">
-        <v>4</v>
-      </c>
-      <c r="K30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="33" spans="1:11" ht="20" thickBot="1">
-      <c r="A33" s="4" t="s">
+      <c r="I35" s="7">
+        <v>4</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="66" thickTop="1" thickBot="1">
-      <c r="A34" s="1" t="s">
+      <c r="C36">
+        <v>1.7</v>
+      </c>
+      <c r="D36" s="7">
+        <v>37</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F36" s="14">
+        <v>524</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="7">
+        <v>8</v>
+      </c>
+      <c r="J36" s="7">
+        <v>8</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1.7</v>
+      </c>
+      <c r="D37" s="7">
+        <v>37</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F37" s="14">
+        <v>524</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="7">
+        <v>8</v>
+      </c>
+      <c r="J37" s="7">
+        <v>8</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1.7</v>
+      </c>
+      <c r="D38" s="7">
+        <v>37</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1060</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8</v>
+      </c>
+      <c r="J38" s="7">
+        <v>8</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20" thickBot="1">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="66" thickTop="1" thickBot="1">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="H41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K41" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" thickTop="1">
-      <c r="A35" t="s">
+    <row r="42" spans="1:12" ht="16" thickTop="1">
+      <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B35">
+      <c r="B42">
         <v>40</v>
       </c>
-      <c r="C35">
+      <c r="C42">
         <v>1.9</v>
       </c>
-      <c r="D35">
+      <c r="D42">
         <v>37</v>
       </c>
-      <c r="E35">
+      <c r="E42">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F35">
+      <c r="F42">
         <v>3539</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H42" t="s">
         <v>7</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" s="7">
-        <v>12</v>
-      </c>
-      <c r="K35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>40</v>
-      </c>
-      <c r="C36">
-        <v>1.9</v>
-      </c>
-      <c r="D36">
-        <v>37</v>
-      </c>
-      <c r="E36">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F36">
-        <v>2908</v>
-      </c>
-      <c r="H36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="J36" s="7">
-        <v>12</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>40</v>
-      </c>
-      <c r="C37">
-        <v>1.9</v>
-      </c>
-      <c r="D37">
-        <v>37</v>
-      </c>
-      <c r="E37">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F37">
-        <v>2834</v>
-      </c>
-      <c r="H37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37">
-        <v>8</v>
-      </c>
-      <c r="J37" s="7">
-        <v>12</v>
-      </c>
-      <c r="K37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>1.9</v>
-      </c>
-      <c r="D38">
-        <v>37</v>
-      </c>
-      <c r="E38">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F38">
-        <v>2718</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38">
-        <v>12</v>
-      </c>
-      <c r="J38" s="7">
-        <v>12</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>1.9</v>
-      </c>
-      <c r="D39">
-        <v>37</v>
-      </c>
-      <c r="E39">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F39">
-        <v>2716</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39">
-        <v>16</v>
-      </c>
-      <c r="J39" s="7">
-        <v>12</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>1.9</v>
-      </c>
-      <c r="D40">
-        <v>37</v>
-      </c>
-      <c r="E40">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F40">
-        <v>2725</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40">
-        <v>20</v>
-      </c>
-      <c r="J40" s="7">
-        <v>12</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>1.9</v>
-      </c>
-      <c r="D41">
-        <v>37</v>
-      </c>
-      <c r="E41">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F41">
-        <v>2715</v>
-      </c>
-      <c r="H41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41">
-        <v>32</v>
-      </c>
-      <c r="J41" s="7">
-        <v>12</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>12</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3453,13 +3528,13 @@
         <v>1.9</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F43">
-        <v>13996</v>
+        <v>2908</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
@@ -3474,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3485,13 +3560,13 @@
         <v>1.9</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E44">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F44">
-        <v>13583</v>
+        <v>2834</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
@@ -3506,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3517,13 +3592,13 @@
         <v>1.9</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F45">
-        <v>12960</v>
+        <v>2718</v>
       </c>
       <c r="H45" t="s">
         <v>7</v>
@@ -3538,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3549,13 +3624,13 @@
         <v>1.9</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E46">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F46">
-        <v>12881</v>
+        <v>2716</v>
       </c>
       <c r="H46" t="s">
         <v>7</v>
@@ -3570,405 +3645,514 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>1.9</v>
+      </c>
+      <c r="D47">
+        <v>37</v>
+      </c>
+      <c r="E47">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F47">
+        <v>2725</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>20</v>
+      </c>
+      <c r="J47" s="7">
+        <v>12</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>40</v>
       </c>
       <c r="C48">
-        <v>0.435</v>
+        <v>1.9</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F48">
-        <v>8247</v>
+        <v>2715</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J48" s="7">
         <v>12</v>
       </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>0.435</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>7740</v>
-      </c>
-      <c r="H49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I49">
-        <v>8</v>
-      </c>
-      <c r="J49" s="7">
-        <v>12</v>
-      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>40</v>
       </c>
       <c r="C50">
-        <v>0.435</v>
+        <v>1.9</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F50">
-        <v>7515</v>
+        <v>13996</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J50" s="7">
         <v>12</v>
       </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="J51" s="7"/>
-    </row>
-    <row r="53" spans="1:13" ht="20" thickBot="1">
-      <c r="A53" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>1.9</v>
+      </c>
+      <c r="D51">
         <v>8</v>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="1" t="s">
+      <c r="E51">
+        <v>1.2</v>
+      </c>
+      <c r="F51">
+        <v>13583</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51" s="7">
+        <v>12</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>1.9</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>1.2</v>
+      </c>
+      <c r="F52">
+        <v>12960</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52" s="7">
+        <v>12</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>1.9</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>1.2</v>
+      </c>
+      <c r="F53">
+        <v>12881</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53">
         <v>16</v>
       </c>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" ht="16" thickTop="1">
+      <c r="J53" s="7">
+        <v>12</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55">
+        <v>0.435</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>8247</v>
+      </c>
+      <c r="H55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>0.435</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>7740</v>
+      </c>
+      <c r="H56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>40</v>
+      </c>
+      <c r="C57">
+        <v>0.435</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>7515</v>
+      </c>
+      <c r="H57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="J58" s="7"/>
+    </row>
+    <row r="60" spans="1:13" ht="20" thickBot="1">
+      <c r="A60" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" ht="16" thickTop="1">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>40</v>
+      </c>
+      <c r="C62" s="7">
         <v>1.9</v>
       </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55">
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F55">
+      <c r="F62">
         <f>615.7*60</f>
         <v>36942</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H62" t="s">
         <v>15</v>
       </c>
-      <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55" s="7">
-        <v>4</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>4</v>
-      </c>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="s">
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" s="7">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B56">
+      <c r="B63">
         <v>40</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C63" s="7">
         <v>1.9</v>
       </c>
-      <c r="D56">
+      <c r="D63">
         <v>8</v>
       </c>
-      <c r="E56">
+      <c r="E63">
         <v>1.2</v>
       </c>
-      <c r="F56">
+      <c r="F63">
         <v>19618</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H63" t="s">
         <v>15</v>
       </c>
-      <c r="I56">
+      <c r="I63">
         <v>2</v>
       </c>
-      <c r="J56" s="7">
-        <v>4</v>
-      </c>
-      <c r="K56">
+      <c r="J63" s="7">
+        <v>4</v>
+      </c>
+      <c r="K63">
         <v>2</v>
       </c>
-      <c r="L56">
+      <c r="L63">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B57">
+      <c r="B64">
         <v>40</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C64" s="7">
         <v>1.9</v>
       </c>
-      <c r="D57">
+      <c r="D64">
         <v>16</v>
       </c>
-      <c r="E57">
+      <c r="E64">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F57">
+      <c r="F64">
         <v>28299</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H64" t="s">
         <v>15</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" s="7">
-        <v>4</v>
-      </c>
-      <c r="K57">
-        <v>4</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="14" customHeight="1">
-      <c r="A58" t="s">
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" s="7">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="14" customHeight="1">
+      <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="B58">
+      <c r="B65">
         <v>40</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C65" s="7">
         <v>1.9</v>
       </c>
-      <c r="D58">
+      <c r="D65">
         <v>16</v>
       </c>
-      <c r="E58">
+      <c r="E65">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F58">
+      <c r="F65">
         <v>25215</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H65" t="s">
         <v>15</v>
       </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-      <c r="J58" s="7">
-        <v>4</v>
-      </c>
-      <c r="K58">
-        <v>4</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="E60" s="3"/>
-    </row>
-    <row r="65" spans="1:15" ht="20" thickBot="1">
-      <c r="A65" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="1:15" ht="16" thickTop="1">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>40</v>
-      </c>
-      <c r="C67">
-        <v>1.9</v>
-      </c>
-      <c r="D67">
-        <v>40</v>
-      </c>
-      <c r="E67">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G67">
-        <v>3966</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67" s="7">
-        <v>80</v>
-      </c>
-      <c r="K67" s="8">
-        <v>10</v>
-      </c>
-      <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67">
-        <v>105</v>
-      </c>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1">
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65" s="7">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>6</v>
       </c>
       <c r="B68">
-        <v>40</v>
-      </c>
-      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="C68" s="7">
         <v>1.9</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>0.435</v>
-      </c>
-      <c r="G68">
-        <v>8031</v>
+        <v>2.4</v>
+      </c>
+      <c r="F68">
+        <v>9358</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J68" s="7">
-        <v>40</v>
-      </c>
-      <c r="K68" s="7">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3976,31 +4160,31 @@
         <v>6</v>
       </c>
       <c r="B69">
-        <v>40</v>
-      </c>
-      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7">
         <v>1.9</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G69">
-        <v>25807</v>
+        <v>1.2</v>
+      </c>
+      <c r="F69">
+        <v>5290</v>
       </c>
       <c r="H69" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="I69">
         <v>2</v>
       </c>
       <c r="J69" s="7">
-        <v>12</v>
-      </c>
-      <c r="K69" s="8">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -4011,34 +4195,34 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>40</v>
-      </c>
-      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="C70" s="7">
         <v>1.9</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>0.435</v>
-      </c>
-      <c r="G70">
-        <v>23872</v>
+        <v>0.6</v>
+      </c>
+      <c r="F70">
+        <v>9152</v>
       </c>
       <c r="H70" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" s="7">
-        <v>12</v>
-      </c>
-      <c r="K70" s="7">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4046,1149 +4230,1406 @@
         <v>6</v>
       </c>
       <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>0.6</v>
+      </c>
+      <c r="F71">
+        <v>5804</v>
+      </c>
+      <c r="H71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71" s="7">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="C72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="C73" s="7"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="C74" s="7"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="C75" s="7"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="C76" s="7"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="C77" s="7"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:15" ht="20" thickBot="1">
+      <c r="A78" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" ht="16" thickTop="1">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
         <v>40</v>
       </c>
-      <c r="C71">
+      <c r="C80">
         <v>1.9</v>
       </c>
-      <c r="D71">
+      <c r="D80">
         <v>40</v>
       </c>
-      <c r="E71">
+      <c r="E80">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G80">
+        <v>3966</v>
+      </c>
+      <c r="H80" t="s">
         <v>47</v>
       </c>
-      <c r="I71">
+      <c r="I80">
         <v>2</v>
       </c>
-      <c r="J71" s="7">
-        <v>16</v>
-      </c>
-      <c r="K71" s="8">
+      <c r="J80" s="7">
+        <v>80</v>
+      </c>
+      <c r="K80" s="8">
+        <v>10</v>
+      </c>
+      <c r="L80">
         <v>2</v>
       </c>
-      <c r="L71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" t="s">
+      <c r="M80">
+        <v>105</v>
+      </c>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" ht="14" customHeight="1">
+      <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B72">
-        <v>40</v>
-      </c>
-      <c r="C72">
-        <v>1.9</v>
-      </c>
-      <c r="D72">
-        <v>20</v>
-      </c>
-      <c r="E72">
-        <v>0.435</v>
-      </c>
-      <c r="H72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72" s="7">
-        <v>16</v>
-      </c>
-      <c r="K72" s="7">
-        <v>2</v>
-      </c>
-      <c r="L72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73">
-        <v>10</v>
-      </c>
-      <c r="C73">
-        <v>1.9</v>
-      </c>
-      <c r="D73">
-        <v>40</v>
-      </c>
-      <c r="E73">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G73">
-        <v>7337</v>
-      </c>
-      <c r="H73" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73" s="7">
-        <v>12</v>
-      </c>
-      <c r="K73" s="8">
-        <v>3</v>
-      </c>
-      <c r="L73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74">
-        <v>10</v>
-      </c>
-      <c r="C74">
-        <v>1.9</v>
-      </c>
-      <c r="D74">
-        <v>20</v>
-      </c>
-      <c r="E74">
-        <v>0.435</v>
-      </c>
-      <c r="H74" t="s">
-        <v>5</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74" s="7">
-        <v>12</v>
-      </c>
-      <c r="K74" s="7">
-        <v>3</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="1:15" ht="20" thickBot="1">
-      <c r="A79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="16" thickTop="1">
-      <c r="A81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="7">
+      <c r="B81">
         <v>40</v>
       </c>
       <c r="C81">
         <v>1.9</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>0.435</v>
+      </c>
+      <c r="G81">
+        <v>8031</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" s="7">
         <v>40</v>
       </c>
-      <c r="E81" s="7">
-        <v>1</v>
-      </c>
-      <c r="F81" s="7">
-        <v>3468</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I81" s="7">
+      <c r="K81" s="7">
+        <v>5</v>
+      </c>
+      <c r="L81">
         <v>2</v>
       </c>
-      <c r="J81" s="7">
-        <v>2</v>
-      </c>
-      <c r="K81" s="8">
-        <v>0</v>
-      </c>
-      <c r="L81" s="7">
-        <v>2</v>
-      </c>
-      <c r="M81" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="7" t="s">
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82">
         <v>40</v>
       </c>
       <c r="C82">
         <v>1.9</v>
       </c>
-      <c r="D82" s="7">
-        <v>20</v>
-      </c>
-      <c r="E82" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I82" s="7">
+      <c r="D82">
+        <v>40</v>
+      </c>
+      <c r="E82">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G82">
+        <v>25807</v>
+      </c>
+      <c r="H82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" s="7">
+        <v>12</v>
+      </c>
+      <c r="K82" s="8">
+        <v>3</v>
+      </c>
+      <c r="L82">
         <v>2</v>
       </c>
-      <c r="K82" s="7">
-        <v>0</v>
-      </c>
-      <c r="L82" s="7">
-        <v>2</v>
-      </c>
-      <c r="M82" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="7" t="s">
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="7">
-        <v>10</v>
+      <c r="B83">
+        <v>40</v>
       </c>
       <c r="C83">
         <v>1.9</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <v>0.435</v>
+      </c>
+      <c r="G83">
+        <v>23872</v>
+      </c>
+      <c r="H83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" s="7">
+        <v>12</v>
+      </c>
+      <c r="K83" s="7">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
         <v>40</v>
-      </c>
-      <c r="E83" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F83" s="7">
-        <v>907</v>
-      </c>
-      <c r="G83" s="7">
-        <v>1020</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I83" s="7">
-        <v>2</v>
-      </c>
-      <c r="J83" s="7">
-        <v>2</v>
-      </c>
-      <c r="K83" s="8">
-        <v>0</v>
-      </c>
-      <c r="L83" s="7">
-        <v>2</v>
-      </c>
-      <c r="M83" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="7">
-        <v>10</v>
       </c>
       <c r="C84">
         <v>1.9</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84">
         <v>40</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" s="7">
+        <v>16</v>
+      </c>
+      <c r="K84" s="8">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>40</v>
+      </c>
+      <c r="C85">
+        <v>1.9</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <v>0.435</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" s="7">
+        <v>16</v>
+      </c>
+      <c r="K85" s="7">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>1.9</v>
+      </c>
+      <c r="D86">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G86">
+        <v>7337</v>
+      </c>
+      <c r="H86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" s="7">
+        <v>12</v>
+      </c>
+      <c r="K86" s="8">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>1.9</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>0.435</v>
+      </c>
+      <c r="H87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" s="7">
+        <v>12</v>
+      </c>
+      <c r="K87" s="7">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:14" ht="20" thickBot="1">
+      <c r="A92" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:14" ht="50" thickTop="1" thickBot="1">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="16" thickTop="1">
+      <c r="A94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="7">
+        <v>40</v>
+      </c>
+      <c r="C94">
+        <v>1.9</v>
+      </c>
+      <c r="D94" s="7">
+        <v>40</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>3468</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="7">
+        <v>2</v>
+      </c>
+      <c r="J94" s="7">
+        <v>2</v>
+      </c>
+      <c r="K94" s="8">
+        <v>0</v>
+      </c>
+      <c r="L94" s="7">
+        <v>2</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="7">
+        <v>40</v>
+      </c>
+      <c r="C95">
+        <v>1.9</v>
+      </c>
+      <c r="D95" s="7">
+        <v>20</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="7">
+        <v>2</v>
+      </c>
+      <c r="J95" s="7">
+        <v>2</v>
+      </c>
+      <c r="K95" s="7">
+        <v>0</v>
+      </c>
+      <c r="L95" s="7">
+        <v>2</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="7">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>1.9</v>
+      </c>
+      <c r="D96" s="7">
+        <v>40</v>
+      </c>
+      <c r="E96" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G84" s="7">
-        <v>1080</v>
-      </c>
-      <c r="H84" s="7" t="s">
+      <c r="F96" s="7">
+        <v>907</v>
+      </c>
+      <c r="G96" s="7">
+        <v>1020</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I96" s="7">
         <v>2</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J96" s="7">
         <v>2</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K96" s="8">
         <v>0</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L96" s="7">
         <v>2</v>
       </c>
-      <c r="M84" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="20" thickBot="1">
-      <c r="A87" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="16" thickTop="1">
-      <c r="A89" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="7">
-        <v>40</v>
-      </c>
-      <c r="C89">
-        <v>1.9</v>
-      </c>
-      <c r="D89" s="7">
-        <v>40</v>
-      </c>
-      <c r="E89" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G89" s="7"/>
-      <c r="H89" t="s">
-        <v>42</v>
-      </c>
-      <c r="I89" s="7">
-        <v>2</v>
-      </c>
-      <c r="J89" s="7">
-        <v>80</v>
-      </c>
-      <c r="K89" s="7">
-        <v>10</v>
-      </c>
-      <c r="M89" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="7">
-        <v>40</v>
-      </c>
-      <c r="C90">
-        <v>1.9</v>
-      </c>
-      <c r="D90" s="7">
-        <v>20</v>
-      </c>
-      <c r="E90" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="G90" s="7"/>
-      <c r="H90" t="s">
-        <v>42</v>
-      </c>
-      <c r="I90" s="7">
-        <v>2</v>
-      </c>
-      <c r="J90" s="7">
-        <v>80</v>
-      </c>
-      <c r="K90" s="7">
-        <v>6</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="20" thickBot="1">
-      <c r="A95" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="66" thickTop="1" thickBot="1">
-      <c r="A96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K96" s="11"/>
-      <c r="L96" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="16" thickTop="1">
+      <c r="M96" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="7">
         <v>10</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97">
+        <v>1.9</v>
+      </c>
+      <c r="D97" s="7">
+        <v>40</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G97" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97" s="7">
+        <v>2</v>
+      </c>
+      <c r="J97" s="7">
+        <v>2</v>
+      </c>
+      <c r="K97" s="7">
+        <v>0</v>
+      </c>
+      <c r="L97" s="7">
+        <v>2</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+    </row>
+    <row r="103" spans="1:13" ht="20" thickBot="1">
+      <c r="A103" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="16" thickTop="1">
+      <c r="A105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="7">
+        <v>40</v>
+      </c>
+      <c r="C105">
+        <v>1.9</v>
+      </c>
+      <c r="D105" s="7">
+        <v>40</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" t="s">
+        <v>42</v>
+      </c>
+      <c r="I105" s="7">
+        <v>2</v>
+      </c>
+      <c r="J105" s="7">
+        <v>80</v>
+      </c>
+      <c r="K105" s="7">
+        <v>10</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="7">
+        <v>40</v>
+      </c>
+      <c r="C106">
+        <v>1.9</v>
+      </c>
+      <c r="D106" s="7">
+        <v>20</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" t="s">
+        <v>42</v>
+      </c>
+      <c r="I106" s="7">
+        <v>2</v>
+      </c>
+      <c r="J106" s="7">
+        <v>80</v>
+      </c>
+      <c r="K106" s="7">
+        <v>6</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="20" thickBot="1">
+      <c r="A111" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="66" thickTop="1" thickBot="1">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K112" s="11"/>
+      <c r="L112" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="16" thickTop="1">
+      <c r="A113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D97">
+      <c r="D113">
         <v>1.7</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E113" s="7">
         <v>40</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F113" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G113" s="7">
         <v>0.105</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H113" s="7">
         <v>54.6</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J113" s="7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="7" t="s">
+    <row r="114" spans="1:13">
+      <c r="A114" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B98">
+      <c r="B114">
         <v>10</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C114" t="s">
         <v>63</v>
       </c>
-      <c r="D98">
+      <c r="D114">
         <v>1.7</v>
       </c>
-      <c r="E98">
+      <c r="E114">
         <v>40</v>
       </c>
-      <c r="F98">
+      <c r="F114">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G98">
+      <c r="G114">
         <v>0.105</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H114" s="7">
         <v>67</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J98">
+      <c r="J114">
         <v>1.6</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="7" t="s">
+    <row r="115" spans="1:13">
+      <c r="A115" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B99">
+      <c r="B115">
         <v>10</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C115" t="s">
         <v>63</v>
       </c>
-      <c r="D99">
+      <c r="D115">
         <v>1.7</v>
       </c>
-      <c r="E99">
+      <c r="E115">
         <v>20</v>
       </c>
-      <c r="F99">
+      <c r="F115">
         <v>0.435</v>
       </c>
-      <c r="G99">
+      <c r="G115">
         <v>0.22</v>
       </c>
-      <c r="H99">
+      <c r="H115">
         <v>70</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J99">
+      <c r="J115">
         <v>1.6</v>
       </c>
-      <c r="L99" s="12"/>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" t="s">
+      <c r="L115" s="12"/>
+      <c r="M115" s="3"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" t="s">
         <v>53</v>
-      </c>
-      <c r="B100">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>63</v>
-      </c>
-      <c r="D100">
-        <v>0.435</v>
-      </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>0.2</v>
-      </c>
-      <c r="H100">
-        <v>20</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="L101" s="3"/>
-    </row>
-    <row r="107" spans="1:13" ht="20" thickBot="1">
-      <c r="A107" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="16" thickTop="1">
-      <c r="A109" t="s">
-        <v>53</v>
-      </c>
-      <c r="B109">
-        <v>40</v>
-      </c>
-      <c r="C109">
-        <v>0.439</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>7464</v>
-      </c>
-      <c r="H109" t="s">
-        <v>55</v>
-      </c>
-      <c r="I109">
-        <v>12</v>
-      </c>
-      <c r="J109" s="7">
-        <v>12</v>
-      </c>
-      <c r="K109" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110">
-        <v>40</v>
-      </c>
-      <c r="C110">
-        <v>1.9</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-      <c r="E110">
-        <v>1.2</v>
-      </c>
-      <c r="F110">
-        <v>12960</v>
-      </c>
-      <c r="H110" t="s">
-        <v>55</v>
-      </c>
-      <c r="I110">
-        <v>12</v>
-      </c>
-      <c r="J110" s="7">
-        <v>12</v>
-      </c>
-      <c r="K110" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="20" thickBot="1">
-      <c r="A114" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="50" thickTop="1" thickBot="1">
-      <c r="A115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="16" thickTop="1">
-      <c r="A116" t="s">
-        <v>6</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116">
+        <v>0.435</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>0.2</v>
+      </c>
+      <c r="H116">
+        <v>20</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="L117" s="3"/>
+    </row>
+    <row r="123" spans="1:13" ht="20" thickBot="1">
+      <c r="A123" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="16" thickTop="1">
+      <c r="A125" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125">
+        <v>40</v>
+      </c>
+      <c r="C125">
+        <v>0.439</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>7464</v>
+      </c>
+      <c r="H125" t="s">
+        <v>55</v>
+      </c>
+      <c r="I125">
+        <v>12</v>
+      </c>
+      <c r="J125" s="7">
+        <v>12</v>
+      </c>
+      <c r="K125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>40</v>
+      </c>
+      <c r="C126">
+        <v>1.9</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>1.2</v>
+      </c>
+      <c r="F126">
+        <v>12960</v>
+      </c>
+      <c r="H126" t="s">
+        <v>55</v>
+      </c>
+      <c r="I126">
+        <v>12</v>
+      </c>
+      <c r="J126" s="7">
+        <v>12</v>
+      </c>
+      <c r="K126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="20" thickBot="1">
+      <c r="A130" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="16" thickTop="1">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
         <v>1.7</v>
       </c>
-      <c r="D116">
+      <c r="D132">
         <v>37</v>
       </c>
-      <c r="E116">
+      <c r="E132">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F116">
+      <c r="F132">
         <v>662</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H132" t="s">
         <v>7</v>
       </c>
-      <c r="I116">
-        <v>12</v>
-      </c>
-      <c r="J116" s="7">
-        <v>12</v>
-      </c>
-      <c r="K116" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" t="s">
+      <c r="I132">
+        <v>12</v>
+      </c>
+      <c r="J132" s="7">
+        <v>12</v>
+      </c>
+      <c r="K132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
         <v>6</v>
       </c>
-      <c r="B117">
+      <c r="B133">
         <v>10</v>
       </c>
-      <c r="C117">
+      <c r="C133">
         <v>3.3</v>
       </c>
-      <c r="D117">
+      <c r="D133">
         <v>37</v>
       </c>
-      <c r="E117">
+      <c r="E133">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F117">
+      <c r="F133">
         <v>676</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H133" t="s">
         <v>7</v>
       </c>
-      <c r="I117">
-        <v>12</v>
-      </c>
-      <c r="J117" s="7">
-        <v>12</v>
-      </c>
-      <c r="K117" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="10" t="s">
+      <c r="I133">
+        <v>12</v>
+      </c>
+      <c r="J133" s="7">
+        <v>12</v>
+      </c>
+      <c r="K133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="9" t="s">
+    <row r="142" spans="1:11">
+      <c r="A142" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="9" t="s">
+    <row r="143" spans="1:11">
+      <c r="A143" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A128" s="9" t="s">
+    <row r="144" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A144" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="1:12" ht="16" thickTop="1">
-      <c r="A129" s="9" t="s">
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:12" ht="16" thickTop="1">
+      <c r="A145" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="9" t="s">
+    <row r="146" spans="1:12">
+      <c r="A146" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="9" t="s">
+    <row r="147" spans="1:12">
+      <c r="A147" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="9" t="s">
+    <row r="148" spans="1:12">
+      <c r="A148" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="9" t="s">
+    <row r="154" spans="1:12">
+      <c r="A154" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="9" t="s">
+    <row r="155" spans="1:12">
+      <c r="A155" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="18" customHeight="1">
-      <c r="A140" s="9" t="s">
+    <row r="156" spans="1:12" ht="18" customHeight="1">
+      <c r="A156" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L140" s="2"/>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="9" t="s">
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="9" t="s">
+    <row r="158" spans="1:12">
+      <c r="A158" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="9" t="s">
+    <row r="159" spans="1:12">
+      <c r="A159" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="9" t="s">
+    <row r="160" spans="1:12">
+      <c r="A160" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="59" customHeight="1">
-      <c r="L147" s="2"/>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="7" t="s">
+    <row r="163" spans="1:12" ht="59" customHeight="1">
+      <c r="L163" s="2"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B169" s="7">
         <v>10</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C169" s="7">
         <v>0.435</v>
       </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7">
+      <c r="D169" s="7"/>
+      <c r="E169" s="7">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F169" s="7">
         <v>252</v>
       </c>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7" t="s">
+      <c r="G169" s="7"/>
+      <c r="H169" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I153" s="7">
-        <v>12</v>
-      </c>
-      <c r="J153" s="7">
-        <v>12</v>
-      </c>
-      <c r="K153" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="7" t="s">
+      <c r="I169" s="7">
+        <v>12</v>
+      </c>
+      <c r="J169" s="7">
+        <v>12</v>
+      </c>
+      <c r="K169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B170" s="7">
         <v>10</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C170" s="7">
         <v>0.435</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7">
+      <c r="D170" s="7"/>
+      <c r="E170" s="7">
         <v>0.39</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F170" s="7">
         <v>454</v>
       </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7" t="s">
+      <c r="G170" s="7"/>
+      <c r="H170" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I154" s="7">
-        <v>12</v>
-      </c>
-      <c r="J154" s="7">
-        <v>12</v>
-      </c>
-      <c r="K154" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="7" t="s">
+      <c r="I170" s="7">
+        <v>12</v>
+      </c>
+      <c r="J170" s="7">
+        <v>12</v>
+      </c>
+      <c r="K170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B171" s="7">
         <v>10</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C171" s="7">
         <v>0.435</v>
       </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7">
+      <c r="D171" s="7"/>
+      <c r="E171" s="7">
         <v>0.58599999999999997</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F171" s="7">
         <v>700</v>
       </c>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7" t="s">
+      <c r="G171" s="7"/>
+      <c r="H171" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I155" s="7">
-        <v>12</v>
-      </c>
-      <c r="J155" s="7">
-        <v>12</v>
-      </c>
-      <c r="K155" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" s="7" t="s">
+      <c r="I171" s="7">
+        <v>12</v>
+      </c>
+      <c r="J171" s="7">
+        <v>12</v>
+      </c>
+      <c r="K171" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B172" s="7">
         <v>10</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C172" s="7">
         <v>0.435</v>
       </c>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7">
+      <c r="D172" s="7"/>
+      <c r="E172" s="7">
         <v>0.78200000000000003</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F172" s="7">
         <v>868</v>
       </c>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7" t="s">
+      <c r="G172" s="7"/>
+      <c r="H172" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I156" s="7">
-        <v>12</v>
-      </c>
-      <c r="J156" s="7">
-        <v>12</v>
-      </c>
-      <c r="K156" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="7" t="s">
+      <c r="I172" s="7">
+        <v>12</v>
+      </c>
+      <c r="J172" s="7">
+        <v>12</v>
+      </c>
+      <c r="K172" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B173" s="7">
         <v>10</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C173" s="7">
         <v>0.435</v>
       </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7">
-        <v>1</v>
-      </c>
-      <c r="F157" s="7">
+      <c r="D173" s="7"/>
+      <c r="E173" s="7">
+        <v>1</v>
+      </c>
+      <c r="F173" s="7">
         <v>1109</v>
       </c>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7" t="s">
+      <c r="G173" s="7"/>
+      <c r="H173" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I157" s="7">
-        <v>12</v>
-      </c>
-      <c r="J157" s="7">
-        <v>12</v>
-      </c>
-      <c r="K157" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="7" t="s">
+      <c r="I173" s="7">
+        <v>12</v>
+      </c>
+      <c r="J173" s="7">
+        <v>12</v>
+      </c>
+      <c r="K173" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B174" s="7">
         <v>10</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C174" s="7">
         <v>0.435</v>
       </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7">
+      <c r="D174" s="7"/>
+      <c r="E174" s="7">
         <v>2</v>
       </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7" t="s">
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I158" s="7">
-        <v>12</v>
-      </c>
-      <c r="J158" s="7">
-        <v>12</v>
-      </c>
-      <c r="K158" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="16" t="s">
+      <c r="I174" s="7">
+        <v>12</v>
+      </c>
+      <c r="J174" s="7">
+        <v>12</v>
+      </c>
+      <c r="K174" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B159" s="16"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="10"/>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="9"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="9"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="9"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="9"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="9"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="9"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="9"/>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="9"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="9"/>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="9"/>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="9"/>
+      <c r="A185" s="10"/>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="9"/>
@@ -5199,8 +5640,42 @@
     <row r="190" spans="1:1">
       <c r="A190" s="9"/>
     </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="9"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="9"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="9"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="9"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="9"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="9"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="9"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="9"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="9"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="9"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="129"/>
+    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="211"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ranger" sheetId="2" r:id="rId1"/>
+    <sheet name="OLd_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="98">
   <si>
     <t>Type</t>
   </si>
@@ -268,6 +269,51 @@
   </si>
   <si>
     <t>eric</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>For Post Process step</t>
+  </si>
+  <si>
+    <t>Human Genome(hg18)</t>
+  </si>
+  <si>
+    <t>Time For  Match  files(sec)</t>
+  </si>
+  <si>
+    <t>Prepare Read files step</t>
+  </si>
+  <si>
+    <t>Whole Genome Results</t>
+  </si>
+  <si>
+    <t>Size of .qual file</t>
+  </si>
+  <si>
+    <t>Size of .csfasta file</t>
+  </si>
+  <si>
+    <t>Number of cores/ pre bfast</t>
+  </si>
+  <si>
+    <t>Number of jobs</t>
+  </si>
+  <si>
+    <t>Using Big job</t>
+  </si>
+  <si>
+    <t>For local alignment step</t>
+  </si>
+  <si>
+    <t>For matching step</t>
+  </si>
+  <si>
+    <t>Number of threads per bfast</t>
+  </si>
+  <si>
+    <t>all jobs are concurrent</t>
   </si>
 </sst>
 </file>
@@ -398,7 +444,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="314">
+  <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -479,6 +525,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -749,7 +831,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="314">
+  <cellStyles count="350">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -905,6 +987,24 @@
     <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1062,6 +1162,24 @@
     <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1156,7 +1274,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$6</c:f>
+              <c:f>OLd_data!$E$3:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1177,7 +1295,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$6</c:f>
+              <c:f>OLd_data!$F$3:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1231,7 +1349,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$32:$E$35</c:f>
+              <c:f>OLd_data!$E$32:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1252,7 +1370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$35</c:f>
+              <c:f>OLd_data!$F$32:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1281,7 +1399,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$13</c:f>
+              <c:f>OLd_data!$E$8:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1308,7 +1426,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$13</c:f>
+              <c:f>OLd_data!$F$8:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1340,7 +1458,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$15:$E$20</c:f>
+              <c:f>OLd_data!$E$15:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1367,7 +1485,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$15:$F$20</c:f>
+              <c:f>OLd_data!$F$15:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1402,11 +1520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517709832"/>
-        <c:axId val="517715416"/>
+        <c:axId val="388076696"/>
+        <c:axId val="485122952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517709832"/>
+        <c:axId val="388076696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,12 +1553,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517715416"/>
+        <c:crossAx val="485122952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517715416"/>
+        <c:axId val="485122952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,7 +1592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517709832"/>
+        <c:crossAx val="388076696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1552,7 +1670,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1598,7 +1715,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$42:$I$48</c:f>
+              <c:f>OLd_data!$I$42:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1628,7 +1745,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$42:$F$48</c:f>
+              <c:f>OLd_data!$F$42:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1666,7 +1783,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$50:$I$53</c:f>
+              <c:f>OLd_data!$I$50:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1687,7 +1804,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$50:$F$53</c:f>
+              <c:f>OLd_data!$F$50:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1716,7 +1833,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$55:$I$57</c:f>
+              <c:f>OLd_data!$I$55:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1734,7 +1851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$55:$F$57</c:f>
+              <c:f>OLd_data!$F$55:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1760,11 +1877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="508839752"/>
-        <c:axId val="508982616"/>
+        <c:axId val="484747336"/>
+        <c:axId val="484719672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="508839752"/>
+        <c:axId val="484747336"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1787,19 +1904,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508982616"/>
+        <c:crossAx val="484719672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508982616"/>
+        <c:axId val="484719672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,14 +1937,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508839752"/>
+        <c:crossAx val="484747336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1938,7 +2053,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$62:$K$64</c:f>
+              <c:f>OLd_data!$K$62:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1956,7 +2071,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$62:$F$64</c:f>
+              <c:f>OLd_data!$F$62:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1982,11 +2097,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517099816"/>
-        <c:axId val="517149048"/>
+        <c:axId val="383343224"/>
+        <c:axId val="485230280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517099816"/>
+        <c:axId val="383343224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,13 +2111,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517149048"/>
+        <c:crossAx val="485230280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517149048"/>
+        <c:axId val="485230280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517099816"/>
+        <c:crossAx val="383343224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2446,10 +2561,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickTop="1"/>
+    <row r="3" spans="1:9" ht="20" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="50" thickTop="1" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" thickTop="1">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="50" thickTop="1" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" thickTop="1">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>128</v>
+      </c>
+      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>8135</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7">
+        <f>32*8</f>
+        <v>256</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>11513</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50" thickTop="1" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16" thickTop="1">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>64</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>2087.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="7">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7">
+        <v>129</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7">
+        <f>32*8</f>
+        <v>256</v>
+      </c>
+      <c r="G19" s="7">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <f>33*60</f>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="50" thickTop="1" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" thickTop="1">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="7">
+        <v>40</v>
+      </c>
+      <c r="C26" s="7">
+        <v>129</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7">
+        <f>32*8</f>
+        <v>256</v>
+      </c>
+      <c r="G26" s="7">
+        <v>32</v>
+      </c>
+      <c r="H26" s="7">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5675,7 +6171,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="211"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15920" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ranger" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="100">
   <si>
     <t>Type</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Human Genome(hg18)</t>
   </si>
   <si>
-    <t>Time For  Match  files(sec)</t>
-  </si>
-  <si>
     <t>Prepare Read files step</t>
   </si>
   <si>
@@ -314,6 +311,15 @@
   </si>
   <si>
     <t>all jobs are concurrent</t>
+  </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>Time(sec)</t>
+  </si>
+  <si>
+    <t>Ranger 16 core , RAM 32GB</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="350">
+  <cellStyleXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -525,6 +531,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -831,7 +847,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="350">
+  <cellStyles count="360">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1005,6 +1021,11 @@
     <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1180,6 +1201,11 @@
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1215,7 +1241,7 @@
               <a:rPr lang="en-US" sz="1200" b="0" i="0">
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>Number of read files vs</a:t>
+              <a:t>Size of read files vs</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
@@ -1349,7 +1375,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OLd_data!$E$32:$E$35</c:f>
+              <c:f>OLd_data!$E$34:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1370,7 +1396,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OLd_data!$F$32:$F$35</c:f>
+              <c:f>OLd_data!$F$34:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1445,6 +1471,9 @@
                 <c:pt idx="4">
                   <c:v>7663.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>15001.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1512,6 +1541,56 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Ranger 10 index files</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OLd_data!$E$24:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OLd_data!$F$24:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23287.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12364.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7042.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5526.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1520,11 +1599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388076696"/>
-        <c:axId val="485122952"/>
+        <c:axId val="551875080"/>
+        <c:axId val="551882024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388076696"/>
+        <c:axId val="551875080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,12 +1632,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485122952"/>
+        <c:crossAx val="551882024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485122952"/>
+        <c:axId val="551882024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="388076696"/>
+        <c:crossAx val="551875080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1611,8 +1690,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80453177727784"/>
           <c:y val="0.334909377635167"/>
-          <c:w val="0.195468211101711"/>
-          <c:h val="0.198594940774554"/>
+          <c:w val="0.194127243066884"/>
+          <c:h val="0.223391695059252"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1670,6 +1749,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1715,7 +1795,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OLd_data!$I$42:$I$48</c:f>
+              <c:f>OLd_data!$I$44:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1745,7 +1825,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OLd_data!$F$42:$F$48</c:f>
+              <c:f>OLd_data!$F$44:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1783,7 +1863,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>OLd_data!$I$50:$I$53</c:f>
+              <c:f>OLd_data!$I$52:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1804,7 +1884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OLd_data!$F$50:$F$53</c:f>
+              <c:f>OLd_data!$F$52:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1833,7 +1913,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>OLd_data!$I$55:$I$57</c:f>
+              <c:f>OLd_data!$I$57:$I$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1851,7 +1931,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OLd_data!$F$55:$F$57</c:f>
+              <c:f>OLd_data!$F$57:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1877,11 +1957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="484747336"/>
-        <c:axId val="484719672"/>
+        <c:axId val="551949768"/>
+        <c:axId val="551955272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="484747336"/>
+        <c:axId val="551949768"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1904,18 +1984,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484719672"/>
+        <c:crossAx val="551955272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484719672"/>
+        <c:axId val="551955272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,13 +2018,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484747336"/>
+        <c:crossAx val="551949768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2053,7 +2135,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OLd_data!$K$62:$K$64</c:f>
+              <c:f>OLd_data!$K$64:$K$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2071,7 +2153,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OLd_data!$F$62:$F$64</c:f>
+              <c:f>OLd_data!$F$64:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2097,11 +2179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383343224"/>
-        <c:axId val="485230280"/>
+        <c:axId val="551980184"/>
+        <c:axId val="551984664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383343224"/>
+        <c:axId val="551980184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,13 +2193,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485230280"/>
+        <c:crossAx val="551984664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485230280"/>
+        <c:axId val="551984664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="383343224"/>
+        <c:crossAx val="551980184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2149,15 +2231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2180,13 +2262,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2563,27 +2645,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" thickTop="1"/>
     <row r="3" spans="1:9" ht="20" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="50" thickTop="1" thickBot="1">
@@ -2591,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2606,7 +2688,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" thickTop="1">
@@ -2651,13 +2733,13 @@
     </row>
     <row r="10" spans="1:9" ht="20" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50" thickTop="1" thickBot="1">
@@ -2674,19 +2756,19 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" thickTop="1">
@@ -2750,13 +2832,13 @@
     </row>
     <row r="16" spans="1:9" ht="20" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="50" thickTop="1" thickBot="1">
@@ -2773,16 +2855,16 @@
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" thickTop="1">
@@ -2844,10 +2926,10 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="50" thickTop="1" thickBot="1">
@@ -2864,16 +2946,16 @@
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" thickTop="1">
@@ -2931,7 +3013,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2942,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O206"/>
+  <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2956,7 +3037,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
@@ -2983,6 +3064,9 @@
       <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -3329,6 +3413,9 @@
       <c r="E13">
         <v>2</v>
       </c>
+      <c r="F13">
+        <v>15001</v>
+      </c>
       <c r="H13" t="s">
         <v>55</v>
       </c>
@@ -3547,22 +3634,25 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>1.9</v>
+        <v>129</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
+      </c>
+      <c r="F24">
+        <v>23287</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24" s="7">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
       </c>
       <c r="K24" s="7">
         <v>1</v>
@@ -3576,7 +3666,7 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>1.9</v>
+        <v>129</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -3584,14 +3674,17 @@
       <c r="E25">
         <v>1.2</v>
       </c>
+      <c r="F25">
+        <v>12364</v>
+      </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25" s="7">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -3605,22 +3698,25 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>1.9</v>
+        <v>129</v>
       </c>
       <c r="D26">
         <v>12</v>
       </c>
       <c r="E26">
-        <v>0.73199999999999998</v>
+        <v>0.6</v>
+      </c>
+      <c r="F26">
+        <v>7042</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26" s="7">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>16</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
@@ -3634,146 +3730,85 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <v>1.9</v>
+        <v>129</v>
       </c>
       <c r="D27">
         <v>37</v>
       </c>
       <c r="E27">
-        <v>0.22900000000000001</v>
+        <v>0.435</v>
+      </c>
+      <c r="F27">
+        <v>5526</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="32" spans="1:15" ht="20" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="7">
-        <v>4</v>
-      </c>
-      <c r="K27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="H28" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="20" thickBot="1">
-      <c r="A30" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16" thickTop="1">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>1.7</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F32" s="13">
-        <v>8810</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32" s="7">
-        <v>4</v>
-      </c>
-      <c r="K32" s="8">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <f>D32*F32</f>
-        <v>35240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>1.7</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>1.2</v>
-      </c>
-      <c r="F33" s="13">
-        <v>4428</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33" s="7">
-        <v>4</v>
-      </c>
-      <c r="K33" s="7">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <f>D33*F33</f>
-        <v>35424</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" ht="16" thickTop="1">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3784,13 +3819,13 @@
         <v>1.7</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>0.73199999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F34" s="13">
-        <v>2855</v>
+        <v>8810</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -3801,38 +3836,37 @@
       <c r="J34" s="7">
         <v>4</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="8">
         <v>1</v>
       </c>
       <c r="L34">
         <f>D34*F34</f>
-        <v>34260</v>
+        <v>35240</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>10</v>
       </c>
       <c r="C35">
         <v>1.7</v>
       </c>
-      <c r="D35" s="7">
-        <v>37</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F35" s="14">
-        <v>936</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="7">
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>1.2</v>
+      </c>
+      <c r="F35" s="13">
+        <v>4428</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35">
         <v>4</v>
       </c>
       <c r="J35" s="7">
@@ -3841,38 +3875,45 @@
       <c r="K35" s="7">
         <v>1</v>
       </c>
+      <c r="L35">
+        <f>D35*F35</f>
+        <v>35424</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>10</v>
       </c>
       <c r="C36">
         <v>1.7</v>
       </c>
-      <c r="D36" s="7">
-        <v>37</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F36" s="14">
-        <v>524</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="7">
-        <v>8</v>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F36" s="13">
+        <v>2855</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
       </c>
       <c r="J36" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K36" s="7">
         <v>1</v>
+      </c>
+      <c r="L36">
+        <f>D36*F36</f>
+        <v>34260</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3889,20 +3930,20 @@
         <v>37</v>
       </c>
       <c r="E37" s="7">
-        <v>0.20899999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F37" s="14">
-        <v>524</v>
+        <v>936</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J37" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K37" s="7">
         <v>1</v>
@@ -3922,10 +3963,10 @@
         <v>37</v>
       </c>
       <c r="E38" s="7">
-        <v>0.435</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F38" s="14">
-        <v>1060</v>
+        <v>524</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
@@ -3941,111 +3982,113 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20" thickBot="1">
-      <c r="A40" s="4" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="66" thickTop="1" thickBot="1">
-      <c r="A41" s="1" t="s">
+      <c r="C39">
+        <v>1.7</v>
+      </c>
+      <c r="D39" s="7">
+        <v>37</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F39" s="14">
+        <v>524</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="7">
+        <v>8</v>
+      </c>
+      <c r="J39" s="7">
+        <v>8</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1.7</v>
+      </c>
+      <c r="D40" s="7">
+        <v>37</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1060</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="7">
+        <v>8</v>
+      </c>
+      <c r="J40" s="7">
+        <v>8</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="20" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="66" thickTop="1" thickBot="1">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16" thickTop="1">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>1.9</v>
-      </c>
-      <c r="D42">
-        <v>37</v>
-      </c>
-      <c r="E42">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F42">
-        <v>3539</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="7">
-        <v>12</v>
-      </c>
-      <c r="K42" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>1.9</v>
-      </c>
-      <c r="D43">
-        <v>37</v>
-      </c>
-      <c r="E43">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="F43">
-        <v>2908</v>
-      </c>
-      <c r="H43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-      <c r="J43" s="7">
-        <v>12</v>
-      </c>
-      <c r="K43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" ht="16" thickTop="1">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -4062,18 +4105,18 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F44">
-        <v>2834</v>
+        <v>3539</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J44" s="7">
         <v>12</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4094,13 +4137,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F45">
-        <v>2718</v>
+        <v>2908</v>
       </c>
       <c r="H45" t="s">
         <v>7</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J45" s="7">
         <v>12</v>
@@ -4126,13 +4169,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F46">
-        <v>2716</v>
+        <v>2834</v>
       </c>
       <c r="H46" t="s">
         <v>7</v>
       </c>
       <c r="I46">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J46" s="7">
         <v>12</v>
@@ -4158,13 +4201,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F47">
-        <v>2725</v>
+        <v>2718</v>
       </c>
       <c r="H47" t="s">
         <v>7</v>
       </c>
       <c r="I47">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J47" s="7">
         <v>12</v>
@@ -4190,13 +4233,13 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="F48">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
       </c>
       <c r="I48">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J48" s="7">
         <v>12</v>
@@ -4206,8 +4249,36 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>1.9</v>
+      </c>
+      <c r="D49">
+        <v>37</v>
+      </c>
+      <c r="E49">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F49">
+        <v>2725</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>20</v>
+      </c>
+      <c r="J49" s="7">
+        <v>12</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
@@ -4220,19 +4291,19 @@
         <v>1.9</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E50">
-        <v>1.2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F50">
-        <v>13996</v>
+        <v>2715</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J50" s="7">
         <v>12</v>
@@ -4242,36 +4313,8 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51">
-        <v>40</v>
-      </c>
-      <c r="C51">
-        <v>1.9</v>
-      </c>
-      <c r="D51">
-        <v>8</v>
-      </c>
-      <c r="E51">
-        <v>1.2</v>
-      </c>
-      <c r="F51">
-        <v>13583</v>
-      </c>
-      <c r="H51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51">
-        <v>8</v>
-      </c>
-      <c r="J51" s="7">
-        <v>12</v>
-      </c>
-      <c r="K51" s="7">
-        <v>1</v>
-      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
@@ -4290,13 +4333,13 @@
         <v>1.2</v>
       </c>
       <c r="F52">
-        <v>12960</v>
+        <v>13996</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J52" s="7">
         <v>12</v>
@@ -4322,77 +4365,83 @@
         <v>1.2</v>
       </c>
       <c r="F53">
-        <v>12881</v>
+        <v>13583</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
       </c>
       <c r="I53">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J53" s="7">
         <v>12</v>
       </c>
       <c r="K53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>1.9</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>1.2</v>
+      </c>
+      <c r="F54">
+        <v>12960</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>12</v>
+      </c>
+      <c r="J54" s="7">
+        <v>12</v>
+      </c>
+      <c r="K54" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
       <c r="C55">
-        <v>0.435</v>
+        <v>1.9</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F55">
-        <v>8247</v>
+        <v>12881</v>
       </c>
       <c r="H55" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J55" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56">
-        <v>40</v>
-      </c>
-      <c r="C56">
-        <v>0.435</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>7740</v>
-      </c>
-      <c r="H56" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56">
-        <v>8</v>
-      </c>
-      <c r="J56" s="7">
-        <v>12</v>
+      <c r="K55" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4412,173 +4461,161 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>7515</v>
+        <v>8247</v>
       </c>
       <c r="H57" t="s">
         <v>55</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J57" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="J58" s="7"/>
-    </row>
-    <row r="60" spans="1:13" ht="20" thickBot="1">
-      <c r="A60" s="4" t="s">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58">
+        <v>40</v>
+      </c>
+      <c r="C58">
+        <v>0.435</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>7740</v>
+      </c>
+      <c r="H58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>0.435</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>7515</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59">
+        <v>12</v>
+      </c>
+      <c r="J59" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="J60" s="7"/>
+    </row>
+    <row r="62" spans="1:13" ht="20" thickBot="1">
+      <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" ht="16" thickTop="1">
-      <c r="A62" t="s">
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" ht="16" thickTop="1">
+      <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B62">
-        <v>40</v>
-      </c>
-      <c r="C62" s="7">
+      <c r="B64">
+        <v>40</v>
+      </c>
+      <c r="C64" s="7">
         <v>1.9</v>
       </c>
-      <c r="D62">
+      <c r="D64">
         <v>4</v>
       </c>
-      <c r="E62">
+      <c r="E64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F62">
+      <c r="F64">
         <f>615.7*60</f>
         <v>36942</v>
       </c>
-      <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62">
-        <v>4</v>
-      </c>
-      <c r="J62" s="7">
-        <v>4</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="M62" s="5"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>40</v>
-      </c>
-      <c r="C63" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-      <c r="E63">
-        <v>1.2</v>
-      </c>
-      <c r="F63">
-        <v>19618</v>
-      </c>
-      <c r="H63" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" s="7">
-        <v>4</v>
-      </c>
-      <c r="K63">
-        <v>2</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>40</v>
-      </c>
-      <c r="C64" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D64">
-        <v>16</v>
-      </c>
-      <c r="E64">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F64">
-        <v>28299</v>
-      </c>
       <c r="H64" t="s">
         <v>15</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" s="7">
         <v>4</v>
       </c>
       <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
         <v>4</v>
       </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="14" customHeight="1">
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -4589,104 +4626,104 @@
         <v>1.9</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>0.73199999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="F65">
-        <v>25215</v>
+        <v>19618</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" s="7">
         <v>4</v>
       </c>
       <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>40</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F66">
+        <v>28299</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" s="7">
         <v>4</v>
       </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" t="s">
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14" customHeight="1">
+      <c r="A67" t="s">
         <v>6</v>
       </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-      <c r="C68" s="7">
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67" s="7">
         <v>1.9</v>
       </c>
-      <c r="D68">
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F67">
+        <v>25215</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67">
         <v>4</v>
       </c>
-      <c r="E68">
-        <v>2.4</v>
-      </c>
-      <c r="F68">
-        <v>9358</v>
-      </c>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-      <c r="I68">
+      <c r="J67" s="7">
         <v>4</v>
       </c>
-      <c r="J68" s="7">
+      <c r="K67">
         <v>4</v>
       </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-      <c r="C69" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D69">
-        <v>8</v>
-      </c>
-      <c r="E69">
-        <v>1.2</v>
-      </c>
-      <c r="F69">
-        <v>5290</v>
-      </c>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69" s="7">
-        <v>4</v>
-      </c>
-      <c r="K69">
-        <v>2</v>
-      </c>
-      <c r="L69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -4697,31 +4734,31 @@
         <v>1.9</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="F70">
-        <v>9152</v>
+        <v>9358</v>
       </c>
       <c r="H70" t="s">
         <v>82</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J70" s="7">
         <v>4</v>
       </c>
       <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
         <v>4</v>
       </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -4732,177 +4769,173 @@
         <v>1.9</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F71">
-        <v>5804</v>
+        <v>5290</v>
       </c>
       <c r="H71" t="s">
         <v>82</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" s="7">
         <v>4</v>
       </c>
       <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>0.6</v>
+      </c>
+      <c r="F72">
+        <v>9152</v>
+      </c>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" s="7">
         <v>4</v>
       </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="C72" s="7"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="C73" s="7"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>0.6</v>
+      </c>
+      <c r="F73">
+        <v>5804</v>
+      </c>
+      <c r="H73" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73" s="7">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="C74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:12">
       <c r="C75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:12">
       <c r="C76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:12">
       <c r="C77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:15" ht="20" thickBot="1">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:12">
+      <c r="C78" s="7"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="C79" s="7"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" ht="20" thickBot="1">
+      <c r="A80" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="50" thickTop="1" thickBot="1">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J81" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K79" s="6" t="s">
+      <c r="K81" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="1:15" ht="16" thickTop="1">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80">
-        <v>40</v>
-      </c>
-      <c r="C80">
-        <v>1.9</v>
-      </c>
-      <c r="D80">
-        <v>40</v>
-      </c>
-      <c r="E80">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G80">
-        <v>3966</v>
-      </c>
-      <c r="H80" t="s">
-        <v>47</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80" s="7">
-        <v>80</v>
-      </c>
-      <c r="K80" s="8">
-        <v>10</v>
-      </c>
-      <c r="L80">
-        <v>2</v>
-      </c>
-      <c r="M80">
-        <v>105</v>
-      </c>
-      <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" ht="14" customHeight="1">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81">
-        <v>40</v>
-      </c>
-      <c r="C81">
-        <v>1.9</v>
-      </c>
-      <c r="D81">
-        <v>20</v>
-      </c>
-      <c r="E81">
-        <v>0.435</v>
-      </c>
-      <c r="G81">
-        <v>8031</v>
-      </c>
-      <c r="H81" t="s">
-        <v>47</v>
-      </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81" s="7">
-        <v>40</v>
-      </c>
-      <c r="K81" s="7">
-        <v>5</v>
-      </c>
-      <c r="L81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" ht="16" thickTop="1">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -4919,25 +4952,29 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="G82">
-        <v>25807</v>
+        <v>3966</v>
       </c>
       <c r="H82" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" s="7">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="K82" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="M82">
+        <v>105</v>
+      </c>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" ht="14" customHeight="1">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -4954,25 +4991,25 @@
         <v>0.435</v>
       </c>
       <c r="G83">
-        <v>23872</v>
+        <v>8031</v>
       </c>
       <c r="H83" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K83" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -4988,23 +5025,26 @@
       <c r="E84">
         <v>0.20899999999999999</v>
       </c>
+      <c r="G84">
+        <v>25807</v>
+      </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K84" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -5020,28 +5060,31 @@
       <c r="E85">
         <v>0.435</v>
       </c>
+      <c r="G85">
+        <v>23872</v>
+      </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K85" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>6</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C86">
         <v>1.9</v>
@@ -5052,31 +5095,28 @@
       <c r="E86">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G86">
-        <v>7337</v>
-      </c>
       <c r="H86" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K86" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>6</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C87">
         <v>1.9</v>
@@ -5088,159 +5128,151 @@
         <v>0.435</v>
       </c>
       <c r="H87" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K87" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L87">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="1:14" ht="20" thickBot="1">
-      <c r="A92" s="4" t="s">
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>1.9</v>
+      </c>
+      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="E88">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G88">
+        <v>7337</v>
+      </c>
+      <c r="H88" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" s="7">
+        <v>12</v>
+      </c>
+      <c r="K88" s="8">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>1.9</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>0.435</v>
+      </c>
+      <c r="H89" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" s="7">
+        <v>12</v>
+      </c>
+      <c r="K89" s="7">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:15" ht="20" thickBot="1">
+      <c r="A94" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K92" s="7"/>
-    </row>
-    <row r="93" spans="1:14" ht="50" thickTop="1" thickBot="1">
-      <c r="A93" s="1" t="s">
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:15" ht="50" thickTop="1" thickBot="1">
+      <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="6" t="s">
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="J95" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K93" s="6" t="s">
+      <c r="K95" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M93" s="2" t="s">
+      <c r="M95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="N95" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="16" thickTop="1">
-      <c r="A94" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="7">
-        <v>40</v>
-      </c>
-      <c r="C94">
-        <v>1.9</v>
-      </c>
-      <c r="D94" s="7">
-        <v>40</v>
-      </c>
-      <c r="E94" s="7">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7">
-        <v>3468</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I94" s="7">
-        <v>2</v>
-      </c>
-      <c r="J94" s="7">
-        <v>2</v>
-      </c>
-      <c r="K94" s="8">
-        <v>0</v>
-      </c>
-      <c r="L94" s="7">
-        <v>2</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="7">
-        <v>40</v>
-      </c>
-      <c r="C95">
-        <v>1.9</v>
-      </c>
-      <c r="D95" s="7">
-        <v>20</v>
-      </c>
-      <c r="E95" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="7">
-        <v>2</v>
-      </c>
-      <c r="J95" s="7">
-        <v>2</v>
-      </c>
-      <c r="K95" s="7">
-        <v>0</v>
-      </c>
-      <c r="L95" s="7">
-        <v>2</v>
-      </c>
-      <c r="M95" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:15" ht="16" thickTop="1">
       <c r="A96" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B96" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C96">
         <v>1.9</v>
@@ -5249,16 +5281,14 @@
         <v>40</v>
       </c>
       <c r="E96" s="7">
-        <v>0.22900000000000001</v>
+        <v>1</v>
       </c>
       <c r="F96" s="7">
-        <v>907</v>
-      </c>
-      <c r="G96" s="7">
-        <v>1020</v>
-      </c>
+        <v>3468</v>
+      </c>
+      <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I96" s="7">
         <v>2</v>
@@ -5273,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5281,22 +5311,20 @@
         <v>6</v>
       </c>
       <c r="B97" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C97">
         <v>1.9</v>
       </c>
       <c r="D97" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E97" s="7">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="G97" s="7">
-        <v>1080</v>
-      </c>
+        <v>0.435</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I97" s="7">
         <v>2</v>
@@ -5311,34 +5339,87 @@
         <v>2</v>
       </c>
       <c r="M97" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="7">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>1.9</v>
+      </c>
+      <c r="D98" s="7">
+        <v>40</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F98" s="7">
+        <v>907</v>
+      </c>
+      <c r="G98" s="7">
+        <v>1020</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I98" s="7">
+        <v>2</v>
+      </c>
+      <c r="J98" s="7">
+        <v>2</v>
+      </c>
+      <c r="K98" s="8">
+        <v>0</v>
+      </c>
+      <c r="L98" s="7">
+        <v>2</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="7">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>1.9</v>
+      </c>
+      <c r="D99" s="7">
+        <v>40</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G99" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99" s="7">
+        <v>2</v>
+      </c>
+      <c r="J99" s="7">
+        <v>2</v>
+      </c>
+      <c r="K99" s="7">
+        <v>0</v>
+      </c>
+      <c r="L99" s="7">
+        <v>2</v>
+      </c>
+      <c r="M99" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="7"/>
@@ -5353,258 +5434,218 @@
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="103" spans="1:13" ht="20" thickBot="1">
-      <c r="A103" s="4" t="s">
+    <row r="101" spans="1:13">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+    </row>
+    <row r="105" spans="1:13" ht="20" thickBot="1">
+      <c r="A105" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A104" s="1" t="s">
+    <row r="106" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="6" t="s">
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J106" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K104" s="6" t="s">
+      <c r="K106" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="L106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M104" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16" thickTop="1">
-      <c r="A105" s="7" t="s">
+    <row r="107" spans="1:13" ht="16" thickTop="1">
+      <c r="A107" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="7">
-        <v>40</v>
-      </c>
-      <c r="C105">
+      <c r="B107" s="7">
+        <v>40</v>
+      </c>
+      <c r="C107">
         <v>1.9</v>
       </c>
-      <c r="D105" s="7">
-        <v>40</v>
-      </c>
-      <c r="E105" s="7">
+      <c r="D107" s="7">
+        <v>40</v>
+      </c>
+      <c r="E107" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" t="s">
+      <c r="G107" s="7"/>
+      <c r="H107" t="s">
         <v>42</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I107" s="7">
         <v>2</v>
       </c>
-      <c r="J105" s="7">
+      <c r="J107" s="7">
         <v>80</v>
       </c>
-      <c r="K105" s="7">
+      <c r="K107" s="7">
         <v>10</v>
       </c>
-      <c r="M105" s="7" t="s">
+      <c r="M107" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="7" t="s">
+    <row r="108" spans="1:13">
+      <c r="A108" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="7">
-        <v>40</v>
-      </c>
-      <c r="C106">
+      <c r="B108" s="7">
+        <v>40</v>
+      </c>
+      <c r="C108">
         <v>1.9</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D108" s="7">
         <v>20</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E108" s="7">
         <v>0.435</v>
       </c>
-      <c r="G106" s="7"/>
-      <c r="H106" t="s">
+      <c r="G108" s="7"/>
+      <c r="H108" t="s">
         <v>42</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I108" s="7">
         <v>2</v>
       </c>
-      <c r="J106" s="7">
+      <c r="J108" s="7">
         <v>80</v>
       </c>
-      <c r="K106" s="7">
+      <c r="K108" s="7">
         <v>6</v>
       </c>
-      <c r="M106" s="7" t="s">
+      <c r="M108" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="20" thickBot="1">
-      <c r="A111" s="4" t="s">
+    <row r="113" spans="1:13" ht="20" thickBot="1">
+      <c r="A113" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="66" thickTop="1" thickBot="1">
-      <c r="A112" s="1" t="s">
+    <row r="114" spans="1:13" ht="66" thickTop="1" thickBot="1">
+      <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B114" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G112" s="11" t="s">
+      <c r="G114" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H112" s="11" t="s">
+      <c r="H114" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11" t="s">
+      <c r="I114" s="11"/>
+      <c r="J114" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K112" s="11"/>
-      <c r="L112" s="12" t="s">
+      <c r="K114" s="11"/>
+      <c r="L114" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16" thickTop="1">
-      <c r="A113" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113">
-        <v>10</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D113">
-        <v>1.7</v>
-      </c>
-      <c r="E113" s="7">
-        <v>40</v>
-      </c>
-      <c r="F113" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G113" s="7">
-        <v>0.105</v>
-      </c>
-      <c r="H113" s="7">
-        <v>54.6</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J113" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>63</v>
-      </c>
-      <c r="D114">
-        <v>1.7</v>
-      </c>
-      <c r="E114">
-        <v>40</v>
-      </c>
-      <c r="F114">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G114">
-        <v>0.105</v>
-      </c>
-      <c r="H114" s="7">
-        <v>67</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J114">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" ht="16" thickTop="1">
       <c r="A115" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B115">
         <v>10</v>
       </c>
-      <c r="C115" t="s">
-        <v>63</v>
+      <c r="C115" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D115">
         <v>1.7</v>
       </c>
-      <c r="E115">
-        <v>20</v>
-      </c>
-      <c r="F115">
-        <v>0.435</v>
-      </c>
-      <c r="G115">
-        <v>0.22</v>
-      </c>
-      <c r="H115">
-        <v>70</v>
+      <c r="E115" s="7">
+        <v>40</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="H115" s="7">
+        <v>54.6</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J115">
-        <v>1.6</v>
-      </c>
-      <c r="L115" s="12"/>
-      <c r="M115" s="3"/>
+      <c r="J115" s="7">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" t="s">
-        <v>53</v>
+      <c r="A116" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B116">
         <v>10</v>
@@ -5613,379 +5654,383 @@
         <v>63</v>
       </c>
       <c r="D116">
-        <v>0.435</v>
+        <v>1.7</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G116">
-        <v>0.2</v>
-      </c>
-      <c r="H116">
-        <v>20</v>
+        <v>0.105</v>
+      </c>
+      <c r="H116" s="7">
+        <v>67</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="J116">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="L117" s="3"/>
-    </row>
-    <row r="123" spans="1:13" ht="20" thickBot="1">
-      <c r="A123" s="4" t="s">
+      <c r="A117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117">
+        <v>1.7</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+      <c r="F117">
+        <v>0.435</v>
+      </c>
+      <c r="G117">
+        <v>0.22</v>
+      </c>
+      <c r="H117">
         <v>70</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="50" thickTop="1" thickBot="1">
-      <c r="A124" s="1" t="s">
+      <c r="I117" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J117">
+        <v>1.6</v>
+      </c>
+      <c r="L117" s="12"/>
+      <c r="M117" s="3"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118">
+        <v>0.435</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0.2</v>
+      </c>
+      <c r="H118">
+        <v>20</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="L119" s="3"/>
+    </row>
+    <row r="125" spans="1:13" ht="20" thickBot="1">
+      <c r="A125" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="50" thickTop="1" thickBot="1">
+      <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="6" t="s">
+      <c r="B126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="J126" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K124" s="6" t="s">
+      <c r="K126" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16" thickTop="1">
-      <c r="A125" t="s">
+    <row r="127" spans="1:13" ht="16" thickTop="1">
+      <c r="A127" t="s">
         <v>53</v>
       </c>
-      <c r="B125">
-        <v>40</v>
-      </c>
-      <c r="C125">
+      <c r="B127">
+        <v>40</v>
+      </c>
+      <c r="C127">
         <v>0.439</v>
       </c>
-      <c r="D125">
+      <c r="D127">
         <v>5</v>
       </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125">
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
         <v>7464</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H127" t="s">
         <v>55</v>
       </c>
-      <c r="I125">
-        <v>12</v>
-      </c>
-      <c r="J125" s="7">
-        <v>12</v>
-      </c>
-      <c r="K125" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" t="s">
+      <c r="I127">
+        <v>12</v>
+      </c>
+      <c r="J127" s="7">
+        <v>12</v>
+      </c>
+      <c r="K127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" t="s">
         <v>6</v>
       </c>
-      <c r="B126">
-        <v>40</v>
-      </c>
-      <c r="C126">
+      <c r="B128">
+        <v>40</v>
+      </c>
+      <c r="C128">
         <v>1.9</v>
       </c>
-      <c r="D126">
+      <c r="D128">
         <v>5</v>
       </c>
-      <c r="E126">
+      <c r="E128">
         <v>1.2</v>
       </c>
-      <c r="F126">
+      <c r="F128">
         <v>12960</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H128" t="s">
         <v>55</v>
       </c>
-      <c r="I126">
-        <v>12</v>
-      </c>
-      <c r="J126" s="7">
-        <v>12</v>
-      </c>
-      <c r="K126" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="20" thickBot="1">
-      <c r="A130" s="4" t="s">
+      <c r="I128">
+        <v>12</v>
+      </c>
+      <c r="J128" s="7">
+        <v>12</v>
+      </c>
+      <c r="K128" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="20" thickBot="1">
+      <c r="A132" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="50" thickTop="1" thickBot="1">
-      <c r="A131" s="1" t="s">
+    <row r="133" spans="1:11" ht="50" thickTop="1" thickBot="1">
+      <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="6" t="s">
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J131" s="6" t="s">
+      <c r="J133" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K131" s="6" t="s">
+      <c r="K133" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="16" thickTop="1">
-      <c r="A132" t="s">
+    <row r="134" spans="1:11" ht="16" thickTop="1">
+      <c r="A134" t="s">
         <v>6</v>
       </c>
-      <c r="B132">
+      <c r="B134">
         <v>10</v>
       </c>
-      <c r="C132">
+      <c r="C134">
         <v>1.7</v>
       </c>
-      <c r="D132">
+      <c r="D134">
         <v>37</v>
       </c>
-      <c r="E132">
+      <c r="E134">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F132">
+      <c r="F134">
         <v>662</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H134" t="s">
         <v>7</v>
       </c>
-      <c r="I132">
-        <v>12</v>
-      </c>
-      <c r="J132" s="7">
-        <v>12</v>
-      </c>
-      <c r="K132" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" t="s">
+      <c r="I134">
+        <v>12</v>
+      </c>
+      <c r="J134" s="7">
+        <v>12</v>
+      </c>
+      <c r="K134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
         <v>6</v>
       </c>
-      <c r="B133">
+      <c r="B135">
         <v>10</v>
       </c>
-      <c r="C133">
+      <c r="C135">
         <v>3.3</v>
       </c>
-      <c r="D133">
+      <c r="D135">
         <v>37</v>
       </c>
-      <c r="E133">
+      <c r="E135">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F133">
+      <c r="F135">
         <v>676</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H135" t="s">
         <v>7</v>
       </c>
-      <c r="I133">
-        <v>12</v>
-      </c>
-      <c r="J133" s="7">
-        <v>12</v>
-      </c>
-      <c r="K133" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="9" t="s">
+      <c r="I135">
+        <v>12</v>
+      </c>
+      <c r="J135" s="7">
+        <v>12</v>
+      </c>
+      <c r="K135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="9" t="s">
+    <row r="145" spans="1:12">
+      <c r="A145" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A144" s="9" t="s">
+    <row r="146" spans="1:12" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A146" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="1:12" ht="16" thickTop="1">
-      <c r="A145" s="9" t="s">
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:12" ht="16" thickTop="1">
+      <c r="A147" s="9" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="9" t="s">
+    <row r="156" spans="1:12">
+      <c r="A156" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="18" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L156" s="2"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="18" customHeight="1">
       <c r="A158" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L158" s="2"/>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="59" customHeight="1">
-      <c r="L163" s="2"/>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B169" s="7">
-        <v>10</v>
-      </c>
-      <c r="C169" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F169" s="7">
-        <v>252</v>
-      </c>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I169" s="7">
-        <v>12</v>
-      </c>
-      <c r="J169" s="7">
-        <v>12</v>
-      </c>
-      <c r="K169" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B170" s="7">
-        <v>10</v>
-      </c>
-      <c r="C170" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="F170" s="7">
-        <v>454</v>
-      </c>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I170" s="7">
-        <v>12</v>
-      </c>
-      <c r="J170" s="7">
-        <v>12</v>
-      </c>
-      <c r="K170" s="7">
-        <v>1</v>
-      </c>
+    <row r="165" spans="1:12" ht="59" customHeight="1">
+      <c r="L165" s="2"/>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="7" t="s">
@@ -5999,10 +6044,10 @@
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7">
-        <v>0.58599999999999997</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F171" s="7">
-        <v>700</v>
+        <v>252</v>
       </c>
       <c r="G171" s="7"/>
       <c r="H171" s="7" t="s">
@@ -6030,10 +6075,10 @@
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7">
-        <v>0.78200000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="F172" s="7">
-        <v>868</v>
+        <v>454</v>
       </c>
       <c r="G172" s="7"/>
       <c r="H172" s="7" t="s">
@@ -6061,10 +6106,10 @@
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7">
-        <v>1</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="F173" s="7">
-        <v>1109</v>
+        <v>700</v>
       </c>
       <c r="G173" s="7"/>
       <c r="H173" s="7" t="s">
@@ -6092,9 +6137,11 @@
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7">
-        <v>2</v>
-      </c>
-      <c r="F174" s="7"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F174" s="7">
+        <v>868</v>
+      </c>
       <c r="G174" s="7"/>
       <c r="H174" s="7" t="s">
         <v>55</v>
@@ -6110,36 +6157,90 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="16" t="s">
+      <c r="A175" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175" s="7">
+        <v>10</v>
+      </c>
+      <c r="C175" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7">
+        <v>1</v>
+      </c>
+      <c r="F175" s="7">
+        <v>1109</v>
+      </c>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I175" s="7">
+        <v>12</v>
+      </c>
+      <c r="J175" s="7">
+        <v>12</v>
+      </c>
+      <c r="K175" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B176" s="7">
+        <v>10</v>
+      </c>
+      <c r="C176" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7">
+        <v>2</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I176" s="7">
+        <v>12</v>
+      </c>
+      <c r="J176" s="7">
+        <v>12</v>
+      </c>
+      <c r="K176" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B175" s="16"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="10"/>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="9"/>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="9"/>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B177" s="16"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="10"/>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="9"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:11">
       <c r="A191" s="9"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:11">
       <c r="A192" s="9"/>
     </row>
     <row r="193" spans="1:1">
@@ -6148,11 +6249,11 @@
     <row r="194" spans="1:1">
       <c r="A194" s="9"/>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="9"/>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="9"/>
+    <row r="195" spans="1:1">
+      <c r="A195" s="9"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="9"/>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="9"/>
@@ -6169,8 +6270,15 @@
     <row r="206" spans="1:1">
       <c r="A206" s="9"/>
     </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="9"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15920" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16240" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ranger" sheetId="2" r:id="rId1"/>
-    <sheet name="OLd_data" sheetId="1" r:id="rId2"/>
+    <sheet name="new_data" sheetId="3" r:id="rId2"/>
+    <sheet name="OLd_data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8573" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="101">
   <si>
     <t>Type</t>
   </si>
@@ -453,7 +454,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="372">
+  <cellStyleXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -826,6 +827,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -862,7 +881,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="372">
+  <cellStyles count="390">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1047,6 +1066,15 @@
     <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1233,6 +1261,15 @@
     <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1242,6 +1279,398 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HG-CHR21-40</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$8:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18603.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11916.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3841.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HG-CHR21-40</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$8:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$8:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8810.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4428.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2855.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>936.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>HG40</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$36:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$36:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44824.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21071.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12359.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9670.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>HG10</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$30:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Bglumae10</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$21:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>805.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1152.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1502.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2406.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3389.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Bglumae40</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$14:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$14:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1596.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2978.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4387.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5774.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7663.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="608464904"/>
+        <c:axId val="623638360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="608464904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="623638360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="623638360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="608464904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1309,7 +1738,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>40 Index files</c:v>
+            <c:v>40 Index files chr 21</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -1373,7 +1802,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>10 index files</c:v>
+            <c:v>10 index files chr 21</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -1572,7 +2001,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Ranger 10 index files</c:v>
+            <c:v>Ranger 10 index files whole Human genome</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -1626,11 +2055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="551957512"/>
-        <c:axId val="496077496"/>
+        <c:axId val="538355000"/>
+        <c:axId val="538362072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="551957512"/>
+        <c:axId val="538355000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,12 +2088,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496077496"/>
+        <c:crossAx val="538362072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496077496"/>
+        <c:axId val="538362072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +2127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551957512"/>
+        <c:crossAx val="538355000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1718,7 +2147,7 @@
           <c:x val="0.80453177727784"/>
           <c:y val="0.334909377635167"/>
           <c:w val="0.194127243066884"/>
-          <c:h val="0.223391695059252"/>
+          <c:h val="0.408041305737784"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1735,7 +2164,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1976,6 +2405,68 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>hsajs</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OLd_data!$I$61:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OLd_data!$F$61:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9351.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6900.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5902.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4902.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5526.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5444.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1984,11 +2475,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="473488824"/>
-        <c:axId val="473528936"/>
+        <c:axId val="544931736"/>
+        <c:axId val="544937352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="473488824"/>
+        <c:axId val="544931736"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2018,12 +2509,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473528936"/>
+        <c:crossAx val="544937352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473528936"/>
+        <c:axId val="544937352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473488824"/>
+        <c:crossAx val="544931736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2066,7 +2557,7 @@
           <c:x val="0.758088245726041"/>
           <c:y val="0.322569209391812"/>
           <c:w val="0.155015369700409"/>
-          <c:h val="0.136309366872127"/>
+          <c:h val="0.142938885308376"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2083,7 +2574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2206,11 +2697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467541912"/>
-        <c:axId val="504069032"/>
+        <c:axId val="544792408"/>
+        <c:axId val="544326184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467541912"/>
+        <c:axId val="544792408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,13 +2711,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504069032"/>
+        <c:crossAx val="544326184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504069032"/>
+        <c:axId val="544326184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2236,7 +2727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467541912"/>
+        <c:crossAx val="544792408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2254,6 +2745,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3050,10 +3576,912 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="47" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="66" thickTop="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickTop="1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1.9</v>
+      </c>
+      <c r="D3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E3">
+        <f>615.7*60</f>
+        <v>36942</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>1.9</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+      <c r="E4">
+        <v>18603</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>1.9</v>
+      </c>
+      <c r="D5">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E5">
+        <f>198.6*60</f>
+        <v>11916</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>1.9</v>
+      </c>
+      <c r="D6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E6">
+        <f>3841</f>
+        <v>3841</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1.7</v>
+      </c>
+      <c r="D8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="13">
+        <v>8810</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1.7</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4428</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1.7</v>
+      </c>
+      <c r="D10">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2855</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1.7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E11" s="14">
+        <v>936</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>0.435</v>
+      </c>
+      <c r="D14">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E14">
+        <v>1596</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>0.435</v>
+      </c>
+      <c r="D15">
+        <v>0.39</v>
+      </c>
+      <c r="E15">
+        <v>2978</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>0.435</v>
+      </c>
+      <c r="D16">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E16">
+        <v>4387</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>0.435</v>
+      </c>
+      <c r="D17">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E17">
+        <v>5774</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0.435</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>(7718+7608)/2</f>
+        <v>7663</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>0.435</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>15001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.435</v>
+      </c>
+      <c r="D21">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E21">
+        <v>419</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0.435</v>
+      </c>
+      <c r="D22">
+        <v>0.39</v>
+      </c>
+      <c r="E22">
+        <v>805</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0.435</v>
+      </c>
+      <c r="D23">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E23">
+        <v>1152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="7">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0.435</v>
+      </c>
+      <c r="D24">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E24">
+        <v>1502</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="7">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2406</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7">
+        <v>12</v>
+      </c>
+      <c r="H25" s="7">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="7">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.435</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3389</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="7">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7">
+        <v>12</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>129</v>
+      </c>
+      <c r="D30">
+        <v>2.4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30" s="7">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>129</v>
+      </c>
+      <c r="D31">
+        <v>1.2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31" s="7">
+        <v>12</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>129</v>
+      </c>
+      <c r="D32">
+        <v>0.6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32" s="7">
+        <v>12</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>129</v>
+      </c>
+      <c r="D33">
+        <v>0.435</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33" s="7">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>129</v>
+      </c>
+      <c r="D36">
+        <v>2.4</v>
+      </c>
+      <c r="E36">
+        <v>44824</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="7">
+        <v>12</v>
+      </c>
+      <c r="H36" s="7">
+        <v>12</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>129</v>
+      </c>
+      <c r="D37">
+        <v>1.2</v>
+      </c>
+      <c r="E37">
+        <v>21071</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="7">
+        <v>12</v>
+      </c>
+      <c r="H37" s="7">
+        <v>12</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>129</v>
+      </c>
+      <c r="D38">
+        <v>0.6</v>
+      </c>
+      <c r="E38">
+        <v>12359</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="7">
+        <v>12</v>
+      </c>
+      <c r="H38" s="7">
+        <v>12</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>129</v>
+      </c>
+      <c r="D39">
+        <v>0.435</v>
+      </c>
+      <c r="E39">
+        <v>9670</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="7">
+        <v>12</v>
+      </c>
+      <c r="H39" s="7">
+        <v>12</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16240" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="28800" windowHeight="16240" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ranger" sheetId="2" r:id="rId1"/>
@@ -1481,6 +1481,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14375.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8202.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5168.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4276.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1618,11 +1630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="608464904"/>
-        <c:axId val="623638360"/>
+        <c:axId val="624147720"/>
+        <c:axId val="624348888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608464904"/>
+        <c:axId val="624147720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,12 +1644,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="623638360"/>
+        <c:crossAx val="624348888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="623638360"/>
+        <c:axId val="624348888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608464904"/>
+        <c:crossAx val="624147720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2055,11 +2067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="538355000"/>
-        <c:axId val="538362072"/>
+        <c:axId val="608656120"/>
+        <c:axId val="544915928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="538355000"/>
+        <c:axId val="608656120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,19 +2093,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538362072"/>
+        <c:crossAx val="544915928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="538362072"/>
+        <c:axId val="544915928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,14 +2131,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538355000"/>
+        <c:crossAx val="608656120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2205,7 +2215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2475,11 +2484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544931736"/>
-        <c:axId val="544937352"/>
+        <c:axId val="608891112"/>
+        <c:axId val="608475992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544931736"/>
+        <c:axId val="608891112"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2502,19 +2511,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544937352"/>
+        <c:crossAx val="608475992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544937352"/>
+        <c:axId val="608475992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,14 +2544,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544931736"/>
+        <c:crossAx val="608891112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2697,11 +2704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544792408"/>
-        <c:axId val="544326184"/>
+        <c:axId val="620301848"/>
+        <c:axId val="620306456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544792408"/>
+        <c:axId val="620301848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,13 +2718,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544326184"/>
+        <c:crossAx val="620306456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544326184"/>
+        <c:axId val="620306456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +2734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544792408"/>
+        <c:crossAx val="620301848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3579,7 +3586,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4254,6 +4261,9 @@
       <c r="D30">
         <v>2.4</v>
       </c>
+      <c r="E30">
+        <v>14375</v>
+      </c>
       <c r="F30" t="s">
         <v>55</v>
       </c>
@@ -4280,6 +4290,9 @@
       <c r="D31">
         <v>1.2</v>
       </c>
+      <c r="E31">
+        <v>8202</v>
+      </c>
       <c r="F31" t="s">
         <v>55</v>
       </c>
@@ -4306,6 +4319,9 @@
       <c r="D32">
         <v>0.6</v>
       </c>
+      <c r="E32">
+        <v>5168</v>
+      </c>
       <c r="F32" t="s">
         <v>55</v>
       </c>
@@ -4331,6 +4347,9 @@
       </c>
       <c r="D33">
         <v>0.435</v>
+      </c>
+      <c r="E33">
+        <v>4276</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
@@ -4466,7 +4485,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -69258,7 +69276,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="28800" windowHeight="16240" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ranger" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="103">
   <si>
     <t>Type</t>
   </si>
@@ -325,6 +325,12 @@
   <si>
     <t xml:space="preserve">Human </t>
   </si>
+  <si>
+    <t>HG 18</t>
+  </si>
+  <si>
+    <t>HG 18 Chromosome 21</t>
+  </si>
 </sst>
 </file>
 
@@ -454,7 +460,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="390">
+  <cellStyleXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -845,6 +851,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -881,7 +901,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="390">
+  <cellStyles count="404">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1075,6 +1095,13 @@
     <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1270,6 +1297,13 @@
     <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1292,6 +1326,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Match</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> step time vs Read file Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1302,111 +1360,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>HG-CHR21-40</c:v>
+            <c:v>HG-CHR21-40i</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>new_data!$D$8:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.732</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$3:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>36942.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18603.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11916.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3841.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>HG-CHR21-40</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$8:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.732</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$8:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8810.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4428.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2855.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>936.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>HG40</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$36:$D$39</c:f>
+              <c:f>new_data!$D$3:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1427,7 +1385,107 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>new_data!$E$36:$E$39</c:f>
+              <c:f>new_data!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27398.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13816.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6963.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5032.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HG-CHR21-10i</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$8:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$8:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6433.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3209.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1615.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1186.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>HG40i</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$28:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$28:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1452,11 +1510,20 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>HG10</c:v>
+            <c:v>HG10i</c:v>
           </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>new_data!$D$30:$D$33</c:f>
+              <c:f>new_data!$D$34:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1477,7 +1544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>new_data!$E$30:$E$33</c:f>
+              <c:f>new_data!$E$34:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1630,44 +1697,109 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="624147720"/>
-        <c:axId val="624348888"/>
+        <c:axId val="517593816"/>
+        <c:axId val="517596968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="624147720"/>
+        <c:axId val="517593816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> on Read files</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="624348888"/>
+        <c:crossAx val="517596968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="624348888"/>
+        <c:axId val="517596968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> step </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Time in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="624147720"/>
+        <c:crossAx val="517593816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81183932346723"/>
+          <c:y val="0.133439937881417"/>
+          <c:w val="0.186046511627907"/>
+          <c:h val="0.503844315300341"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2067,11 +2199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="608656120"/>
-        <c:axId val="544915928"/>
+        <c:axId val="534226792"/>
+        <c:axId val="517550664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608656120"/>
+        <c:axId val="534226792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,12 +2231,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544915928"/>
+        <c:crossAx val="517550664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544915928"/>
+        <c:axId val="517550664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +2269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608656120"/>
+        <c:crossAx val="534226792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2484,11 +2616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="608891112"/>
-        <c:axId val="608475992"/>
+        <c:axId val="517689288"/>
+        <c:axId val="517694888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="608891112"/>
+        <c:axId val="517689288"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2517,12 +2649,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608475992"/>
+        <c:crossAx val="517694888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608475992"/>
+        <c:axId val="517694888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608891112"/>
+        <c:crossAx val="517689288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2704,11 +2836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="620301848"/>
-        <c:axId val="620306456"/>
+        <c:axId val="517718888"/>
+        <c:axId val="517723368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="620301848"/>
+        <c:axId val="517718888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,13 +2850,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="620306456"/>
+        <c:crossAx val="517723368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620306456"/>
+        <c:axId val="517723368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,7 +2866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="620301848"/>
+        <c:crossAx val="517718888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2755,15 +2887,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>374650</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3583,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3649,7 +3781,7 @@
     </row>
     <row r="3" spans="1:9" ht="16" thickTop="1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -3658,14 +3790,13 @@
         <v>1.9</v>
       </c>
       <c r="D3">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E3">
-        <f>615.7*60</f>
-        <v>36942</v>
+        <v>27398</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3679,7 +3810,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -3691,10 +3822,10 @@
         <v>1.2</v>
       </c>
       <c r="E4">
-        <v>18603</v>
+        <v>13816</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3708,7 +3839,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -3717,14 +3848,13 @@
         <v>1.9</v>
       </c>
       <c r="D5">
-        <v>0.73199999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
-        <f>198.6*60</f>
-        <v>11916</v>
+        <v>6963</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3738,7 +3868,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -3747,14 +3877,13 @@
         <v>1.9</v>
       </c>
       <c r="D6">
-        <v>0.22900000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="E6">
-        <f>3841</f>
-        <v>3841</v>
+        <v>5032</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3772,7 +3901,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -3780,14 +3909,14 @@
       <c r="C8">
         <v>1.7</v>
       </c>
-      <c r="D8">
-        <v>2.2999999999999998</v>
+      <c r="D8" s="7">
+        <v>2.4</v>
       </c>
       <c r="E8" s="13">
-        <v>8810</v>
+        <v>6433</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3801,7 +3930,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -3809,14 +3938,14 @@
       <c r="C9">
         <v>1.7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>1.2</v>
       </c>
       <c r="E9" s="13">
-        <v>4428</v>
+        <v>3209</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3830,7 +3959,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -3838,14 +3967,14 @@
       <c r="C10">
         <v>1.7</v>
       </c>
-      <c r="D10">
-        <v>0.73199999999999998</v>
+      <c r="D10" s="7">
+        <v>0.6</v>
       </c>
       <c r="E10" s="13">
-        <v>2855</v>
+        <v>1615</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3858,8 +3987,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>102</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -3868,13 +3997,13 @@
         <v>1.7</v>
       </c>
       <c r="D11" s="7">
-        <v>0.22900000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="E11" s="14">
-        <v>936</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>5</v>
+        <v>1186</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
       <c r="G11" s="7">
         <v>4</v>
@@ -4243,31 +4372,83 @@
       <c r="A27" s="15"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="15"/>
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>129</v>
+      </c>
+      <c r="D28">
+        <v>2.4</v>
+      </c>
+      <c r="E28">
+        <v>44824</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="7">
+        <v>12</v>
+      </c>
+      <c r="H28" s="7">
+        <v>12</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="15"/>
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>129</v>
+      </c>
+      <c r="D29">
+        <v>1.2</v>
+      </c>
+      <c r="E29">
+        <v>21071</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="7">
+        <v>12</v>
+      </c>
+      <c r="H29" s="7">
+        <v>12</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>129</v>
       </c>
       <c r="D30">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="E30">
-        <v>14375</v>
+        <v>12359</v>
       </c>
       <c r="F30" t="s">
         <v>55</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <v>12</v>
       </c>
       <c r="H30" s="7">
@@ -4278,25 +4459,25 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="7" t="s">
-        <v>100</v>
+      <c r="A31" t="s">
+        <v>101</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>129</v>
       </c>
       <c r="D31">
-        <v>1.2</v>
+        <v>0.435</v>
       </c>
       <c r="E31">
-        <v>8202</v>
+        <v>9670</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>12</v>
       </c>
       <c r="H31" s="7">
@@ -4307,86 +4488,89 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>129</v>
-      </c>
-      <c r="D32">
-        <v>0.6</v>
-      </c>
-      <c r="E32">
-        <v>5168</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32">
-        <v>12</v>
-      </c>
-      <c r="H32" s="7">
-        <v>12</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1</v>
-      </c>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>129</v>
-      </c>
-      <c r="D33">
-        <v>0.435</v>
-      </c>
-      <c r="E33">
-        <v>4276</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33">
-        <v>12</v>
-      </c>
-      <c r="H33" s="7">
-        <v>12</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="G34" s="7"/>
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>129</v>
+      </c>
+      <c r="D34">
+        <v>2.4</v>
+      </c>
+      <c r="E34">
+        <v>14375</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34" s="7">
+        <v>12</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>129</v>
+      </c>
+      <c r="D35">
+        <v>1.2</v>
+      </c>
+      <c r="E35">
+        <v>8202</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35" s="7">
+        <v>12</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>129</v>
       </c>
       <c r="D36">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="E36">
-        <v>44824</v>
+        <v>5168</v>
       </c>
       <c r="F36" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36">
         <v>12</v>
       </c>
       <c r="H36" s="7">
@@ -4397,25 +4581,25 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="7" t="s">
-        <v>100</v>
+      <c r="A37" t="s">
+        <v>101</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>129</v>
       </c>
       <c r="D37">
-        <v>1.2</v>
+        <v>0.435</v>
       </c>
       <c r="E37">
-        <v>21071</v>
+        <v>4276</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37">
         <v>12</v>
       </c>
       <c r="H37" s="7">
@@ -4426,65 +4610,11 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>129</v>
-      </c>
-      <c r="D38">
-        <v>0.6</v>
-      </c>
-      <c r="E38">
-        <v>12359</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="7">
-        <v>12</v>
-      </c>
-      <c r="H38" s="7">
-        <v>12</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>129</v>
-      </c>
-      <c r="D39">
-        <v>0.435</v>
-      </c>
-      <c r="E39">
-        <v>9670</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="7">
-        <v>12</v>
-      </c>
-      <c r="H39" s="7">
-        <v>12</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1</v>
-      </c>
+      <c r="G38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -1341,7 +1341,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> step time vs Read file Size</a:t>
+              <a:t> step time vs Read file Size (HG Chr 21)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1354,7 +1354,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1362,6 +1362,15 @@
           <c:tx>
             <c:v>HG-CHR21-40i</c:v>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>new_data!$D$3:$D$6</c:f>
@@ -1404,7 +1413,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1412,6 +1421,22 @@
           <c:tx>
             <c:v>HG-CHR21-10i</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>new_data!$D$8:$D$11</c:f>
@@ -1454,123 +1479,206 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="651031400"/>
+        <c:axId val="650299176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="651031400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
           <c:tx>
-            <c:v>HG40i</c:v>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> on Read files</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
           </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$28:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$28:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>44824.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21071.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12359.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9670.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650299176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650299176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
           <c:tx>
-            <c:v>HG10i</c:v>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> step </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Time in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
           </c:tx>
-          <c:marker>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="008000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>new_data!$D$34:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>new_data!$E$34:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>14375.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8202.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5168.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4276.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="651031400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81183932346723"/>
+          <c:y val="0.133439937881417"/>
+          <c:w val="0.188160691078664"/>
+          <c:h val="0.231170226023905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Match</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> step time vs Read file Size Bglumae</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.246412659582601"/>
+          <c:y val="0.0316546762589928"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>Bglumae10</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>new_data!$D$21:$D$26</c:f>
@@ -1625,7 +1733,833 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bglumae40</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$14:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$14:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1596.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2978.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4387.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5774.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7663.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510472600"/>
+        <c:axId val="552016328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510472600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> on Read files</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="552016328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="552016328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> step </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Time in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="510472600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81183932346723"/>
+          <c:y val="0.133439937881417"/>
+          <c:w val="0.17534118186683"/>
+          <c:h val="0.404547895541834"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Match</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> step time vs Read file Size(Whole HG 18)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HG40i</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$28:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$28:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44824.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21071.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12359.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9670.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HG10i</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$34:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14375.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8202.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5168.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4276.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534026264"/>
+        <c:axId val="698304568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534026264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> on Read files</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="698304568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="698304568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Match</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> step </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Time in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="534026264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81183932346723"/>
+          <c:y val="0.133439937881417"/>
+          <c:w val="0.17534118186683"/>
+          <c:h val="0.404547895541834"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Match</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> step time vs Read file Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HG-CHR21-40i</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27398.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13816.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6963.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5032.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HG-CHR21-10i</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$8:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$8:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6433.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3209.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1615.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1186.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>HG40i</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$28:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$28:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44824.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21071.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12359.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9670.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>HG10i</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$34:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14375.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8202.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5168.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4276.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Bglumae10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new_data!$D$21:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new_data!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>805.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1152.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1502.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2406.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3389.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1687,7 +2621,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1697,11 +2631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517593816"/>
-        <c:axId val="517596968"/>
+        <c:axId val="697837208"/>
+        <c:axId val="552025976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517593816"/>
+        <c:axId val="697837208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,12 +2668,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517596968"/>
+        <c:crossAx val="552025976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517596968"/>
+        <c:axId val="552025976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +2717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517593816"/>
+        <c:crossAx val="697837208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1796,8 +2730,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.81183932346723"/>
           <c:y val="0.133439937881417"/>
-          <c:w val="0.186046511627907"/>
-          <c:h val="0.503844315300341"/>
+          <c:w val="0.17534118186683"/>
+          <c:h val="0.404547895541834"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1814,7 +2748,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2199,11 +3133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534226792"/>
-        <c:axId val="517550664"/>
+        <c:axId val="654969992"/>
+        <c:axId val="534731128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534226792"/>
+        <c:axId val="654969992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,12 +3165,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517550664"/>
+        <c:crossAx val="534731128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517550664"/>
+        <c:axId val="534731128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,7 +3203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534226792"/>
+        <c:crossAx val="654969992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2306,7 +3240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2616,11 +3550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517689288"/>
-        <c:axId val="517694888"/>
+        <c:axId val="534415752"/>
+        <c:axId val="551772472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517689288"/>
+        <c:axId val="534415752"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2649,12 +3583,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517694888"/>
+        <c:crossAx val="551772472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517694888"/>
+        <c:axId val="551772472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +3616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517689288"/>
+        <c:crossAx val="534415752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2713,7 +3647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2836,11 +3770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517718888"/>
-        <c:axId val="517723368"/>
+        <c:axId val="534614344"/>
+        <c:axId val="510596712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517718888"/>
+        <c:axId val="534614344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,13 +3784,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517723368"/>
+        <c:crossAx val="510596712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517723368"/>
+        <c:axId val="510596712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +3800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517718888"/>
+        <c:crossAx val="534614344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2888,15 +3822,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2910,6 +3844,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3717,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O129" sqref="O129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4614,7 +5644,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="2960" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ranger" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8648" uniqueCount="107">
   <si>
     <t>Type</t>
   </si>
@@ -331,6 +331,18 @@
   <si>
     <t>HG 18 Chromosome 21</t>
   </si>
+  <si>
+    <t>Slopes</t>
+  </si>
+  <si>
+    <t>hg18-chr21</t>
+  </si>
+  <si>
+    <t>hg18</t>
+  </si>
+  <si>
+    <t>b.glumae</t>
+  </si>
 </sst>
 </file>
 
@@ -460,7 +472,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="404">
+  <cellStyleXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -865,6 +877,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -901,7 +915,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="404">
+  <cellStyles count="406">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1102,6 +1116,7 @@
     <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1304,6 +1319,7 @@
     <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="79" builtinId="11"/>
   </cellStyles>
@@ -1489,11 +1505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651031400"/>
-        <c:axId val="650299176"/>
+        <c:axId val="408917144"/>
+        <c:axId val="404503352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651031400"/>
+        <c:axId val="408917144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,12 +1542,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650299176"/>
+        <c:crossAx val="404503352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="650299176"/>
+        <c:axId val="404503352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="651031400"/>
+        <c:crossAx val="408917144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1814,11 +1830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="510472600"/>
-        <c:axId val="552016328"/>
+        <c:axId val="429978600"/>
+        <c:axId val="429984072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="510472600"/>
+        <c:axId val="429978600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,12 +1867,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552016328"/>
+        <c:crossAx val="429984072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552016328"/>
+        <c:axId val="429984072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510472600"/>
+        <c:crossAx val="429978600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2108,11 +2124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534026264"/>
-        <c:axId val="698304568"/>
+        <c:axId val="430011608"/>
+        <c:axId val="430017208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534026264"/>
+        <c:axId val="430011608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,12 +2161,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="698304568"/>
+        <c:crossAx val="430017208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="698304568"/>
+        <c:axId val="430017208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534026264"/>
+        <c:crossAx val="430011608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2631,11 +2647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697837208"/>
-        <c:axId val="552025976"/>
+        <c:axId val="429943848"/>
+        <c:axId val="430079512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697837208"/>
+        <c:axId val="429943848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,12 +2684,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552025976"/>
+        <c:crossAx val="430079512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552025976"/>
+        <c:axId val="430079512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697837208"/>
+        <c:crossAx val="429943848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3133,11 +3149,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="654969992"/>
-        <c:axId val="534731128"/>
+        <c:axId val="408818936"/>
+        <c:axId val="408824648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="654969992"/>
+        <c:axId val="408818936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,12 +3181,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534731128"/>
+        <c:crossAx val="408824648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534731128"/>
+        <c:axId val="408824648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,7 +3219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654969992"/>
+        <c:crossAx val="408818936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3550,11 +3566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534415752"/>
-        <c:axId val="551772472"/>
+        <c:axId val="404984920"/>
+        <c:axId val="404990488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534415752"/>
+        <c:axId val="404984920"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3583,12 +3599,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551772472"/>
+        <c:crossAx val="404990488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="551772472"/>
+        <c:axId val="404990488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534415752"/>
+        <c:crossAx val="404984920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3770,11 +3786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534614344"/>
-        <c:axId val="510596712"/>
+        <c:axId val="404998136"/>
+        <c:axId val="429940456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534614344"/>
+        <c:axId val="404998136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3784,13 +3800,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510596712"/>
+        <c:crossAx val="429940456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510596712"/>
+        <c:axId val="429940456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534614344"/>
+        <c:crossAx val="404998136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4745,10 +4761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O129" sqref="O129"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5136,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -5165,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -5195,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -5224,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -5253,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -5282,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -5311,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -5339,8 +5355,11 @@
       <c r="I24" s="7">
         <v>1</v>
       </c>
+      <c r="W24" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:25">
       <c r="A25" s="7" t="s">
         <v>79</v>
       </c>
@@ -5369,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:25">
       <c r="A26" s="7" t="s">
         <v>79</v>
       </c>
@@ -5397,11 +5416,37 @@
       <c r="I26" s="7">
         <v>1</v>
       </c>
+      <c r="V26" t="s">
+        <v>104</v>
+      </c>
+      <c r="W26">
+        <v>2672.6</v>
+      </c>
+      <c r="X26">
+        <v>11371</v>
+      </c>
+      <c r="Y26">
+        <f>+X26/W26</f>
+        <v>4.2546583850931681</v>
+      </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:25">
       <c r="A27" s="15"/>
+      <c r="V27" t="s">
+        <v>105</v>
+      </c>
+      <c r="W27">
+        <v>5129</v>
+      </c>
+      <c r="X27">
+        <v>17912</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" ref="Y27:Y28" si="0">+X27/W27</f>
+        <v>3.4922986937024763</v>
+      </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -5429,8 +5474,21 @@
       <c r="I28" s="7">
         <v>1</v>
       </c>
+      <c r="V28" t="s">
+        <v>106</v>
+      </c>
+      <c r="W28">
+        <v>1674.5</v>
+      </c>
+      <c r="X28">
+        <v>7462.8</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>4.4567333532397733</v>
+      </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -5459,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -5488,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -5517,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:25">
       <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:9">
@@ -5644,6 +5702,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/data-intensive-bio/Results.xlsx
+++ b/papers/data-intensive-bio/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="1380" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ranger" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8648" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8651" uniqueCount="110">
   <si>
     <t>Type</t>
   </si>
@@ -332,9 +332,6 @@
     <t>HG 18 Chromosome 21</t>
   </si>
   <si>
-    <t>Slopes</t>
-  </si>
-  <si>
     <t>hg18-chr21</t>
   </si>
   <si>
@@ -342,6 +339,18 @@
   </si>
   <si>
     <t>b.glumae</t>
+  </si>
+  <si>
+    <t>10 index</t>
+  </si>
+  <si>
+    <t>40 index</t>
+  </si>
+  <si>
+    <t>slope ratio</t>
+  </si>
+  <si>
+    <t>SLOPES</t>
   </si>
 </sst>
 </file>
@@ -1505,11 +1514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408917144"/>
-        <c:axId val="404503352"/>
+        <c:axId val="381279880"/>
+        <c:axId val="381140104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408917144"/>
+        <c:axId val="381279880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,12 +1551,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404503352"/>
+        <c:crossAx val="381140104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404503352"/>
+        <c:axId val="381140104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408917144"/>
+        <c:crossAx val="381279880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1830,11 +1839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429978600"/>
-        <c:axId val="429984072"/>
+        <c:axId val="405413912"/>
+        <c:axId val="390991912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429978600"/>
+        <c:axId val="405413912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,12 +1876,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429984072"/>
+        <c:crossAx val="390991912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429984072"/>
+        <c:axId val="390991912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429978600"/>
+        <c:crossAx val="405413912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2124,11 +2133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430011608"/>
-        <c:axId val="430017208"/>
+        <c:axId val="386350056"/>
+        <c:axId val="386355656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430011608"/>
+        <c:axId val="386350056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,12 +2170,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430017208"/>
+        <c:crossAx val="386355656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430017208"/>
+        <c:axId val="386355656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430011608"/>
+        <c:crossAx val="386350056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2276,7 +2285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2403,7 +2411,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2647,11 +2654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429943848"/>
-        <c:axId val="430079512"/>
+        <c:axId val="430034328"/>
+        <c:axId val="430039976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429943848"/>
+        <c:axId val="430034328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,19 +2684,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430079512"/>
+        <c:crossAx val="430039976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430079512"/>
+        <c:axId val="430039976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,14 +2732,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429943848"/>
+        <c:crossAx val="430034328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3149,11 +3154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408818936"/>
-        <c:axId val="408824648"/>
+        <c:axId val="429989736"/>
+        <c:axId val="429995448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408818936"/>
+        <c:axId val="429989736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,12 +3186,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408824648"/>
+        <c:crossAx val="429995448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408824648"/>
+        <c:axId val="429995448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +3224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408818936"/>
+        <c:crossAx val="429989736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3566,11 +3571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404984920"/>
-        <c:axId val="404990488"/>
+        <c:axId val="408891256"/>
+        <c:axId val="390095384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404984920"/>
+        <c:axId val="408891256"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3599,12 +3604,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404990488"/>
+        <c:crossAx val="390095384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404990488"/>
+        <c:axId val="390095384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3632,7 +3637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404984920"/>
+        <c:crossAx val="408891256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3786,11 +3791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404998136"/>
-        <c:axId val="429940456"/>
+        <c:axId val="405158600"/>
+        <c:axId val="404972040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404998136"/>
+        <c:axId val="405158600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,13 +3805,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429940456"/>
+        <c:crossAx val="404972040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429940456"/>
+        <c:axId val="404972040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,7 +3821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404998136"/>
+        <c:crossAx val="405158600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4763,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5356,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -5387,6 +5392,15 @@
       <c r="I25" s="7">
         <v>1</v>
       </c>
+      <c r="W25" t="s">
+        <v>106</v>
+      </c>
+      <c r="X25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="7" t="s">
@@ -5417,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W26">
         <v>2672.6</v>
@@ -5433,7 +5447,7 @@
     <row r="27" spans="1:25">
       <c r="A27" s="15"/>
       <c r="V27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W27">
         <v>5129</v>
@@ -5475,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W28">
         <v>1674.5</v>
@@ -5702,7 +5716,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
